--- a/StageData.xlsx
+++ b/StageData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Documents\Unreal Projects\petitcon21\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48D79423-2D40-4EAF-A33A-7307C9CBFD60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D60FA232-EE58-4E9E-85D3-89A1D643361B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38565" yWindow="2025" windowWidth="21600" windowHeight="11295" xr2:uid="{2A5FB008-7706-4DC0-AC1A-842182642272}"/>
+    <workbookView xWindow="36255" yWindow="420" windowWidth="21600" windowHeight="15435" xr2:uid="{2A5FB008-7706-4DC0-AC1A-842182642272}"/>
   </bookViews>
   <sheets>
     <sheet name="作業中" sheetId="3" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="39">
   <si>
     <t>Row Name</t>
   </si>
@@ -159,12 +159,24 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -179,8 +191,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -495,17 +509,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEBD7694-9D46-44B3-81F9-AE3C7A3C321F}">
-  <dimension ref="A1:I16"/>
+  <dimension ref="A1:I39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="A16" sqref="A13:A39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="22.42578125" bestFit="1" customWidth="1"/>
@@ -515,42 +529,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1">
+        <v>-1</v>
+      </c>
+      <c r="C2" s="1">
         <v>1</v>
       </c>
       <c r="D2">
@@ -573,13 +587,13 @@
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3">
+      <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3">
+      <c r="B3" s="1">
+        <v>-1</v>
+      </c>
+      <c r="C3" s="1">
         <v>2</v>
       </c>
       <c r="D3">
@@ -602,13 +616,13 @@
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1">
+        <v>-1</v>
+      </c>
+      <c r="C4" s="1">
         <v>3</v>
       </c>
       <c r="D4">
@@ -631,13 +645,13 @@
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5">
+      <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5">
+      <c r="B5" s="1">
+        <v>-1</v>
+      </c>
+      <c r="C5" s="1">
         <v>5</v>
       </c>
       <c r="D5">
@@ -660,13 +674,13 @@
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6">
+      <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-      <c r="C6">
+      <c r="B6" s="1">
+        <v>-1</v>
+      </c>
+      <c r="C6" s="1">
         <v>6</v>
       </c>
       <c r="D6">
@@ -689,13 +703,13 @@
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7">
+      <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="B7">
-        <v>1</v>
-      </c>
-      <c r="C7">
+      <c r="B7" s="1">
+        <v>-1</v>
+      </c>
+      <c r="C7" s="1">
         <v>7</v>
       </c>
       <c r="D7">
@@ -718,13 +732,13 @@
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8">
+      <c r="A8" s="1">
         <v>7</v>
       </c>
-      <c r="B8">
-        <v>1</v>
-      </c>
-      <c r="C8">
+      <c r="B8" s="1">
+        <v>-1</v>
+      </c>
+      <c r="C8" s="1">
         <v>9</v>
       </c>
       <c r="D8">
@@ -747,13 +761,13 @@
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9">
+      <c r="A9" s="1">
         <v>8</v>
       </c>
-      <c r="B9">
-        <v>1</v>
-      </c>
-      <c r="C9">
+      <c r="B9" s="1">
+        <v>-1</v>
+      </c>
+      <c r="C9" s="1">
         <v>10</v>
       </c>
       <c r="D9">
@@ -776,13 +790,13 @@
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10">
+      <c r="A10" s="1">
         <v>9</v>
       </c>
-      <c r="B10">
-        <v>1</v>
-      </c>
-      <c r="C10">
+      <c r="B10" s="1">
+        <v>-1</v>
+      </c>
+      <c r="C10" s="1">
         <v>11</v>
       </c>
       <c r="D10">
@@ -805,13 +819,13 @@
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11">
-        <v>1</v>
-      </c>
-      <c r="C11">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1">
+        <v>-1</v>
+      </c>
+      <c r="C11" s="1">
         <v>13</v>
       </c>
       <c r="D11">
@@ -834,13 +848,13 @@
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>11</v>
-      </c>
-      <c r="B12">
-        <v>1</v>
-      </c>
-      <c r="C12">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1">
+        <v>-1</v>
+      </c>
+      <c r="C12" s="1">
         <v>14</v>
       </c>
       <c r="D12">
@@ -863,13 +877,13 @@
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13">
+      <c r="A13" s="1">
         <v>12</v>
       </c>
-      <c r="B13">
-        <v>1</v>
-      </c>
-      <c r="C13">
+      <c r="B13" s="1">
+        <v>-1</v>
+      </c>
+      <c r="C13" s="1">
         <v>15</v>
       </c>
       <c r="D13">
@@ -892,13 +906,13 @@
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14">
+      <c r="A14" s="1">
         <v>13</v>
       </c>
-      <c r="B14">
-        <v>1</v>
-      </c>
-      <c r="C14">
+      <c r="B14" s="1">
+        <v>-1</v>
+      </c>
+      <c r="C14" s="1">
         <v>17</v>
       </c>
       <c r="D14">
@@ -921,13 +935,13 @@
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15">
+      <c r="A15" s="1">
         <v>14</v>
       </c>
-      <c r="B15">
-        <v>1</v>
-      </c>
-      <c r="C15">
+      <c r="B15" s="1">
+        <v>-1</v>
+      </c>
+      <c r="C15" s="1">
         <v>18</v>
       </c>
       <c r="D15">
@@ -950,13 +964,13 @@
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16">
+      <c r="A16" s="1">
         <v>15</v>
       </c>
-      <c r="B16">
-        <v>1</v>
-      </c>
-      <c r="C16">
+      <c r="B16" s="1">
+        <v>-1</v>
+      </c>
+      <c r="C16" s="1">
         <v>19</v>
       </c>
       <c r="D16">
@@ -976,6 +990,673 @@
       </c>
       <c r="I16" t="s">
         <v>33</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>16</v>
+      </c>
+      <c r="B17" s="1">
+        <v>1</v>
+      </c>
+      <c r="C17" s="1">
+        <v>1</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17" t="s">
+        <v>16</v>
+      </c>
+      <c r="F17" t="s">
+        <v>10</v>
+      </c>
+      <c r="G17" t="s">
+        <v>11</v>
+      </c>
+      <c r="H17">
+        <v>200</v>
+      </c>
+      <c r="I17" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>17</v>
+      </c>
+      <c r="B18" s="1">
+        <v>1</v>
+      </c>
+      <c r="C18" s="1">
+        <v>2</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18" t="s">
+        <v>9</v>
+      </c>
+      <c r="F18" t="s">
+        <v>10</v>
+      </c>
+      <c r="G18" t="s">
+        <v>11</v>
+      </c>
+      <c r="H18">
+        <v>200</v>
+      </c>
+      <c r="I18" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>18</v>
+      </c>
+      <c r="B19" s="1">
+        <v>1</v>
+      </c>
+      <c r="C19" s="1">
+        <v>3</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19" t="s">
+        <v>15</v>
+      </c>
+      <c r="F19" t="s">
+        <v>10</v>
+      </c>
+      <c r="G19" t="s">
+        <v>11</v>
+      </c>
+      <c r="H19">
+        <v>200</v>
+      </c>
+      <c r="I19" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>19</v>
+      </c>
+      <c r="B20" s="1">
+        <v>1</v>
+      </c>
+      <c r="C20" s="1">
+        <v>4</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20" t="s">
+        <v>9</v>
+      </c>
+      <c r="F20" t="s">
+        <v>10</v>
+      </c>
+      <c r="G20" t="s">
+        <v>11</v>
+      </c>
+      <c r="H20">
+        <v>200</v>
+      </c>
+      <c r="I20" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>20</v>
+      </c>
+      <c r="B21" s="1">
+        <v>1</v>
+      </c>
+      <c r="C21" s="1">
+        <v>4.5</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="E21" t="s">
+        <v>9</v>
+      </c>
+      <c r="F21" t="s">
+        <v>10</v>
+      </c>
+      <c r="G21" t="s">
+        <v>11</v>
+      </c>
+      <c r="H21">
+        <v>200</v>
+      </c>
+      <c r="I21" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>21</v>
+      </c>
+      <c r="B22" s="1">
+        <v>1</v>
+      </c>
+      <c r="C22" s="1">
+        <v>5</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="E22" t="s">
+        <v>15</v>
+      </c>
+      <c r="F22" t="s">
+        <v>10</v>
+      </c>
+      <c r="G22" t="s">
+        <v>11</v>
+      </c>
+      <c r="H22">
+        <v>200</v>
+      </c>
+      <c r="I22" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>22</v>
+      </c>
+      <c r="B23" s="1">
+        <v>1</v>
+      </c>
+      <c r="C23" s="1">
+        <v>5.5</v>
+      </c>
+      <c r="D23">
+        <v>1</v>
+      </c>
+      <c r="E23" t="s">
+        <v>16</v>
+      </c>
+      <c r="F23" t="s">
+        <v>10</v>
+      </c>
+      <c r="G23" t="s">
+        <v>11</v>
+      </c>
+      <c r="H23">
+        <v>200</v>
+      </c>
+      <c r="I23" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>23</v>
+      </c>
+      <c r="B24" s="1">
+        <v>1</v>
+      </c>
+      <c r="C24" s="1">
+        <v>6</v>
+      </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
+      <c r="E24" t="s">
+        <v>16</v>
+      </c>
+      <c r="F24" t="s">
+        <v>10</v>
+      </c>
+      <c r="G24" t="s">
+        <v>11</v>
+      </c>
+      <c r="H24">
+        <v>200</v>
+      </c>
+      <c r="I24" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>24</v>
+      </c>
+      <c r="B25" s="1">
+        <v>1</v>
+      </c>
+      <c r="C25" s="1">
+        <v>7.5</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
+      <c r="E25" t="s">
+        <v>15</v>
+      </c>
+      <c r="F25" t="s">
+        <v>10</v>
+      </c>
+      <c r="G25" t="s">
+        <v>11</v>
+      </c>
+      <c r="H25">
+        <v>200</v>
+      </c>
+      <c r="I25" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>25</v>
+      </c>
+      <c r="B26" s="1">
+        <v>1</v>
+      </c>
+      <c r="C26" s="1">
+        <v>8</v>
+      </c>
+      <c r="D26">
+        <v>1</v>
+      </c>
+      <c r="E26" t="s">
+        <v>9</v>
+      </c>
+      <c r="F26" t="s">
+        <v>10</v>
+      </c>
+      <c r="G26" t="s">
+        <v>11</v>
+      </c>
+      <c r="H26">
+        <v>200</v>
+      </c>
+      <c r="I26" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>26</v>
+      </c>
+      <c r="B27" s="1">
+        <v>1</v>
+      </c>
+      <c r="C27" s="1">
+        <v>10</v>
+      </c>
+      <c r="D27">
+        <v>1</v>
+      </c>
+      <c r="E27" t="s">
+        <v>9</v>
+      </c>
+      <c r="F27" t="s">
+        <v>10</v>
+      </c>
+      <c r="G27" t="s">
+        <v>11</v>
+      </c>
+      <c r="H27">
+        <v>200</v>
+      </c>
+      <c r="I27" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>27</v>
+      </c>
+      <c r="B28" s="1">
+        <v>1</v>
+      </c>
+      <c r="C28" s="1">
+        <v>11</v>
+      </c>
+      <c r="D28">
+        <v>1</v>
+      </c>
+      <c r="E28" t="s">
+        <v>16</v>
+      </c>
+      <c r="F28" t="s">
+        <v>10</v>
+      </c>
+      <c r="G28" t="s">
+        <v>11</v>
+      </c>
+      <c r="H28">
+        <v>200</v>
+      </c>
+      <c r="I28" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <v>28</v>
+      </c>
+      <c r="B29" s="1">
+        <v>1</v>
+      </c>
+      <c r="C29" s="1">
+        <v>11.5</v>
+      </c>
+      <c r="D29">
+        <v>1</v>
+      </c>
+      <c r="E29" t="s">
+        <v>9</v>
+      </c>
+      <c r="F29" t="s">
+        <v>10</v>
+      </c>
+      <c r="G29" t="s">
+        <v>11</v>
+      </c>
+      <c r="H29">
+        <v>200</v>
+      </c>
+      <c r="I29" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <v>29</v>
+      </c>
+      <c r="B30" s="1">
+        <v>1</v>
+      </c>
+      <c r="C30" s="1">
+        <v>12</v>
+      </c>
+      <c r="D30">
+        <v>1</v>
+      </c>
+      <c r="E30" t="s">
+        <v>15</v>
+      </c>
+      <c r="F30" t="s">
+        <v>10</v>
+      </c>
+      <c r="G30" t="s">
+        <v>11</v>
+      </c>
+      <c r="H30">
+        <v>200</v>
+      </c>
+      <c r="I30" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <v>30</v>
+      </c>
+      <c r="B31" s="1">
+        <v>1</v>
+      </c>
+      <c r="C31" s="1">
+        <v>13</v>
+      </c>
+      <c r="D31">
+        <v>1</v>
+      </c>
+      <c r="E31" t="s">
+        <v>9</v>
+      </c>
+      <c r="F31" t="s">
+        <v>10</v>
+      </c>
+      <c r="G31" t="s">
+        <v>11</v>
+      </c>
+      <c r="H31">
+        <v>200</v>
+      </c>
+      <c r="I31" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
+        <v>31</v>
+      </c>
+      <c r="B32" s="1">
+        <v>1</v>
+      </c>
+      <c r="C32" s="1">
+        <v>14</v>
+      </c>
+      <c r="D32">
+        <v>1</v>
+      </c>
+      <c r="E32" t="s">
+        <v>16</v>
+      </c>
+      <c r="F32" t="s">
+        <v>10</v>
+      </c>
+      <c r="G32" t="s">
+        <v>11</v>
+      </c>
+      <c r="H32">
+        <v>200</v>
+      </c>
+      <c r="I32" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
+        <v>32</v>
+      </c>
+      <c r="B33" s="1">
+        <v>1</v>
+      </c>
+      <c r="C33" s="1">
+        <v>15</v>
+      </c>
+      <c r="D33">
+        <v>1</v>
+      </c>
+      <c r="E33" t="s">
+        <v>16</v>
+      </c>
+      <c r="F33" t="s">
+        <v>10</v>
+      </c>
+      <c r="G33" t="s">
+        <v>11</v>
+      </c>
+      <c r="H33">
+        <v>200</v>
+      </c>
+      <c r="I33" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
+        <v>33</v>
+      </c>
+      <c r="B34" s="1">
+        <v>1</v>
+      </c>
+      <c r="C34" s="1">
+        <v>15.5</v>
+      </c>
+      <c r="D34">
+        <v>1</v>
+      </c>
+      <c r="E34" t="s">
+        <v>9</v>
+      </c>
+      <c r="F34" t="s">
+        <v>10</v>
+      </c>
+      <c r="G34" t="s">
+        <v>11</v>
+      </c>
+      <c r="H34">
+        <v>200</v>
+      </c>
+      <c r="I34" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
+        <v>34</v>
+      </c>
+      <c r="B35" s="1">
+        <v>1</v>
+      </c>
+      <c r="C35" s="1">
+        <v>16</v>
+      </c>
+      <c r="D35">
+        <v>1</v>
+      </c>
+      <c r="E35" t="s">
+        <v>16</v>
+      </c>
+      <c r="F35" t="s">
+        <v>10</v>
+      </c>
+      <c r="G35" t="s">
+        <v>11</v>
+      </c>
+      <c r="H35">
+        <v>200</v>
+      </c>
+      <c r="I35" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
+        <v>35</v>
+      </c>
+      <c r="B36" s="1">
+        <v>1</v>
+      </c>
+      <c r="C36" s="1">
+        <v>17</v>
+      </c>
+      <c r="D36">
+        <v>1</v>
+      </c>
+      <c r="E36" t="s">
+        <v>16</v>
+      </c>
+      <c r="F36" t="s">
+        <v>10</v>
+      </c>
+      <c r="G36" t="s">
+        <v>11</v>
+      </c>
+      <c r="H36">
+        <v>200</v>
+      </c>
+      <c r="I36" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
+        <v>36</v>
+      </c>
+      <c r="B37" s="1">
+        <v>1</v>
+      </c>
+      <c r="C37" s="1">
+        <v>17.5</v>
+      </c>
+      <c r="D37">
+        <v>1</v>
+      </c>
+      <c r="E37" t="s">
+        <v>15</v>
+      </c>
+      <c r="F37" t="s">
+        <v>10</v>
+      </c>
+      <c r="G37" t="s">
+        <v>11</v>
+      </c>
+      <c r="H37">
+        <v>200</v>
+      </c>
+      <c r="I37" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
+        <v>37</v>
+      </c>
+      <c r="B38" s="1">
+        <v>1</v>
+      </c>
+      <c r="C38" s="1">
+        <v>18</v>
+      </c>
+      <c r="D38">
+        <v>1</v>
+      </c>
+      <c r="E38" t="s">
+        <v>9</v>
+      </c>
+      <c r="F38" t="s">
+        <v>10</v>
+      </c>
+      <c r="G38" t="s">
+        <v>11</v>
+      </c>
+      <c r="H38">
+        <v>200</v>
+      </c>
+      <c r="I38" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A39" s="1">
+        <v>38</v>
+      </c>
+      <c r="B39" s="1">
+        <v>1</v>
+      </c>
+      <c r="C39" s="1">
+        <v>19</v>
+      </c>
+      <c r="D39">
+        <v>1</v>
+      </c>
+      <c r="E39" t="s">
+        <v>16</v>
+      </c>
+      <c r="F39" t="s">
+        <v>10</v>
+      </c>
+      <c r="G39" t="s">
+        <v>11</v>
+      </c>
+      <c r="H39">
+        <v>200</v>
+      </c>
+      <c r="I39" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/StageData.xlsx
+++ b/StageData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Documents\Unreal Projects\petitcon21\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D60FA232-EE58-4E9E-85D3-89A1D643361B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67791B72-8C38-4874-A1B0-EDF202237F29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="36255" yWindow="420" windowWidth="21600" windowHeight="15435" xr2:uid="{2A5FB008-7706-4DC0-AC1A-842182642272}"/>
+    <workbookView xWindow="35130" yWindow="510" windowWidth="21600" windowHeight="15435" xr2:uid="{2A5FB008-7706-4DC0-AC1A-842182642272}"/>
   </bookViews>
   <sheets>
     <sheet name="作業中" sheetId="3" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="471" uniqueCount="41">
   <si>
     <t>Row Name</t>
   </si>
@@ -144,6 +144,12 @@
   </si>
   <si>
     <t>右上から落ちてきて膝に当たる</t>
+  </si>
+  <si>
+    <t>左中段 遅い</t>
+  </si>
+  <si>
+    <t>左上段 遅い</t>
   </si>
 </sst>
 </file>
@@ -509,10 +515,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEBD7694-9D46-44B3-81F9-AE3C7A3C321F}">
-  <dimension ref="A1:I39"/>
+  <dimension ref="A1:I58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="A16" sqref="A13:A39"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="C40" sqref="C40:C58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -997,7 +1003,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="1">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="C17" s="1">
         <v>1</v>
@@ -1026,7 +1032,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="1">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="C18" s="1">
         <v>2</v>
@@ -1055,7 +1061,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="1">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="C19" s="1">
         <v>3</v>
@@ -1084,7 +1090,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="1">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="C20" s="1">
         <v>4</v>
@@ -1113,7 +1119,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="1">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="C21" s="1">
         <v>4.5</v>
@@ -1142,7 +1148,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="1">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="C22" s="1">
         <v>5</v>
@@ -1171,7 +1177,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="1">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="C23" s="1">
         <v>5.5</v>
@@ -1200,7 +1206,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="1">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="C24" s="1">
         <v>6</v>
@@ -1229,7 +1235,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="1">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="C25" s="1">
         <v>7.5</v>
@@ -1258,7 +1264,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="1">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="C26" s="1">
         <v>8</v>
@@ -1287,7 +1293,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="1">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="C27" s="1">
         <v>10</v>
@@ -1316,7 +1322,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="1">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="C28" s="1">
         <v>11</v>
@@ -1345,7 +1351,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="1">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="C29" s="1">
         <v>11.5</v>
@@ -1374,7 +1380,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="1">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="C30" s="1">
         <v>12</v>
@@ -1403,7 +1409,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="1">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="C31" s="1">
         <v>13</v>
@@ -1432,7 +1438,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="1">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="C32" s="1">
         <v>14</v>
@@ -1461,7 +1467,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="1">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="C33" s="1">
         <v>15</v>
@@ -1490,7 +1496,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="1">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="C34" s="1">
         <v>15.5</v>
@@ -1519,7 +1525,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="1">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="C35" s="1">
         <v>16</v>
@@ -1548,7 +1554,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="1">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="C36" s="1">
         <v>17</v>
@@ -1577,7 +1583,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="1">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="C37" s="1">
         <v>17.5</v>
@@ -1606,7 +1612,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="1">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="C38" s="1">
         <v>18</v>
@@ -1635,7 +1641,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="1">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="C39" s="1">
         <v>19</v>
@@ -1657,6 +1663,557 @@
       </c>
       <c r="I39" t="s">
         <v>32</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A40" s="1">
+        <v>39</v>
+      </c>
+      <c r="B40" s="1">
+        <v>1</v>
+      </c>
+      <c r="C40" s="1">
+        <v>1</v>
+      </c>
+      <c r="D40">
+        <v>1</v>
+      </c>
+      <c r="E40" t="s">
+        <v>16</v>
+      </c>
+      <c r="F40" t="s">
+        <v>10</v>
+      </c>
+      <c r="G40" t="s">
+        <v>11</v>
+      </c>
+      <c r="H40">
+        <v>200</v>
+      </c>
+      <c r="I40" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A41" s="1">
+        <v>40</v>
+      </c>
+      <c r="B41" s="1">
+        <v>1</v>
+      </c>
+      <c r="C41" s="1">
+        <v>2</v>
+      </c>
+      <c r="D41">
+        <v>1</v>
+      </c>
+      <c r="E41" t="s">
+        <v>9</v>
+      </c>
+      <c r="F41" t="s">
+        <v>10</v>
+      </c>
+      <c r="G41" t="s">
+        <v>11</v>
+      </c>
+      <c r="H41">
+        <v>200</v>
+      </c>
+      <c r="I41" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A42" s="1">
+        <v>41</v>
+      </c>
+      <c r="B42" s="1">
+        <v>1</v>
+      </c>
+      <c r="C42" s="1">
+        <v>3</v>
+      </c>
+      <c r="D42">
+        <v>1</v>
+      </c>
+      <c r="E42" t="s">
+        <v>29</v>
+      </c>
+      <c r="F42" t="s">
+        <v>18</v>
+      </c>
+      <c r="G42" t="s">
+        <v>19</v>
+      </c>
+      <c r="H42">
+        <v>200</v>
+      </c>
+      <c r="I42" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A43" s="1">
+        <v>42</v>
+      </c>
+      <c r="B43" s="1">
+        <v>1</v>
+      </c>
+      <c r="C43" s="1">
+        <v>4</v>
+      </c>
+      <c r="D43">
+        <v>1</v>
+      </c>
+      <c r="E43" t="s">
+        <v>17</v>
+      </c>
+      <c r="F43" t="s">
+        <v>18</v>
+      </c>
+      <c r="G43" t="s">
+        <v>19</v>
+      </c>
+      <c r="H43">
+        <v>200</v>
+      </c>
+      <c r="I43" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A44" s="1">
+        <v>43</v>
+      </c>
+      <c r="B44" s="1">
+        <v>1</v>
+      </c>
+      <c r="C44" s="1">
+        <v>5</v>
+      </c>
+      <c r="D44">
+        <v>1</v>
+      </c>
+      <c r="E44" t="s">
+        <v>20</v>
+      </c>
+      <c r="F44" t="s">
+        <v>18</v>
+      </c>
+      <c r="G44" t="s">
+        <v>19</v>
+      </c>
+      <c r="H44">
+        <v>200</v>
+      </c>
+      <c r="I44" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A45" s="1">
+        <v>44</v>
+      </c>
+      <c r="B45" s="1">
+        <v>1</v>
+      </c>
+      <c r="C45" s="1">
+        <v>6</v>
+      </c>
+      <c r="D45">
+        <v>1</v>
+      </c>
+      <c r="E45" t="s">
+        <v>20</v>
+      </c>
+      <c r="F45" t="s">
+        <v>18</v>
+      </c>
+      <c r="G45" t="s">
+        <v>19</v>
+      </c>
+      <c r="H45">
+        <v>200</v>
+      </c>
+      <c r="I45" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A46" s="1">
+        <v>45</v>
+      </c>
+      <c r="B46" s="1">
+        <v>1</v>
+      </c>
+      <c r="C46" s="1">
+        <v>7</v>
+      </c>
+      <c r="D46">
+        <v>1</v>
+      </c>
+      <c r="E46" t="s">
+        <v>17</v>
+      </c>
+      <c r="F46" t="s">
+        <v>18</v>
+      </c>
+      <c r="G46" t="s">
+        <v>19</v>
+      </c>
+      <c r="H46">
+        <v>200</v>
+      </c>
+      <c r="I46" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A47" s="1">
+        <v>46</v>
+      </c>
+      <c r="B47" s="1">
+        <v>1</v>
+      </c>
+      <c r="C47" s="1">
+        <v>8</v>
+      </c>
+      <c r="D47">
+        <v>1</v>
+      </c>
+      <c r="E47" t="s">
+        <v>29</v>
+      </c>
+      <c r="F47" t="s">
+        <v>18</v>
+      </c>
+      <c r="G47" t="s">
+        <v>19</v>
+      </c>
+      <c r="H47">
+        <v>200</v>
+      </c>
+      <c r="I47" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A48" s="1">
+        <v>47</v>
+      </c>
+      <c r="B48" s="1">
+        <v>1</v>
+      </c>
+      <c r="C48" s="1">
+        <v>12</v>
+      </c>
+      <c r="D48">
+        <v>1</v>
+      </c>
+      <c r="E48" t="s">
+        <v>16</v>
+      </c>
+      <c r="F48" t="s">
+        <v>10</v>
+      </c>
+      <c r="G48" t="s">
+        <v>11</v>
+      </c>
+      <c r="H48">
+        <v>200</v>
+      </c>
+      <c r="I48" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A49" s="1">
+        <v>48</v>
+      </c>
+      <c r="B49" s="1">
+        <v>1</v>
+      </c>
+      <c r="C49" s="1">
+        <v>13</v>
+      </c>
+      <c r="D49">
+        <v>1</v>
+      </c>
+      <c r="E49" t="s">
+        <v>17</v>
+      </c>
+      <c r="F49" t="s">
+        <v>18</v>
+      </c>
+      <c r="G49" t="s">
+        <v>19</v>
+      </c>
+      <c r="H49">
+        <v>200</v>
+      </c>
+      <c r="I49" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A50" s="1">
+        <v>49</v>
+      </c>
+      <c r="B50" s="1">
+        <v>1</v>
+      </c>
+      <c r="C50" s="1">
+        <v>14</v>
+      </c>
+      <c r="D50">
+        <v>1</v>
+      </c>
+      <c r="E50" t="s">
+        <v>15</v>
+      </c>
+      <c r="F50" t="s">
+        <v>10</v>
+      </c>
+      <c r="G50" t="s">
+        <v>11</v>
+      </c>
+      <c r="H50">
+        <v>200</v>
+      </c>
+      <c r="I50" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A51" s="1">
+        <v>50</v>
+      </c>
+      <c r="B51" s="1">
+        <v>1</v>
+      </c>
+      <c r="C51" s="1">
+        <v>15</v>
+      </c>
+      <c r="D51">
+        <v>1</v>
+      </c>
+      <c r="E51" t="s">
+        <v>9</v>
+      </c>
+      <c r="F51" t="s">
+        <v>10</v>
+      </c>
+      <c r="G51" t="s">
+        <v>11</v>
+      </c>
+      <c r="H51">
+        <v>200</v>
+      </c>
+      <c r="I51" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A52" s="1">
+        <v>51</v>
+      </c>
+      <c r="B52" s="1">
+        <v>1</v>
+      </c>
+      <c r="C52" s="1">
+        <v>16</v>
+      </c>
+      <c r="D52">
+        <v>1</v>
+      </c>
+      <c r="E52" t="s">
+        <v>20</v>
+      </c>
+      <c r="F52" t="s">
+        <v>18</v>
+      </c>
+      <c r="G52" t="s">
+        <v>19</v>
+      </c>
+      <c r="H52">
+        <v>200</v>
+      </c>
+      <c r="I52" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A53" s="1">
+        <v>52</v>
+      </c>
+      <c r="B53" s="1">
+        <v>1</v>
+      </c>
+      <c r="C53" s="1">
+        <v>20</v>
+      </c>
+      <c r="D53">
+        <v>1</v>
+      </c>
+      <c r="E53" t="s">
+        <v>17</v>
+      </c>
+      <c r="F53" t="s">
+        <v>18</v>
+      </c>
+      <c r="G53" t="s">
+        <v>19</v>
+      </c>
+      <c r="H53">
+        <v>200</v>
+      </c>
+      <c r="I53" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A54" s="1">
+        <v>53</v>
+      </c>
+      <c r="B54" s="1">
+        <v>1</v>
+      </c>
+      <c r="C54" s="1">
+        <v>21</v>
+      </c>
+      <c r="D54">
+        <v>1</v>
+      </c>
+      <c r="E54" t="s">
+        <v>20</v>
+      </c>
+      <c r="F54" t="s">
+        <v>18</v>
+      </c>
+      <c r="G54" t="s">
+        <v>19</v>
+      </c>
+      <c r="H54">
+        <v>200</v>
+      </c>
+      <c r="I54" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A55" s="1">
+        <v>54</v>
+      </c>
+      <c r="B55" s="1">
+        <v>1</v>
+      </c>
+      <c r="C55" s="1">
+        <v>22</v>
+      </c>
+      <c r="D55">
+        <v>1</v>
+      </c>
+      <c r="E55" t="s">
+        <v>15</v>
+      </c>
+      <c r="F55" t="s">
+        <v>10</v>
+      </c>
+      <c r="G55" t="s">
+        <v>11</v>
+      </c>
+      <c r="H55">
+        <v>200</v>
+      </c>
+      <c r="I55" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A56" s="1">
+        <v>55</v>
+      </c>
+      <c r="B56" s="1">
+        <v>1</v>
+      </c>
+      <c r="C56" s="1">
+        <v>23</v>
+      </c>
+      <c r="D56">
+        <v>1</v>
+      </c>
+      <c r="E56" t="s">
+        <v>29</v>
+      </c>
+      <c r="F56" t="s">
+        <v>18</v>
+      </c>
+      <c r="G56" t="s">
+        <v>19</v>
+      </c>
+      <c r="H56">
+        <v>200</v>
+      </c>
+      <c r="I56" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A57" s="1">
+        <v>56</v>
+      </c>
+      <c r="B57" s="1">
+        <v>1</v>
+      </c>
+      <c r="C57" s="1">
+        <v>24</v>
+      </c>
+      <c r="D57">
+        <v>1</v>
+      </c>
+      <c r="E57" t="s">
+        <v>20</v>
+      </c>
+      <c r="F57" t="s">
+        <v>18</v>
+      </c>
+      <c r="G57" t="s">
+        <v>19</v>
+      </c>
+      <c r="H57">
+        <v>200</v>
+      </c>
+      <c r="I57" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A58" s="1">
+        <v>57</v>
+      </c>
+      <c r="B58" s="1">
+        <v>1</v>
+      </c>
+      <c r="C58" s="1">
+        <v>25</v>
+      </c>
+      <c r="D58">
+        <v>1</v>
+      </c>
+      <c r="E58" t="s">
+        <v>9</v>
+      </c>
+      <c r="F58" t="s">
+        <v>10</v>
+      </c>
+      <c r="G58" t="s">
+        <v>11</v>
+      </c>
+      <c r="H58">
+        <v>200</v>
+      </c>
+      <c r="I58" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -1889,7 +2446,7 @@
   <dimension ref="A1:I56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="E7" sqref="E7:I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/StageData.xlsx
+++ b/StageData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Documents\Unreal Projects\petitcon21\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67791B72-8C38-4874-A1B0-EDF202237F29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12450CB4-EC45-43F4-8FE5-004627AE3635}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="35130" yWindow="510" windowWidth="21600" windowHeight="15435" xr2:uid="{2A5FB008-7706-4DC0-AC1A-842182642272}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="471" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="631" uniqueCount="42">
   <si>
     <t>Row Name</t>
   </si>
@@ -150,6 +150,9 @@
   </si>
   <si>
     <t>左上段 遅い</t>
+  </si>
+  <si>
+    <t>右中段 普通</t>
   </si>
 </sst>
 </file>
@@ -515,10 +518,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEBD7694-9D46-44B3-81F9-AE3C7A3C321F}">
-  <dimension ref="A1:I58"/>
+  <dimension ref="A1:I98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="C40" sqref="C40:C58"/>
+    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="D96" sqref="D96:D98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1670,7 +1673,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="1">
-        <v>1</v>
+        <v>-3</v>
       </c>
       <c r="C40" s="1">
         <v>1</v>
@@ -1699,7 +1702,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="1">
-        <v>1</v>
+        <v>-3</v>
       </c>
       <c r="C41" s="1">
         <v>2</v>
@@ -1728,7 +1731,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="1">
-        <v>1</v>
+        <v>-3</v>
       </c>
       <c r="C42" s="1">
         <v>3</v>
@@ -1757,7 +1760,7 @@
         <v>42</v>
       </c>
       <c r="B43" s="1">
-        <v>1</v>
+        <v>-3</v>
       </c>
       <c r="C43" s="1">
         <v>4</v>
@@ -1786,7 +1789,7 @@
         <v>43</v>
       </c>
       <c r="B44" s="1">
-        <v>1</v>
+        <v>-3</v>
       </c>
       <c r="C44" s="1">
         <v>5</v>
@@ -1815,7 +1818,7 @@
         <v>44</v>
       </c>
       <c r="B45" s="1">
-        <v>1</v>
+        <v>-3</v>
       </c>
       <c r="C45" s="1">
         <v>6</v>
@@ -1844,7 +1847,7 @@
         <v>45</v>
       </c>
       <c r="B46" s="1">
-        <v>1</v>
+        <v>-3</v>
       </c>
       <c r="C46" s="1">
         <v>7</v>
@@ -1873,7 +1876,7 @@
         <v>46</v>
       </c>
       <c r="B47" s="1">
-        <v>1</v>
+        <v>-3</v>
       </c>
       <c r="C47" s="1">
         <v>8</v>
@@ -1902,7 +1905,7 @@
         <v>47</v>
       </c>
       <c r="B48" s="1">
-        <v>1</v>
+        <v>-3</v>
       </c>
       <c r="C48" s="1">
         <v>12</v>
@@ -1931,7 +1934,7 @@
         <v>48</v>
       </c>
       <c r="B49" s="1">
-        <v>1</v>
+        <v>-3</v>
       </c>
       <c r="C49" s="1">
         <v>13</v>
@@ -1960,7 +1963,7 @@
         <v>49</v>
       </c>
       <c r="B50" s="1">
-        <v>1</v>
+        <v>-3</v>
       </c>
       <c r="C50" s="1">
         <v>14</v>
@@ -1989,7 +1992,7 @@
         <v>50</v>
       </c>
       <c r="B51" s="1">
-        <v>1</v>
+        <v>-3</v>
       </c>
       <c r="C51" s="1">
         <v>15</v>
@@ -2018,7 +2021,7 @@
         <v>51</v>
       </c>
       <c r="B52" s="1">
-        <v>1</v>
+        <v>-3</v>
       </c>
       <c r="C52" s="1">
         <v>16</v>
@@ -2047,7 +2050,7 @@
         <v>52</v>
       </c>
       <c r="B53" s="1">
-        <v>1</v>
+        <v>-3</v>
       </c>
       <c r="C53" s="1">
         <v>20</v>
@@ -2076,7 +2079,7 @@
         <v>53</v>
       </c>
       <c r="B54" s="1">
-        <v>1</v>
+        <v>-3</v>
       </c>
       <c r="C54" s="1">
         <v>21</v>
@@ -2105,7 +2108,7 @@
         <v>54</v>
       </c>
       <c r="B55" s="1">
-        <v>1</v>
+        <v>-3</v>
       </c>
       <c r="C55" s="1">
         <v>22</v>
@@ -2134,7 +2137,7 @@
         <v>55</v>
       </c>
       <c r="B56" s="1">
-        <v>1</v>
+        <v>-3</v>
       </c>
       <c r="C56" s="1">
         <v>23</v>
@@ -2163,7 +2166,7 @@
         <v>56</v>
       </c>
       <c r="B57" s="1">
-        <v>1</v>
+        <v>-3</v>
       </c>
       <c r="C57" s="1">
         <v>24</v>
@@ -2192,7 +2195,7 @@
         <v>57</v>
       </c>
       <c r="B58" s="1">
-        <v>1</v>
+        <v>-3</v>
       </c>
       <c r="C58" s="1">
         <v>25</v>
@@ -2214,6 +2217,1166 @@
       </c>
       <c r="I58" t="s">
         <v>24</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A59" s="1">
+        <v>58</v>
+      </c>
+      <c r="B59" s="1">
+        <v>-4</v>
+      </c>
+      <c r="C59" s="1">
+        <v>1</v>
+      </c>
+      <c r="D59">
+        <v>1</v>
+      </c>
+      <c r="E59" t="s">
+        <v>9</v>
+      </c>
+      <c r="F59" t="s">
+        <v>10</v>
+      </c>
+      <c r="G59" t="s">
+        <v>11</v>
+      </c>
+      <c r="H59">
+        <v>300</v>
+      </c>
+      <c r="I59" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A60" s="1">
+        <v>59</v>
+      </c>
+      <c r="B60" s="1">
+        <v>-4</v>
+      </c>
+      <c r="C60" s="1">
+        <v>2</v>
+      </c>
+      <c r="D60">
+        <v>1</v>
+      </c>
+      <c r="E60" t="s">
+        <v>9</v>
+      </c>
+      <c r="F60" t="s">
+        <v>10</v>
+      </c>
+      <c r="G60" t="s">
+        <v>11</v>
+      </c>
+      <c r="H60">
+        <v>300</v>
+      </c>
+      <c r="I60" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A61" s="1">
+        <v>60</v>
+      </c>
+      <c r="B61" s="1">
+        <v>-4</v>
+      </c>
+      <c r="C61" s="1">
+        <v>3</v>
+      </c>
+      <c r="D61">
+        <v>1</v>
+      </c>
+      <c r="E61" t="s">
+        <v>9</v>
+      </c>
+      <c r="F61" t="s">
+        <v>10</v>
+      </c>
+      <c r="G61" t="s">
+        <v>11</v>
+      </c>
+      <c r="H61">
+        <v>300</v>
+      </c>
+      <c r="I61" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A62" s="1">
+        <v>61</v>
+      </c>
+      <c r="B62" s="1">
+        <v>-4</v>
+      </c>
+      <c r="C62" s="1">
+        <v>5</v>
+      </c>
+      <c r="D62">
+        <v>1</v>
+      </c>
+      <c r="E62" t="s">
+        <v>16</v>
+      </c>
+      <c r="F62" t="s">
+        <v>10</v>
+      </c>
+      <c r="G62" t="s">
+        <v>11</v>
+      </c>
+      <c r="H62">
+        <v>300</v>
+      </c>
+      <c r="I62" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A63" s="1">
+        <v>62</v>
+      </c>
+      <c r="B63" s="1">
+        <v>-4</v>
+      </c>
+      <c r="C63" s="1">
+        <v>6</v>
+      </c>
+      <c r="D63">
+        <v>1</v>
+      </c>
+      <c r="E63" t="s">
+        <v>16</v>
+      </c>
+      <c r="F63" t="s">
+        <v>10</v>
+      </c>
+      <c r="G63" t="s">
+        <v>11</v>
+      </c>
+      <c r="H63">
+        <v>300</v>
+      </c>
+      <c r="I63" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A64" s="1">
+        <v>63</v>
+      </c>
+      <c r="B64" s="1">
+        <v>-4</v>
+      </c>
+      <c r="C64" s="1">
+        <v>7</v>
+      </c>
+      <c r="D64">
+        <v>1</v>
+      </c>
+      <c r="E64" t="s">
+        <v>16</v>
+      </c>
+      <c r="F64" t="s">
+        <v>10</v>
+      </c>
+      <c r="G64" t="s">
+        <v>11</v>
+      </c>
+      <c r="H64">
+        <v>300</v>
+      </c>
+      <c r="I64" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A65" s="1">
+        <v>64</v>
+      </c>
+      <c r="B65" s="1">
+        <v>-4</v>
+      </c>
+      <c r="C65" s="1">
+        <v>9</v>
+      </c>
+      <c r="D65">
+        <v>1</v>
+      </c>
+      <c r="E65" t="s">
+        <v>15</v>
+      </c>
+      <c r="F65" t="s">
+        <v>10</v>
+      </c>
+      <c r="G65" t="s">
+        <v>11</v>
+      </c>
+      <c r="H65">
+        <v>300</v>
+      </c>
+      <c r="I65" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A66" s="1">
+        <v>65</v>
+      </c>
+      <c r="B66" s="1">
+        <v>-4</v>
+      </c>
+      <c r="C66" s="1">
+        <v>10</v>
+      </c>
+      <c r="D66">
+        <v>1</v>
+      </c>
+      <c r="E66" t="s">
+        <v>15</v>
+      </c>
+      <c r="F66" t="s">
+        <v>10</v>
+      </c>
+      <c r="G66" t="s">
+        <v>11</v>
+      </c>
+      <c r="H66">
+        <v>300</v>
+      </c>
+      <c r="I66" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A67" s="1">
+        <v>66</v>
+      </c>
+      <c r="B67" s="1">
+        <v>-4</v>
+      </c>
+      <c r="C67" s="1">
+        <v>11</v>
+      </c>
+      <c r="D67">
+        <v>1</v>
+      </c>
+      <c r="E67" t="s">
+        <v>15</v>
+      </c>
+      <c r="F67" t="s">
+        <v>10</v>
+      </c>
+      <c r="G67" t="s">
+        <v>11</v>
+      </c>
+      <c r="H67">
+        <v>300</v>
+      </c>
+      <c r="I67" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A68" s="1">
+        <v>67</v>
+      </c>
+      <c r="B68" s="1">
+        <v>-4</v>
+      </c>
+      <c r="C68" s="1">
+        <v>13</v>
+      </c>
+      <c r="D68">
+        <v>1</v>
+      </c>
+      <c r="E68" t="s">
+        <v>9</v>
+      </c>
+      <c r="F68" t="s">
+        <v>10</v>
+      </c>
+      <c r="G68" t="s">
+        <v>11</v>
+      </c>
+      <c r="H68">
+        <v>300</v>
+      </c>
+      <c r="I68" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A69" s="1">
+        <v>68</v>
+      </c>
+      <c r="B69" s="1">
+        <v>-4</v>
+      </c>
+      <c r="C69" s="1">
+        <v>14</v>
+      </c>
+      <c r="D69">
+        <v>1</v>
+      </c>
+      <c r="E69" t="s">
+        <v>16</v>
+      </c>
+      <c r="F69" t="s">
+        <v>10</v>
+      </c>
+      <c r="G69" t="s">
+        <v>11</v>
+      </c>
+      <c r="H69">
+        <v>300</v>
+      </c>
+      <c r="I69" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A70" s="1">
+        <v>69</v>
+      </c>
+      <c r="B70" s="1">
+        <v>-4</v>
+      </c>
+      <c r="C70" s="1">
+        <v>15</v>
+      </c>
+      <c r="D70">
+        <v>1</v>
+      </c>
+      <c r="E70" t="s">
+        <v>15</v>
+      </c>
+      <c r="F70" t="s">
+        <v>10</v>
+      </c>
+      <c r="G70" t="s">
+        <v>11</v>
+      </c>
+      <c r="H70">
+        <v>300</v>
+      </c>
+      <c r="I70" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A71" s="1">
+        <v>70</v>
+      </c>
+      <c r="B71" s="1">
+        <v>-4</v>
+      </c>
+      <c r="C71" s="1">
+        <v>17</v>
+      </c>
+      <c r="D71">
+        <v>1</v>
+      </c>
+      <c r="E71" t="s">
+        <v>9</v>
+      </c>
+      <c r="F71" t="s">
+        <v>10</v>
+      </c>
+      <c r="G71" t="s">
+        <v>11</v>
+      </c>
+      <c r="H71">
+        <v>300</v>
+      </c>
+      <c r="I71" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A72" s="1">
+        <v>71</v>
+      </c>
+      <c r="B72" s="1">
+        <v>-4</v>
+      </c>
+      <c r="C72" s="1">
+        <v>18</v>
+      </c>
+      <c r="D72">
+        <v>1</v>
+      </c>
+      <c r="E72" t="s">
+        <v>16</v>
+      </c>
+      <c r="F72" t="s">
+        <v>10</v>
+      </c>
+      <c r="G72" t="s">
+        <v>11</v>
+      </c>
+      <c r="H72">
+        <v>300</v>
+      </c>
+      <c r="I72" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A73" s="1">
+        <v>72</v>
+      </c>
+      <c r="B73" s="1">
+        <v>-4</v>
+      </c>
+      <c r="C73" s="1">
+        <v>19</v>
+      </c>
+      <c r="D73">
+        <v>1</v>
+      </c>
+      <c r="E73" t="s">
+        <v>15</v>
+      </c>
+      <c r="F73" t="s">
+        <v>10</v>
+      </c>
+      <c r="G73" t="s">
+        <v>11</v>
+      </c>
+      <c r="H73">
+        <v>300</v>
+      </c>
+      <c r="I73" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A74" s="1">
+        <v>73</v>
+      </c>
+      <c r="B74" s="1">
+        <v>1</v>
+      </c>
+      <c r="C74" s="1">
+        <v>1</v>
+      </c>
+      <c r="D74">
+        <v>1</v>
+      </c>
+      <c r="E74" t="s">
+        <v>16</v>
+      </c>
+      <c r="F74" t="s">
+        <v>10</v>
+      </c>
+      <c r="G74" t="s">
+        <v>11</v>
+      </c>
+      <c r="H74">
+        <v>300</v>
+      </c>
+      <c r="I74" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A75" s="1">
+        <v>74</v>
+      </c>
+      <c r="B75" s="1">
+        <v>1</v>
+      </c>
+      <c r="C75" s="1">
+        <v>2</v>
+      </c>
+      <c r="D75">
+        <v>1</v>
+      </c>
+      <c r="E75" t="s">
+        <v>9</v>
+      </c>
+      <c r="F75" t="s">
+        <v>10</v>
+      </c>
+      <c r="G75" t="s">
+        <v>11</v>
+      </c>
+      <c r="H75">
+        <v>300</v>
+      </c>
+      <c r="I75" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A76" s="1">
+        <v>75</v>
+      </c>
+      <c r="B76" s="1">
+        <v>1</v>
+      </c>
+      <c r="C76" s="1">
+        <v>3</v>
+      </c>
+      <c r="D76">
+        <v>1</v>
+      </c>
+      <c r="E76" t="s">
+        <v>9</v>
+      </c>
+      <c r="F76" t="s">
+        <v>10</v>
+      </c>
+      <c r="G76" t="s">
+        <v>11</v>
+      </c>
+      <c r="H76">
+        <v>300</v>
+      </c>
+      <c r="I76" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A77" s="1">
+        <v>76</v>
+      </c>
+      <c r="B77" s="1">
+        <v>1</v>
+      </c>
+      <c r="C77" s="1">
+        <v>3.5</v>
+      </c>
+      <c r="D77">
+        <v>1</v>
+      </c>
+      <c r="E77" t="s">
+        <v>15</v>
+      </c>
+      <c r="F77" t="s">
+        <v>10</v>
+      </c>
+      <c r="G77" t="s">
+        <v>11</v>
+      </c>
+      <c r="H77">
+        <v>300</v>
+      </c>
+      <c r="I77" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A78" s="1">
+        <v>77</v>
+      </c>
+      <c r="B78" s="1">
+        <v>1</v>
+      </c>
+      <c r="C78" s="1">
+        <v>4</v>
+      </c>
+      <c r="D78">
+        <v>1</v>
+      </c>
+      <c r="E78" t="s">
+        <v>9</v>
+      </c>
+      <c r="F78" t="s">
+        <v>10</v>
+      </c>
+      <c r="G78" t="s">
+        <v>11</v>
+      </c>
+      <c r="H78">
+        <v>300</v>
+      </c>
+      <c r="I78" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A79" s="1">
+        <v>78</v>
+      </c>
+      <c r="B79" s="1">
+        <v>1</v>
+      </c>
+      <c r="C79" s="1">
+        <v>4.5</v>
+      </c>
+      <c r="D79">
+        <v>1</v>
+      </c>
+      <c r="E79" t="s">
+        <v>16</v>
+      </c>
+      <c r="F79" t="s">
+        <v>10</v>
+      </c>
+      <c r="G79" t="s">
+        <v>11</v>
+      </c>
+      <c r="H79">
+        <v>300</v>
+      </c>
+      <c r="I79" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A80" s="1">
+        <v>79</v>
+      </c>
+      <c r="B80" s="1">
+        <v>1</v>
+      </c>
+      <c r="C80" s="1">
+        <v>5</v>
+      </c>
+      <c r="D80">
+        <v>1</v>
+      </c>
+      <c r="E80" t="s">
+        <v>9</v>
+      </c>
+      <c r="F80" t="s">
+        <v>10</v>
+      </c>
+      <c r="G80" t="s">
+        <v>11</v>
+      </c>
+      <c r="H80">
+        <v>300</v>
+      </c>
+      <c r="I80" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A81" s="1">
+        <v>80</v>
+      </c>
+      <c r="B81" s="1">
+        <v>1</v>
+      </c>
+      <c r="C81" s="1">
+        <v>5.5</v>
+      </c>
+      <c r="D81">
+        <v>1</v>
+      </c>
+      <c r="E81" t="s">
+        <v>15</v>
+      </c>
+      <c r="F81" t="s">
+        <v>10</v>
+      </c>
+      <c r="G81" t="s">
+        <v>11</v>
+      </c>
+      <c r="H81">
+        <v>300</v>
+      </c>
+      <c r="I81" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A82" s="1">
+        <v>81</v>
+      </c>
+      <c r="B82" s="1">
+        <v>1</v>
+      </c>
+      <c r="C82" s="1">
+        <v>7</v>
+      </c>
+      <c r="D82">
+        <v>1</v>
+      </c>
+      <c r="E82" t="s">
+        <v>16</v>
+      </c>
+      <c r="F82" t="s">
+        <v>10</v>
+      </c>
+      <c r="G82" t="s">
+        <v>11</v>
+      </c>
+      <c r="H82">
+        <v>300</v>
+      </c>
+      <c r="I82" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A83" s="1">
+        <v>82</v>
+      </c>
+      <c r="B83" s="1">
+        <v>1</v>
+      </c>
+      <c r="C83" s="1">
+        <v>7.5</v>
+      </c>
+      <c r="D83">
+        <v>1</v>
+      </c>
+      <c r="E83" t="s">
+        <v>16</v>
+      </c>
+      <c r="F83" t="s">
+        <v>10</v>
+      </c>
+      <c r="G83" t="s">
+        <v>11</v>
+      </c>
+      <c r="H83">
+        <v>300</v>
+      </c>
+      <c r="I83" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A84" s="1">
+        <v>83</v>
+      </c>
+      <c r="B84" s="1">
+        <v>1</v>
+      </c>
+      <c r="C84" s="1">
+        <v>8</v>
+      </c>
+      <c r="D84">
+        <v>1</v>
+      </c>
+      <c r="E84" t="s">
+        <v>9</v>
+      </c>
+      <c r="F84" t="s">
+        <v>10</v>
+      </c>
+      <c r="G84" t="s">
+        <v>11</v>
+      </c>
+      <c r="H84">
+        <v>300</v>
+      </c>
+      <c r="I84" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A85" s="1">
+        <v>84</v>
+      </c>
+      <c r="B85" s="1">
+        <v>1</v>
+      </c>
+      <c r="C85" s="1">
+        <v>9</v>
+      </c>
+      <c r="D85">
+        <v>1</v>
+      </c>
+      <c r="E85" t="s">
+        <v>15</v>
+      </c>
+      <c r="F85" t="s">
+        <v>10</v>
+      </c>
+      <c r="G85" t="s">
+        <v>11</v>
+      </c>
+      <c r="H85">
+        <v>300</v>
+      </c>
+      <c r="I85" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A86" s="1">
+        <v>85</v>
+      </c>
+      <c r="B86" s="1">
+        <v>1</v>
+      </c>
+      <c r="C86" s="1">
+        <v>11</v>
+      </c>
+      <c r="D86">
+        <v>1</v>
+      </c>
+      <c r="E86" t="s">
+        <v>15</v>
+      </c>
+      <c r="F86" t="s">
+        <v>10</v>
+      </c>
+      <c r="G86" t="s">
+        <v>11</v>
+      </c>
+      <c r="H86">
+        <v>300</v>
+      </c>
+      <c r="I86" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A87" s="1">
+        <v>86</v>
+      </c>
+      <c r="B87" s="1">
+        <v>1</v>
+      </c>
+      <c r="C87" s="1">
+        <v>11.5</v>
+      </c>
+      <c r="D87">
+        <v>1</v>
+      </c>
+      <c r="E87" t="s">
+        <v>9</v>
+      </c>
+      <c r="F87" t="s">
+        <v>10</v>
+      </c>
+      <c r="G87" t="s">
+        <v>11</v>
+      </c>
+      <c r="H87">
+        <v>300</v>
+      </c>
+      <c r="I87" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A88" s="1">
+        <v>87</v>
+      </c>
+      <c r="B88" s="1">
+        <v>1</v>
+      </c>
+      <c r="C88" s="1">
+        <v>12</v>
+      </c>
+      <c r="D88">
+        <v>1</v>
+      </c>
+      <c r="E88" t="s">
+        <v>9</v>
+      </c>
+      <c r="F88" t="s">
+        <v>10</v>
+      </c>
+      <c r="G88" t="s">
+        <v>11</v>
+      </c>
+      <c r="H88">
+        <v>300</v>
+      </c>
+      <c r="I88" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A89" s="1">
+        <v>88</v>
+      </c>
+      <c r="B89" s="1">
+        <v>1</v>
+      </c>
+      <c r="C89" s="1">
+        <v>13</v>
+      </c>
+      <c r="D89">
+        <v>1</v>
+      </c>
+      <c r="E89" t="s">
+        <v>15</v>
+      </c>
+      <c r="F89" t="s">
+        <v>10</v>
+      </c>
+      <c r="G89" t="s">
+        <v>11</v>
+      </c>
+      <c r="H89">
+        <v>300</v>
+      </c>
+      <c r="I89" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A90" s="1">
+        <v>89</v>
+      </c>
+      <c r="B90" s="1">
+        <v>1</v>
+      </c>
+      <c r="C90" s="1">
+        <v>14</v>
+      </c>
+      <c r="D90">
+        <v>1</v>
+      </c>
+      <c r="E90" t="s">
+        <v>16</v>
+      </c>
+      <c r="F90" t="s">
+        <v>10</v>
+      </c>
+      <c r="G90" t="s">
+        <v>11</v>
+      </c>
+      <c r="H90">
+        <v>300</v>
+      </c>
+      <c r="I90" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A91" s="1">
+        <v>90</v>
+      </c>
+      <c r="B91" s="1">
+        <v>1</v>
+      </c>
+      <c r="C91" s="1">
+        <v>15</v>
+      </c>
+      <c r="D91">
+        <v>1</v>
+      </c>
+      <c r="E91" t="s">
+        <v>16</v>
+      </c>
+      <c r="F91" t="s">
+        <v>10</v>
+      </c>
+      <c r="G91" t="s">
+        <v>11</v>
+      </c>
+      <c r="H91">
+        <v>300</v>
+      </c>
+      <c r="I91" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A92" s="1">
+        <v>91</v>
+      </c>
+      <c r="B92" s="1">
+        <v>1</v>
+      </c>
+      <c r="C92" s="1">
+        <v>15.5</v>
+      </c>
+      <c r="D92">
+        <v>1</v>
+      </c>
+      <c r="E92" t="s">
+        <v>15</v>
+      </c>
+      <c r="F92" t="s">
+        <v>10</v>
+      </c>
+      <c r="G92" t="s">
+        <v>11</v>
+      </c>
+      <c r="H92">
+        <v>300</v>
+      </c>
+      <c r="I92" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A93" s="1">
+        <v>92</v>
+      </c>
+      <c r="B93" s="1">
+        <v>1</v>
+      </c>
+      <c r="C93" s="1">
+        <v>16</v>
+      </c>
+      <c r="D93">
+        <v>1</v>
+      </c>
+      <c r="E93" t="s">
+        <v>9</v>
+      </c>
+      <c r="F93" t="s">
+        <v>10</v>
+      </c>
+      <c r="G93" t="s">
+        <v>11</v>
+      </c>
+      <c r="H93">
+        <v>300</v>
+      </c>
+      <c r="I93" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A94" s="1">
+        <v>93</v>
+      </c>
+      <c r="B94" s="1">
+        <v>1</v>
+      </c>
+      <c r="C94" s="1">
+        <v>17</v>
+      </c>
+      <c r="D94">
+        <v>1</v>
+      </c>
+      <c r="E94" t="s">
+        <v>15</v>
+      </c>
+      <c r="F94" t="s">
+        <v>10</v>
+      </c>
+      <c r="G94" t="s">
+        <v>11</v>
+      </c>
+      <c r="H94">
+        <v>300</v>
+      </c>
+      <c r="I94" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A95" s="1">
+        <v>94</v>
+      </c>
+      <c r="B95" s="1">
+        <v>1</v>
+      </c>
+      <c r="C95" s="1">
+        <v>17.5</v>
+      </c>
+      <c r="D95">
+        <v>1</v>
+      </c>
+      <c r="E95" t="s">
+        <v>9</v>
+      </c>
+      <c r="F95" t="s">
+        <v>10</v>
+      </c>
+      <c r="G95" t="s">
+        <v>11</v>
+      </c>
+      <c r="H95">
+        <v>300</v>
+      </c>
+      <c r="I95" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A96" s="1">
+        <v>95</v>
+      </c>
+      <c r="B96" s="1">
+        <v>1</v>
+      </c>
+      <c r="C96" s="1">
+        <v>18</v>
+      </c>
+      <c r="D96">
+        <v>1</v>
+      </c>
+      <c r="E96" t="s">
+        <v>9</v>
+      </c>
+      <c r="F96" t="s">
+        <v>10</v>
+      </c>
+      <c r="G96" t="s">
+        <v>11</v>
+      </c>
+      <c r="H96">
+        <v>300</v>
+      </c>
+      <c r="I96" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A97" s="1">
+        <v>96</v>
+      </c>
+      <c r="B97" s="1">
+        <v>1</v>
+      </c>
+      <c r="C97" s="1">
+        <v>19</v>
+      </c>
+      <c r="D97">
+        <v>1</v>
+      </c>
+      <c r="E97" t="s">
+        <v>15</v>
+      </c>
+      <c r="F97" t="s">
+        <v>10</v>
+      </c>
+      <c r="G97" t="s">
+        <v>11</v>
+      </c>
+      <c r="H97">
+        <v>300</v>
+      </c>
+      <c r="I97" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A98" s="1">
+        <v>97</v>
+      </c>
+      <c r="B98" s="1">
+        <v>1</v>
+      </c>
+      <c r="C98" s="1">
+        <v>20</v>
+      </c>
+      <c r="D98">
+        <v>1</v>
+      </c>
+      <c r="E98" t="s">
+        <v>16</v>
+      </c>
+      <c r="F98" t="s">
+        <v>10</v>
+      </c>
+      <c r="G98" t="s">
+        <v>11</v>
+      </c>
+      <c r="H98">
+        <v>300</v>
+      </c>
+      <c r="I98" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/StageData.xlsx
+++ b/StageData.xlsx
@@ -8,14 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Documents\Unreal Projects\petitcon21\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12450CB4-EC45-43F4-8FE5-004627AE3635}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41D77E75-FC33-46D7-B5CC-4FC499D1624C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="35130" yWindow="510" windowWidth="21600" windowHeight="15435" xr2:uid="{2A5FB008-7706-4DC0-AC1A-842182642272}"/>
+    <workbookView xWindow="32250" yWindow="675" windowWidth="19395" windowHeight="14745" activeTab="1" xr2:uid="{2A5FB008-7706-4DC0-AC1A-842182642272}"/>
   </bookViews>
   <sheets>
-    <sheet name="作業中" sheetId="3" r:id="rId1"/>
-    <sheet name="短いテスト" sheetId="2" r:id="rId2"/>
-    <sheet name="長いテスト" sheetId="1" r:id="rId3"/>
+    <sheet name="作業中" sheetId="6" r:id="rId1"/>
+    <sheet name="Production" sheetId="3" r:id="rId2"/>
+    <sheet name="同時にくらってゲームオーバーになるテスト" sheetId="7" r:id="rId3"/>
+    <sheet name="ターゲット同士がぶつかるテスト" sheetId="5" r:id="rId4"/>
+    <sheet name="短いテスト" sheetId="2" r:id="rId5"/>
+    <sheet name="Jar のテスト" sheetId="4" r:id="rId6"/>
+    <sheet name="長いテスト" sheetId="1" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -27,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="631" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1203" uniqueCount="51">
   <si>
     <t>Row Name</t>
   </si>
@@ -154,6 +158,33 @@
   <si>
     <t>右中段 普通</t>
   </si>
+  <si>
+    <t>左中段から手前に落ちる</t>
+  </si>
+  <si>
+    <t>左上段に真横に飛んでくる 身体に当たる</t>
+  </si>
+  <si>
+    <t>左上段から手前に落ちる 身体にたまに当たる</t>
+  </si>
+  <si>
+    <t>左上から落ちてきて膝に当たる</t>
+  </si>
+  <si>
+    <t>(X=0,Y=-2,Z=1)</t>
+  </si>
+  <si>
+    <t>(X=0,Y=500,Z=100)</t>
+  </si>
+  <si>
+    <t>(X=0,Y=500,Z=60)</t>
+  </si>
+  <si>
+    <t>(X=0,Y=500,Z=120)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">左中段 </t>
+  </si>
 </sst>
 </file>
 
@@ -168,7 +199,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -187,6 +218,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -200,10 +237,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -517,11 +555,1720 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8CFAFC9-EAF1-40E4-8D59-0C784DC2BCCB}">
+  <dimension ref="A1:I58"/>
+  <sheetViews>
+    <sheetView topLeftCell="A25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18:I58"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2">
+        <v>200</v>
+      </c>
+      <c r="I2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1">
+        <v>0</v>
+      </c>
+      <c r="C3" s="1">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H3">
+        <v>200</v>
+      </c>
+      <c r="I3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1">
+        <v>0</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H4">
+        <v>200</v>
+      </c>
+      <c r="I4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1">
+        <v>0</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H5">
+        <v>200</v>
+      </c>
+      <c r="I5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1">
+        <v>0</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H6">
+        <v>200</v>
+      </c>
+      <c r="I6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1">
+        <v>0</v>
+      </c>
+      <c r="C7" s="1">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7" t="s">
+        <v>29</v>
+      </c>
+      <c r="F7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H7">
+        <v>200</v>
+      </c>
+      <c r="I7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1">
+        <v>0</v>
+      </c>
+      <c r="C8" s="1">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>2</v>
+      </c>
+      <c r="E8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F8" t="s">
+        <v>22</v>
+      </c>
+      <c r="G8" t="s">
+        <v>14</v>
+      </c>
+      <c r="H8">
+        <v>1000</v>
+      </c>
+      <c r="I8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1">
+        <v>0</v>
+      </c>
+      <c r="C9" s="1">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>2</v>
+      </c>
+      <c r="E9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9" t="s">
+        <v>14</v>
+      </c>
+      <c r="H9">
+        <v>1200</v>
+      </c>
+      <c r="I9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1">
+        <v>0</v>
+      </c>
+      <c r="C10" s="1">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>2</v>
+      </c>
+      <c r="E10" t="s">
+        <v>21</v>
+      </c>
+      <c r="F10" t="s">
+        <v>22</v>
+      </c>
+      <c r="G10" t="s">
+        <v>14</v>
+      </c>
+      <c r="H10">
+        <v>1200</v>
+      </c>
+      <c r="I10" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1">
+        <v>0</v>
+      </c>
+      <c r="C11" s="1">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>2</v>
+      </c>
+      <c r="E11" t="s">
+        <v>37</v>
+      </c>
+      <c r="F11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G11" t="s">
+        <v>14</v>
+      </c>
+      <c r="H11">
+        <v>1100</v>
+      </c>
+      <c r="I11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1">
+        <v>0</v>
+      </c>
+      <c r="C12" s="1">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>2</v>
+      </c>
+      <c r="E12" t="s">
+        <v>37</v>
+      </c>
+      <c r="F12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H12">
+        <v>1100</v>
+      </c>
+      <c r="I12" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1">
+        <v>0</v>
+      </c>
+      <c r="C13" s="1">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>2</v>
+      </c>
+      <c r="E13" t="s">
+        <v>47</v>
+      </c>
+      <c r="F13" t="s">
+        <v>22</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13">
+        <v>1000</v>
+      </c>
+      <c r="I13" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1">
+        <v>0</v>
+      </c>
+      <c r="C14" s="1">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>2</v>
+      </c>
+      <c r="E14" t="s">
+        <v>48</v>
+      </c>
+      <c r="F14" t="s">
+        <v>13</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14">
+        <v>1200</v>
+      </c>
+      <c r="I14" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1">
+        <v>0</v>
+      </c>
+      <c r="C15" s="1">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>2</v>
+      </c>
+      <c r="E15" t="s">
+        <v>47</v>
+      </c>
+      <c r="F15" t="s">
+        <v>22</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15">
+        <v>1200</v>
+      </c>
+      <c r="I15" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1">
+        <v>0</v>
+      </c>
+      <c r="C16" s="1">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>2</v>
+      </c>
+      <c r="E16" t="s">
+        <v>49</v>
+      </c>
+      <c r="F16" t="s">
+        <v>13</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16">
+        <v>1100</v>
+      </c>
+      <c r="I16" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>16</v>
+      </c>
+      <c r="B17" s="1">
+        <v>0</v>
+      </c>
+      <c r="C17" s="1">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>2</v>
+      </c>
+      <c r="E17" t="s">
+        <v>49</v>
+      </c>
+      <c r="F17" t="s">
+        <v>13</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17">
+        <v>1100</v>
+      </c>
+      <c r="I17" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>17</v>
+      </c>
+      <c r="B18" s="1">
+        <v>1</v>
+      </c>
+      <c r="C18" s="1">
+        <v>1</v>
+      </c>
+      <c r="D18">
+        <v>2</v>
+      </c>
+      <c r="E18" t="s">
+        <v>21</v>
+      </c>
+      <c r="F18" t="s">
+        <v>22</v>
+      </c>
+      <c r="G18" t="s">
+        <v>14</v>
+      </c>
+      <c r="H18">
+        <v>1000</v>
+      </c>
+      <c r="I18" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>18</v>
+      </c>
+      <c r="B19" s="1">
+        <v>1</v>
+      </c>
+      <c r="C19" s="1">
+        <v>2</v>
+      </c>
+      <c r="D19">
+        <v>2</v>
+      </c>
+      <c r="E19" t="s">
+        <v>47</v>
+      </c>
+      <c r="F19" t="s">
+        <v>22</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19">
+        <v>1000</v>
+      </c>
+      <c r="I19" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>19</v>
+      </c>
+      <c r="B20" s="1">
+        <v>1</v>
+      </c>
+      <c r="C20" s="1">
+        <v>3</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20" t="s">
+        <v>16</v>
+      </c>
+      <c r="F20" t="s">
+        <v>10</v>
+      </c>
+      <c r="G20" t="s">
+        <v>11</v>
+      </c>
+      <c r="H20">
+        <v>200</v>
+      </c>
+      <c r="I20" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>20</v>
+      </c>
+      <c r="B21" s="1">
+        <v>1</v>
+      </c>
+      <c r="C21" s="1">
+        <v>3.5</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="E21" t="s">
+        <v>15</v>
+      </c>
+      <c r="F21" t="s">
+        <v>10</v>
+      </c>
+      <c r="G21" t="s">
+        <v>11</v>
+      </c>
+      <c r="H21">
+        <v>200</v>
+      </c>
+      <c r="I21" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>21</v>
+      </c>
+      <c r="B22" s="1">
+        <v>1</v>
+      </c>
+      <c r="C22" s="1">
+        <v>4</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="E22" t="s">
+        <v>29</v>
+      </c>
+      <c r="F22" t="s">
+        <v>18</v>
+      </c>
+      <c r="G22" t="s">
+        <v>19</v>
+      </c>
+      <c r="H22">
+        <v>200</v>
+      </c>
+      <c r="I22" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>22</v>
+      </c>
+      <c r="B23" s="1">
+        <v>1</v>
+      </c>
+      <c r="C23" s="1">
+        <v>6</v>
+      </c>
+      <c r="D23">
+        <v>2</v>
+      </c>
+      <c r="E23" t="s">
+        <v>21</v>
+      </c>
+      <c r="F23" t="s">
+        <v>22</v>
+      </c>
+      <c r="G23" t="s">
+        <v>14</v>
+      </c>
+      <c r="H23">
+        <v>1000</v>
+      </c>
+      <c r="I23" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>23</v>
+      </c>
+      <c r="B24" s="1">
+        <v>1</v>
+      </c>
+      <c r="C24" s="1">
+        <v>6.5</v>
+      </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
+      <c r="E24" t="s">
+        <v>17</v>
+      </c>
+      <c r="F24" t="s">
+        <v>18</v>
+      </c>
+      <c r="G24" t="s">
+        <v>19</v>
+      </c>
+      <c r="H24">
+        <v>200</v>
+      </c>
+      <c r="I24" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>24</v>
+      </c>
+      <c r="B25" s="1">
+        <v>1</v>
+      </c>
+      <c r="C25" s="1">
+        <v>7</v>
+      </c>
+      <c r="D25">
+        <v>2</v>
+      </c>
+      <c r="E25" t="s">
+        <v>37</v>
+      </c>
+      <c r="F25" t="s">
+        <v>13</v>
+      </c>
+      <c r="G25" t="s">
+        <v>14</v>
+      </c>
+      <c r="H25">
+        <v>1100</v>
+      </c>
+      <c r="I25" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>25</v>
+      </c>
+      <c r="B26" s="1">
+        <v>1</v>
+      </c>
+      <c r="C26" s="1">
+        <v>9</v>
+      </c>
+      <c r="D26">
+        <v>1</v>
+      </c>
+      <c r="E26" t="s">
+        <v>15</v>
+      </c>
+      <c r="F26" t="s">
+        <v>10</v>
+      </c>
+      <c r="G26" t="s">
+        <v>11</v>
+      </c>
+      <c r="H26">
+        <v>200</v>
+      </c>
+      <c r="I26" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>26</v>
+      </c>
+      <c r="B27" s="1">
+        <v>1</v>
+      </c>
+      <c r="C27" s="1">
+        <v>9.5</v>
+      </c>
+      <c r="D27">
+        <v>1</v>
+      </c>
+      <c r="E27" t="s">
+        <v>20</v>
+      </c>
+      <c r="F27" t="s">
+        <v>18</v>
+      </c>
+      <c r="G27" t="s">
+        <v>19</v>
+      </c>
+      <c r="H27">
+        <v>200</v>
+      </c>
+      <c r="I27" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>27</v>
+      </c>
+      <c r="B28" s="1">
+        <v>1</v>
+      </c>
+      <c r="C28" s="1">
+        <v>10</v>
+      </c>
+      <c r="D28">
+        <v>1</v>
+      </c>
+      <c r="E28" t="s">
+        <v>17</v>
+      </c>
+      <c r="F28" t="s">
+        <v>18</v>
+      </c>
+      <c r="G28" t="s">
+        <v>19</v>
+      </c>
+      <c r="H28">
+        <v>200</v>
+      </c>
+      <c r="I28" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <v>28</v>
+      </c>
+      <c r="B29" s="1">
+        <v>1</v>
+      </c>
+      <c r="C29" s="1">
+        <v>11</v>
+      </c>
+      <c r="D29">
+        <v>1</v>
+      </c>
+      <c r="E29" t="s">
+        <v>9</v>
+      </c>
+      <c r="F29" t="s">
+        <v>10</v>
+      </c>
+      <c r="G29" t="s">
+        <v>11</v>
+      </c>
+      <c r="H29">
+        <v>200</v>
+      </c>
+      <c r="I29" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <v>29</v>
+      </c>
+      <c r="B30" s="1">
+        <v>1</v>
+      </c>
+      <c r="C30" s="1">
+        <v>11</v>
+      </c>
+      <c r="D30">
+        <v>1</v>
+      </c>
+      <c r="E30" t="s">
+        <v>16</v>
+      </c>
+      <c r="F30" t="s">
+        <v>10</v>
+      </c>
+      <c r="G30" t="s">
+        <v>11</v>
+      </c>
+      <c r="H30">
+        <v>200</v>
+      </c>
+      <c r="I30" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <v>30</v>
+      </c>
+      <c r="B31" s="1">
+        <v>1</v>
+      </c>
+      <c r="C31" s="1">
+        <v>11.5</v>
+      </c>
+      <c r="D31">
+        <v>1</v>
+      </c>
+      <c r="E31" t="s">
+        <v>29</v>
+      </c>
+      <c r="F31" t="s">
+        <v>18</v>
+      </c>
+      <c r="G31" t="s">
+        <v>19</v>
+      </c>
+      <c r="H31">
+        <v>200</v>
+      </c>
+      <c r="I31" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
+        <v>33</v>
+      </c>
+      <c r="B32" s="1">
+        <v>1</v>
+      </c>
+      <c r="C32" s="1">
+        <v>15</v>
+      </c>
+      <c r="D32">
+        <v>1</v>
+      </c>
+      <c r="E32" t="s">
+        <v>17</v>
+      </c>
+      <c r="F32" t="s">
+        <v>18</v>
+      </c>
+      <c r="G32" t="s">
+        <v>19</v>
+      </c>
+      <c r="H32">
+        <v>200</v>
+      </c>
+      <c r="I32" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
+        <v>35</v>
+      </c>
+      <c r="B33" s="1">
+        <v>1</v>
+      </c>
+      <c r="C33" s="1">
+        <v>17</v>
+      </c>
+      <c r="D33">
+        <v>1</v>
+      </c>
+      <c r="E33" t="s">
+        <v>9</v>
+      </c>
+      <c r="F33" t="s">
+        <v>10</v>
+      </c>
+      <c r="G33" t="s">
+        <v>11</v>
+      </c>
+      <c r="H33">
+        <v>200</v>
+      </c>
+      <c r="I33" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
+        <v>36</v>
+      </c>
+      <c r="B34" s="1">
+        <v>1</v>
+      </c>
+      <c r="C34" s="1">
+        <v>17</v>
+      </c>
+      <c r="D34">
+        <v>1</v>
+      </c>
+      <c r="E34" t="s">
+        <v>20</v>
+      </c>
+      <c r="F34" t="s">
+        <v>18</v>
+      </c>
+      <c r="G34" t="s">
+        <v>19</v>
+      </c>
+      <c r="H34">
+        <v>200</v>
+      </c>
+      <c r="I34" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
+        <v>37</v>
+      </c>
+      <c r="B35" s="1">
+        <v>1</v>
+      </c>
+      <c r="C35" s="1">
+        <v>18</v>
+      </c>
+      <c r="D35">
+        <v>1</v>
+      </c>
+      <c r="E35" t="s">
+        <v>17</v>
+      </c>
+      <c r="F35" t="s">
+        <v>18</v>
+      </c>
+      <c r="G35" t="s">
+        <v>19</v>
+      </c>
+      <c r="H35">
+        <v>200</v>
+      </c>
+      <c r="I35" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
+        <v>38</v>
+      </c>
+      <c r="B36" s="1">
+        <v>1</v>
+      </c>
+      <c r="C36" s="1">
+        <v>19</v>
+      </c>
+      <c r="D36">
+        <v>2</v>
+      </c>
+      <c r="E36" t="s">
+        <v>49</v>
+      </c>
+      <c r="F36" t="s">
+        <v>13</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36">
+        <v>1100</v>
+      </c>
+      <c r="I36" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
+        <v>39</v>
+      </c>
+      <c r="B37" s="1">
+        <v>1</v>
+      </c>
+      <c r="C37" s="1">
+        <v>19.5</v>
+      </c>
+      <c r="D37">
+        <v>1</v>
+      </c>
+      <c r="E37" t="s">
+        <v>9</v>
+      </c>
+      <c r="F37" t="s">
+        <v>10</v>
+      </c>
+      <c r="G37" t="s">
+        <v>11</v>
+      </c>
+      <c r="H37">
+        <v>200</v>
+      </c>
+      <c r="I37" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
+        <v>40</v>
+      </c>
+      <c r="B38" s="1">
+        <v>1</v>
+      </c>
+      <c r="C38" s="1">
+        <v>20</v>
+      </c>
+      <c r="D38">
+        <v>1</v>
+      </c>
+      <c r="E38" t="s">
+        <v>15</v>
+      </c>
+      <c r="F38" t="s">
+        <v>10</v>
+      </c>
+      <c r="G38" t="s">
+        <v>11</v>
+      </c>
+      <c r="H38">
+        <v>200</v>
+      </c>
+      <c r="I38" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A39" s="1">
+        <v>41</v>
+      </c>
+      <c r="B39" s="1">
+        <v>1</v>
+      </c>
+      <c r="C39" s="1">
+        <v>21</v>
+      </c>
+      <c r="D39">
+        <v>1</v>
+      </c>
+      <c r="E39" t="s">
+        <v>20</v>
+      </c>
+      <c r="F39" t="s">
+        <v>18</v>
+      </c>
+      <c r="G39" t="s">
+        <v>19</v>
+      </c>
+      <c r="H39">
+        <v>200</v>
+      </c>
+      <c r="I39" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A40" s="1">
+        <v>42</v>
+      </c>
+      <c r="B40" s="1">
+        <v>1</v>
+      </c>
+      <c r="C40" s="1">
+        <v>21.5</v>
+      </c>
+      <c r="D40">
+        <v>1</v>
+      </c>
+      <c r="E40" t="s">
+        <v>9</v>
+      </c>
+      <c r="F40" t="s">
+        <v>10</v>
+      </c>
+      <c r="G40" t="s">
+        <v>11</v>
+      </c>
+      <c r="H40">
+        <v>200</v>
+      </c>
+      <c r="I40" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A41" s="1">
+        <v>43</v>
+      </c>
+      <c r="B41" s="1">
+        <v>1</v>
+      </c>
+      <c r="C41" s="1">
+        <v>21.5</v>
+      </c>
+      <c r="D41">
+        <v>1</v>
+      </c>
+      <c r="E41" t="s">
+        <v>17</v>
+      </c>
+      <c r="F41" t="s">
+        <v>18</v>
+      </c>
+      <c r="G41" t="s">
+        <v>19</v>
+      </c>
+      <c r="H41">
+        <v>200</v>
+      </c>
+      <c r="I41" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A42" s="1">
+        <v>44</v>
+      </c>
+      <c r="B42" s="1">
+        <v>1</v>
+      </c>
+      <c r="C42" s="1">
+        <v>22</v>
+      </c>
+      <c r="D42">
+        <v>2</v>
+      </c>
+      <c r="E42" t="s">
+        <v>12</v>
+      </c>
+      <c r="F42" t="s">
+        <v>13</v>
+      </c>
+      <c r="G42" t="s">
+        <v>14</v>
+      </c>
+      <c r="H42">
+        <v>1200</v>
+      </c>
+      <c r="I42" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A43" s="1">
+        <v>45</v>
+      </c>
+      <c r="B43" s="1">
+        <v>1</v>
+      </c>
+      <c r="C43" s="1">
+        <v>22.5</v>
+      </c>
+      <c r="D43">
+        <v>1</v>
+      </c>
+      <c r="E43" t="s">
+        <v>17</v>
+      </c>
+      <c r="F43" t="s">
+        <v>18</v>
+      </c>
+      <c r="G43" t="s">
+        <v>19</v>
+      </c>
+      <c r="H43">
+        <v>200</v>
+      </c>
+      <c r="I43" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A44" s="1">
+        <v>46</v>
+      </c>
+      <c r="B44" s="1">
+        <v>1</v>
+      </c>
+      <c r="C44" s="1">
+        <v>23</v>
+      </c>
+      <c r="D44">
+        <v>1</v>
+      </c>
+      <c r="E44" t="s">
+        <v>16</v>
+      </c>
+      <c r="F44" t="s">
+        <v>10</v>
+      </c>
+      <c r="G44" t="s">
+        <v>11</v>
+      </c>
+      <c r="H44">
+        <v>200</v>
+      </c>
+      <c r="I44" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A45" s="1">
+        <v>47</v>
+      </c>
+      <c r="B45" s="1">
+        <v>1</v>
+      </c>
+      <c r="C45" s="1">
+        <v>24</v>
+      </c>
+      <c r="D45">
+        <v>1</v>
+      </c>
+      <c r="E45" t="s">
+        <v>20</v>
+      </c>
+      <c r="F45" t="s">
+        <v>18</v>
+      </c>
+      <c r="G45" t="s">
+        <v>19</v>
+      </c>
+      <c r="H45">
+        <v>200</v>
+      </c>
+      <c r="I45" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A46" s="1">
+        <v>48</v>
+      </c>
+      <c r="B46" s="1">
+        <v>1</v>
+      </c>
+      <c r="C46" s="1">
+        <v>25</v>
+      </c>
+      <c r="D46">
+        <v>2</v>
+      </c>
+      <c r="E46" t="s">
+        <v>21</v>
+      </c>
+      <c r="F46" t="s">
+        <v>22</v>
+      </c>
+      <c r="G46" t="s">
+        <v>14</v>
+      </c>
+      <c r="H46">
+        <v>1000</v>
+      </c>
+      <c r="I46" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A47" s="1">
+        <v>49</v>
+      </c>
+      <c r="B47" s="1">
+        <v>1</v>
+      </c>
+      <c r="C47" s="1">
+        <v>26</v>
+      </c>
+      <c r="D47">
+        <v>1</v>
+      </c>
+      <c r="E47" t="s">
+        <v>9</v>
+      </c>
+      <c r="F47" t="s">
+        <v>10</v>
+      </c>
+      <c r="G47" t="s">
+        <v>11</v>
+      </c>
+      <c r="H47">
+        <v>200</v>
+      </c>
+      <c r="I47" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A48" s="1">
+        <v>50</v>
+      </c>
+      <c r="B48" s="1">
+        <v>1</v>
+      </c>
+      <c r="C48" s="1">
+        <v>27</v>
+      </c>
+      <c r="D48">
+        <v>1</v>
+      </c>
+      <c r="E48" t="s">
+        <v>17</v>
+      </c>
+      <c r="F48" t="s">
+        <v>18</v>
+      </c>
+      <c r="G48" t="s">
+        <v>19</v>
+      </c>
+      <c r="H48">
+        <v>200</v>
+      </c>
+      <c r="I48" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A49" s="1">
+        <v>51</v>
+      </c>
+      <c r="B49" s="1">
+        <v>1</v>
+      </c>
+      <c r="C49" s="1">
+        <v>27.5</v>
+      </c>
+      <c r="D49">
+        <v>1</v>
+      </c>
+      <c r="E49" t="s">
+        <v>29</v>
+      </c>
+      <c r="F49" t="s">
+        <v>18</v>
+      </c>
+      <c r="G49" t="s">
+        <v>19</v>
+      </c>
+      <c r="H49">
+        <v>200</v>
+      </c>
+      <c r="I49" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A50" s="1">
+        <v>52</v>
+      </c>
+      <c r="B50" s="1">
+        <v>1</v>
+      </c>
+      <c r="C50" s="1">
+        <v>28</v>
+      </c>
+      <c r="D50">
+        <v>1</v>
+      </c>
+      <c r="E50" t="s">
+        <v>20</v>
+      </c>
+      <c r="F50" t="s">
+        <v>18</v>
+      </c>
+      <c r="G50" t="s">
+        <v>19</v>
+      </c>
+      <c r="H50">
+        <v>200</v>
+      </c>
+      <c r="I50" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A51" s="1">
+        <v>53</v>
+      </c>
+      <c r="B51" s="1">
+        <v>1</v>
+      </c>
+      <c r="C51" s="1">
+        <v>29</v>
+      </c>
+      <c r="D51">
+        <v>2</v>
+      </c>
+      <c r="E51" t="s">
+        <v>49</v>
+      </c>
+      <c r="F51" t="s">
+        <v>13</v>
+      </c>
+      <c r="G51" t="s">
+        <v>46</v>
+      </c>
+      <c r="H51">
+        <v>1100</v>
+      </c>
+      <c r="I51" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A52" s="1">
+        <v>54</v>
+      </c>
+      <c r="B52" s="1">
+        <v>1</v>
+      </c>
+      <c r="C52" s="1">
+        <v>30</v>
+      </c>
+      <c r="D52">
+        <v>2</v>
+      </c>
+      <c r="E52" t="s">
+        <v>49</v>
+      </c>
+      <c r="F52" t="s">
+        <v>13</v>
+      </c>
+      <c r="G52" t="s">
+        <v>46</v>
+      </c>
+      <c r="H52">
+        <v>1100</v>
+      </c>
+      <c r="I52" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A53" s="1">
+        <v>55</v>
+      </c>
+      <c r="B53" s="1">
+        <v>1</v>
+      </c>
+      <c r="C53" s="1">
+        <v>31</v>
+      </c>
+      <c r="D53">
+        <v>2</v>
+      </c>
+      <c r="E53" t="s">
+        <v>21</v>
+      </c>
+      <c r="F53" t="s">
+        <v>22</v>
+      </c>
+      <c r="G53" t="s">
+        <v>14</v>
+      </c>
+      <c r="H53">
+        <v>1000</v>
+      </c>
+      <c r="I53" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A54" s="1">
+        <v>56</v>
+      </c>
+      <c r="B54" s="1">
+        <v>1</v>
+      </c>
+      <c r="C54" s="1">
+        <v>34</v>
+      </c>
+      <c r="D54">
+        <v>1</v>
+      </c>
+      <c r="E54" t="s">
+        <v>15</v>
+      </c>
+      <c r="F54" t="s">
+        <v>10</v>
+      </c>
+      <c r="G54" t="s">
+        <v>11</v>
+      </c>
+      <c r="H54">
+        <v>200</v>
+      </c>
+      <c r="I54" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A55" s="1">
+        <v>57</v>
+      </c>
+      <c r="B55" s="1">
+        <v>1</v>
+      </c>
+      <c r="C55" s="1">
+        <v>34.5</v>
+      </c>
+      <c r="D55">
+        <v>1</v>
+      </c>
+      <c r="E55" t="s">
+        <v>16</v>
+      </c>
+      <c r="F55" t="s">
+        <v>10</v>
+      </c>
+      <c r="G55" t="s">
+        <v>11</v>
+      </c>
+      <c r="H55">
+        <v>200</v>
+      </c>
+      <c r="I55" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A56" s="1">
+        <v>58</v>
+      </c>
+      <c r="B56" s="1">
+        <v>1</v>
+      </c>
+      <c r="C56" s="1">
+        <v>35</v>
+      </c>
+      <c r="D56">
+        <v>1</v>
+      </c>
+      <c r="E56" t="s">
+        <v>9</v>
+      </c>
+      <c r="F56" t="s">
+        <v>10</v>
+      </c>
+      <c r="G56" t="s">
+        <v>11</v>
+      </c>
+      <c r="H56">
+        <v>200</v>
+      </c>
+      <c r="I56" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A57" s="1">
+        <v>59</v>
+      </c>
+      <c r="B57" s="1">
+        <v>1</v>
+      </c>
+      <c r="C57" s="1">
+        <v>35</v>
+      </c>
+      <c r="D57">
+        <v>1</v>
+      </c>
+      <c r="E57" t="s">
+        <v>15</v>
+      </c>
+      <c r="F57" t="s">
+        <v>10</v>
+      </c>
+      <c r="G57" t="s">
+        <v>11</v>
+      </c>
+      <c r="H57">
+        <v>200</v>
+      </c>
+      <c r="I57" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A58" s="1">
+        <v>60</v>
+      </c>
+      <c r="B58" s="1">
+        <v>1</v>
+      </c>
+      <c r="C58" s="1">
+        <v>35.5</v>
+      </c>
+      <c r="D58">
+        <v>1</v>
+      </c>
+      <c r="E58" t="s">
+        <v>16</v>
+      </c>
+      <c r="F58" t="s">
+        <v>10</v>
+      </c>
+      <c r="G58" t="s">
+        <v>11</v>
+      </c>
+      <c r="H58">
+        <v>200</v>
+      </c>
+      <c r="I58" t="s">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEBD7694-9D46-44B3-81F9-AE3C7A3C321F}">
-  <dimension ref="A1:I98"/>
+  <dimension ref="A1:I150"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="D96" sqref="D96:D98"/>
+    <sheetView tabSelected="1" topLeftCell="A112" workbookViewId="0">
+      <selection activeCell="C141" sqref="C141"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -571,7 +2318,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="C2" s="1">
         <v>1</v>
@@ -600,7 +2347,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="C3" s="1">
         <v>2</v>
@@ -629,7 +2376,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="C4" s="1">
         <v>3</v>
@@ -658,7 +2405,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="C5" s="1">
         <v>5</v>
@@ -687,7 +2434,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="C6" s="1">
         <v>6</v>
@@ -716,7 +2463,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="1">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="C7" s="1">
         <v>7</v>
@@ -745,7 +2492,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="1">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="C8" s="1">
         <v>9</v>
@@ -774,7 +2521,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="1">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="C9" s="1">
         <v>10</v>
@@ -803,7 +2550,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="1">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="C10" s="1">
         <v>11</v>
@@ -832,7 +2579,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="1">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="C11" s="1">
         <v>13</v>
@@ -861,7 +2608,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="1">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="C12" s="1">
         <v>14</v>
@@ -890,7 +2637,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="1">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="C13" s="1">
         <v>15</v>
@@ -919,7 +2666,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="1">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="C14" s="1">
         <v>17</v>
@@ -948,7 +2695,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="1">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="C15" s="1">
         <v>18</v>
@@ -977,7 +2724,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="1">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="C16" s="1">
         <v>19</v>
@@ -1006,7 +2753,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="1">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="C17" s="1">
         <v>1</v>
@@ -1035,7 +2782,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="1">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="C18" s="1">
         <v>2</v>
@@ -1064,7 +2811,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="1">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="C19" s="1">
         <v>3</v>
@@ -1093,7 +2840,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="1">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="C20" s="1">
         <v>4</v>
@@ -1122,7 +2869,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="1">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="C21" s="1">
         <v>4.5</v>
@@ -1151,7 +2898,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="1">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="C22" s="1">
         <v>5</v>
@@ -1180,7 +2927,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="1">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="C23" s="1">
         <v>5.5</v>
@@ -1209,7 +2956,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="1">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="C24" s="1">
         <v>6</v>
@@ -1238,7 +2985,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="1">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="C25" s="1">
         <v>7.5</v>
@@ -1267,7 +3014,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="1">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="C26" s="1">
         <v>8</v>
@@ -1296,7 +3043,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="1">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="C27" s="1">
         <v>10</v>
@@ -1325,7 +3072,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="1">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="C28" s="1">
         <v>11</v>
@@ -1354,7 +3101,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="1">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="C29" s="1">
         <v>11.5</v>
@@ -1383,7 +3130,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="1">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="C30" s="1">
         <v>12</v>
@@ -1412,7 +3159,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="1">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="C31" s="1">
         <v>13</v>
@@ -1441,7 +3188,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="1">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="C32" s="1">
         <v>14</v>
@@ -1470,7 +3217,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="1">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="C33" s="1">
         <v>15</v>
@@ -1499,7 +3246,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="1">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="C34" s="1">
         <v>15.5</v>
@@ -1528,7 +3275,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="1">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="C35" s="1">
         <v>16</v>
@@ -1557,7 +3304,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="1">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="C36" s="1">
         <v>17</v>
@@ -1586,7 +3333,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="1">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="C37" s="1">
         <v>17.5</v>
@@ -1615,7 +3362,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="1">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="C38" s="1">
         <v>18</v>
@@ -1644,7 +3391,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="1">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="C39" s="1">
         <v>19</v>
@@ -1673,7 +3420,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="1">
-        <v>-3</v>
+        <v>3</v>
       </c>
       <c r="C40" s="1">
         <v>1</v>
@@ -1702,7 +3449,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="1">
-        <v>-3</v>
+        <v>3</v>
       </c>
       <c r="C41" s="1">
         <v>2</v>
@@ -1731,7 +3478,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="1">
-        <v>-3</v>
+        <v>3</v>
       </c>
       <c r="C42" s="1">
         <v>3</v>
@@ -1760,7 +3507,7 @@
         <v>42</v>
       </c>
       <c r="B43" s="1">
-        <v>-3</v>
+        <v>3</v>
       </c>
       <c r="C43" s="1">
         <v>4</v>
@@ -1789,7 +3536,7 @@
         <v>43</v>
       </c>
       <c r="B44" s="1">
-        <v>-3</v>
+        <v>3</v>
       </c>
       <c r="C44" s="1">
         <v>5</v>
@@ -1818,7 +3565,7 @@
         <v>44</v>
       </c>
       <c r="B45" s="1">
-        <v>-3</v>
+        <v>3</v>
       </c>
       <c r="C45" s="1">
         <v>6</v>
@@ -1847,7 +3594,7 @@
         <v>45</v>
       </c>
       <c r="B46" s="1">
-        <v>-3</v>
+        <v>3</v>
       </c>
       <c r="C46" s="1">
         <v>7</v>
@@ -1876,7 +3623,7 @@
         <v>46</v>
       </c>
       <c r="B47" s="1">
-        <v>-3</v>
+        <v>3</v>
       </c>
       <c r="C47" s="1">
         <v>8</v>
@@ -1905,7 +3652,7 @@
         <v>47</v>
       </c>
       <c r="B48" s="1">
-        <v>-3</v>
+        <v>3</v>
       </c>
       <c r="C48" s="1">
         <v>12</v>
@@ -1934,7 +3681,7 @@
         <v>48</v>
       </c>
       <c r="B49" s="1">
-        <v>-3</v>
+        <v>3</v>
       </c>
       <c r="C49" s="1">
         <v>13</v>
@@ -1963,7 +3710,7 @@
         <v>49</v>
       </c>
       <c r="B50" s="1">
-        <v>-3</v>
+        <v>3</v>
       </c>
       <c r="C50" s="1">
         <v>14</v>
@@ -1992,7 +3739,7 @@
         <v>50</v>
       </c>
       <c r="B51" s="1">
-        <v>-3</v>
+        <v>3</v>
       </c>
       <c r="C51" s="1">
         <v>15</v>
@@ -2021,7 +3768,7 @@
         <v>51</v>
       </c>
       <c r="B52" s="1">
-        <v>-3</v>
+        <v>3</v>
       </c>
       <c r="C52" s="1">
         <v>16</v>
@@ -2050,7 +3797,7 @@
         <v>52</v>
       </c>
       <c r="B53" s="1">
-        <v>-3</v>
+        <v>3</v>
       </c>
       <c r="C53" s="1">
         <v>20</v>
@@ -2079,7 +3826,7 @@
         <v>53</v>
       </c>
       <c r="B54" s="1">
-        <v>-3</v>
+        <v>3</v>
       </c>
       <c r="C54" s="1">
         <v>21</v>
@@ -2108,7 +3855,7 @@
         <v>54</v>
       </c>
       <c r="B55" s="1">
-        <v>-3</v>
+        <v>3</v>
       </c>
       <c r="C55" s="1">
         <v>22</v>
@@ -2137,7 +3884,7 @@
         <v>55</v>
       </c>
       <c r="B56" s="1">
-        <v>-3</v>
+        <v>3</v>
       </c>
       <c r="C56" s="1">
         <v>23</v>
@@ -2166,7 +3913,7 @@
         <v>56</v>
       </c>
       <c r="B57" s="1">
-        <v>-3</v>
+        <v>3</v>
       </c>
       <c r="C57" s="1">
         <v>24</v>
@@ -2195,7 +3942,7 @@
         <v>57</v>
       </c>
       <c r="B58" s="1">
-        <v>-3</v>
+        <v>3</v>
       </c>
       <c r="C58" s="1">
         <v>25</v>
@@ -2224,28 +3971,28 @@
         <v>58</v>
       </c>
       <c r="B59" s="1">
-        <v>-4</v>
+        <v>4</v>
       </c>
       <c r="C59" s="1">
         <v>1</v>
       </c>
       <c r="D59">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E59" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="F59" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G59" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="H59">
-        <v>300</v>
+        <v>1000</v>
       </c>
       <c r="I59" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
@@ -2253,28 +4000,28 @@
         <v>59</v>
       </c>
       <c r="B60" s="1">
-        <v>-4</v>
+        <v>4</v>
       </c>
       <c r="C60" s="1">
         <v>2</v>
       </c>
       <c r="D60">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E60" t="s">
-        <v>9</v>
+        <v>47</v>
       </c>
       <c r="F60" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G60" t="s">
-        <v>11</v>
+        <v>46</v>
       </c>
       <c r="H60">
-        <v>300</v>
+        <v>1000</v>
       </c>
       <c r="I60" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
@@ -2282,7 +4029,7 @@
         <v>60</v>
       </c>
       <c r="B61" s="1">
-        <v>-4</v>
+        <v>4</v>
       </c>
       <c r="C61" s="1">
         <v>3</v>
@@ -2291,7 +4038,7 @@
         <v>1</v>
       </c>
       <c r="E61" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="F61" t="s">
         <v>10</v>
@@ -2300,10 +4047,10 @@
         <v>11</v>
       </c>
       <c r="H61">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="I61" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
@@ -2311,16 +4058,16 @@
         <v>61</v>
       </c>
       <c r="B62" s="1">
-        <v>-4</v>
+        <v>4</v>
       </c>
       <c r="C62" s="1">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="D62">
         <v>1</v>
       </c>
       <c r="E62" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F62" t="s">
         <v>10</v>
@@ -2329,10 +4076,10 @@
         <v>11</v>
       </c>
       <c r="H62">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="I62" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
@@ -2340,28 +4087,28 @@
         <v>62</v>
       </c>
       <c r="B63" s="1">
-        <v>-4</v>
+        <v>4</v>
       </c>
       <c r="C63" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D63">
         <v>1</v>
       </c>
       <c r="E63" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="F63" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G63" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="H63">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="I63" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
@@ -2369,28 +4116,28 @@
         <v>63</v>
       </c>
       <c r="B64" s="1">
-        <v>-4</v>
+        <v>4</v>
       </c>
       <c r="C64" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D64">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E64" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="F64" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G64" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="H64">
-        <v>300</v>
+        <v>1000</v>
       </c>
       <c r="I64" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.25">
@@ -2398,28 +4145,28 @@
         <v>64</v>
       </c>
       <c r="B65" s="1">
-        <v>-4</v>
+        <v>4</v>
       </c>
       <c r="C65" s="1">
-        <v>9</v>
+        <v>6.5</v>
       </c>
       <c r="D65">
         <v>1</v>
       </c>
       <c r="E65" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F65" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G65" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="H65">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="I65" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.25">
@@ -2427,28 +4174,28 @@
         <v>65</v>
       </c>
       <c r="B66" s="1">
-        <v>-4</v>
+        <v>4</v>
       </c>
       <c r="C66" s="1">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D66">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E66" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="F66" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G66" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="H66">
-        <v>300</v>
+        <v>1100</v>
       </c>
       <c r="I66" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.25">
@@ -2456,10 +4203,10 @@
         <v>66</v>
       </c>
       <c r="B67" s="1">
-        <v>-4</v>
+        <v>4</v>
       </c>
       <c r="C67" s="1">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D67">
         <v>1</v>
@@ -2474,10 +4221,10 @@
         <v>11</v>
       </c>
       <c r="H67">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="I67" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.25">
@@ -2485,28 +4232,28 @@
         <v>67</v>
       </c>
       <c r="B68" s="1">
-        <v>-4</v>
+        <v>4</v>
       </c>
       <c r="C68" s="1">
-        <v>13</v>
+        <v>9.5</v>
       </c>
       <c r="D68">
         <v>1</v>
       </c>
       <c r="E68" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="F68" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G68" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="H68">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="I68" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.25">
@@ -2514,28 +4261,28 @@
         <v>68</v>
       </c>
       <c r="B69" s="1">
-        <v>-4</v>
+        <v>4</v>
       </c>
       <c r="C69" s="1">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D69">
         <v>1</v>
       </c>
       <c r="E69" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F69" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G69" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="H69">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="I69" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.25">
@@ -2543,16 +4290,16 @@
         <v>69</v>
       </c>
       <c r="B70" s="1">
-        <v>-4</v>
+        <v>4</v>
       </c>
       <c r="C70" s="1">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D70">
         <v>1</v>
       </c>
       <c r="E70" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="F70" t="s">
         <v>10</v>
@@ -2561,10 +4308,10 @@
         <v>11</v>
       </c>
       <c r="H70">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="I70" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.25">
@@ -2572,16 +4319,16 @@
         <v>70</v>
       </c>
       <c r="B71" s="1">
-        <v>-4</v>
+        <v>4</v>
       </c>
       <c r="C71" s="1">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="D71">
         <v>1</v>
       </c>
       <c r="E71" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="F71" t="s">
         <v>10</v>
@@ -2590,10 +4337,10 @@
         <v>11</v>
       </c>
       <c r="H71">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="I71" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.25">
@@ -2601,28 +4348,28 @@
         <v>71</v>
       </c>
       <c r="B72" s="1">
-        <v>-4</v>
+        <v>4</v>
       </c>
       <c r="C72" s="1">
+        <v>11.5</v>
+      </c>
+      <c r="D72">
+        <v>1</v>
+      </c>
+      <c r="E72" t="s">
+        <v>29</v>
+      </c>
+      <c r="F72" t="s">
         <v>18</v>
       </c>
-      <c r="D72">
-        <v>1</v>
-      </c>
-      <c r="E72" t="s">
-        <v>16</v>
-      </c>
-      <c r="F72" t="s">
-        <v>10</v>
-      </c>
       <c r="G72" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="H72">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="I72" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.25">
@@ -2630,28 +4377,28 @@
         <v>72</v>
       </c>
       <c r="B73" s="1">
-        <v>-4</v>
+        <v>4</v>
       </c>
       <c r="C73" s="1">
+        <v>15</v>
+      </c>
+      <c r="D73">
+        <v>1</v>
+      </c>
+      <c r="E73" t="s">
+        <v>17</v>
+      </c>
+      <c r="F73" t="s">
+        <v>18</v>
+      </c>
+      <c r="G73" t="s">
         <v>19</v>
       </c>
-      <c r="D73">
-        <v>1</v>
-      </c>
-      <c r="E73" t="s">
-        <v>15</v>
-      </c>
-      <c r="F73" t="s">
-        <v>10</v>
-      </c>
-      <c r="G73" t="s">
-        <v>11</v>
-      </c>
       <c r="H73">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="I73" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.25">
@@ -2659,16 +4406,16 @@
         <v>73</v>
       </c>
       <c r="B74" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C74" s="1">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D74">
         <v>1</v>
       </c>
       <c r="E74" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="F74" t="s">
         <v>10</v>
@@ -2677,10 +4424,10 @@
         <v>11</v>
       </c>
       <c r="H74">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="I74" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.25">
@@ -2688,28 +4435,28 @@
         <v>74</v>
       </c>
       <c r="B75" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C75" s="1">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="D75">
         <v>1</v>
       </c>
       <c r="E75" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="F75" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G75" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="H75">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="I75" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.25">
@@ -2717,28 +4464,28 @@
         <v>75</v>
       </c>
       <c r="B76" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C76" s="1">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="D76">
         <v>1</v>
       </c>
       <c r="E76" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="F76" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G76" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="H76">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="I76" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.25">
@@ -2746,28 +4493,28 @@
         <v>76</v>
       </c>
       <c r="B77" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C77" s="1">
-        <v>3.5</v>
+        <v>19</v>
       </c>
       <c r="D77">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E77" t="s">
-        <v>15</v>
+        <v>49</v>
       </c>
       <c r="F77" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G77" t="s">
-        <v>11</v>
+        <v>46</v>
       </c>
       <c r="H77">
-        <v>300</v>
+        <v>1100</v>
       </c>
       <c r="I77" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.25">
@@ -2775,10 +4522,10 @@
         <v>77</v>
       </c>
       <c r="B78" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C78" s="1">
-        <v>4</v>
+        <v>19.5</v>
       </c>
       <c r="D78">
         <v>1</v>
@@ -2793,10 +4540,10 @@
         <v>11</v>
       </c>
       <c r="H78">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="I78" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.25">
@@ -2804,16 +4551,16 @@
         <v>78</v>
       </c>
       <c r="B79" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C79" s="1">
-        <v>4.5</v>
+        <v>20</v>
       </c>
       <c r="D79">
         <v>1</v>
       </c>
       <c r="E79" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F79" t="s">
         <v>10</v>
@@ -2822,10 +4569,10 @@
         <v>11</v>
       </c>
       <c r="H79">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="I79" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.25">
@@ -2833,28 +4580,28 @@
         <v>79</v>
       </c>
       <c r="B80" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C80" s="1">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="D80">
         <v>1</v>
       </c>
       <c r="E80" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="F80" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G80" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="H80">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="I80" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.25">
@@ -2862,16 +4609,16 @@
         <v>80</v>
       </c>
       <c r="B81" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C81" s="1">
-        <v>5.5</v>
+        <v>21.5</v>
       </c>
       <c r="D81">
         <v>1</v>
       </c>
       <c r="E81" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="F81" t="s">
         <v>10</v>
@@ -2880,10 +4627,10 @@
         <v>11</v>
       </c>
       <c r="H81">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="I81" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.25">
@@ -2891,28 +4638,28 @@
         <v>81</v>
       </c>
       <c r="B82" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C82" s="1">
-        <v>7</v>
+        <v>21.5</v>
       </c>
       <c r="D82">
         <v>1</v>
       </c>
       <c r="E82" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F82" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G82" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="H82">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="I82" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.25">
@@ -2920,28 +4667,28 @@
         <v>82</v>
       </c>
       <c r="B83" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C83" s="1">
-        <v>7.5</v>
+        <v>22</v>
       </c>
       <c r="D83">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E83" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F83" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G83" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="H83">
-        <v>300</v>
+        <v>1200</v>
       </c>
       <c r="I83" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.25">
@@ -2949,28 +4696,28 @@
         <v>83</v>
       </c>
       <c r="B84" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C84" s="1">
-        <v>8</v>
+        <v>22.5</v>
       </c>
       <c r="D84">
         <v>1</v>
       </c>
       <c r="E84" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="F84" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G84" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="H84">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="I84" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.25">
@@ -2978,16 +4725,16 @@
         <v>84</v>
       </c>
       <c r="B85" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C85" s="1">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="D85">
         <v>1</v>
       </c>
       <c r="E85" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F85" t="s">
         <v>10</v>
@@ -2996,10 +4743,10 @@
         <v>11</v>
       </c>
       <c r="H85">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="I85" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.25">
@@ -3007,28 +4754,28 @@
         <v>85</v>
       </c>
       <c r="B86" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C86" s="1">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="D86">
         <v>1</v>
       </c>
       <c r="E86" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="F86" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G86" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="H86">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="I86" t="s">
-        <v>26</v>
+        <v>40</v>
       </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.25">
@@ -3036,28 +4783,28 @@
         <v>86</v>
       </c>
       <c r="B87" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C87" s="1">
-        <v>11.5</v>
+        <v>25</v>
       </c>
       <c r="D87">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E87" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="F87" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G87" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="H87">
-        <v>300</v>
+        <v>1000</v>
       </c>
       <c r="I87" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.25">
@@ -3065,10 +4812,10 @@
         <v>87</v>
       </c>
       <c r="B88" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C88" s="1">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="D88">
         <v>1</v>
@@ -3083,10 +4830,10 @@
         <v>11</v>
       </c>
       <c r="H88">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="I88" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.25">
@@ -3094,28 +4841,28 @@
         <v>88</v>
       </c>
       <c r="B89" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C89" s="1">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="D89">
         <v>1</v>
       </c>
       <c r="E89" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F89" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G89" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="H89">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="I89" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.25">
@@ -3123,28 +4870,28 @@
         <v>89</v>
       </c>
       <c r="B90" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C90" s="1">
-        <v>14</v>
+        <v>27.5</v>
       </c>
       <c r="D90">
         <v>1</v>
       </c>
       <c r="E90" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="F90" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G90" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="H90">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="I90" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.25">
@@ -3152,28 +4899,28 @@
         <v>90</v>
       </c>
       <c r="B91" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C91" s="1">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="D91">
         <v>1</v>
       </c>
       <c r="E91" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="F91" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G91" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="H91">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="I91" t="s">
-        <v>25</v>
+        <v>40</v>
       </c>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.25">
@@ -3181,28 +4928,28 @@
         <v>91</v>
       </c>
       <c r="B92" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C92" s="1">
-        <v>15.5</v>
+        <v>29</v>
       </c>
       <c r="D92">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E92" t="s">
-        <v>15</v>
+        <v>49</v>
       </c>
       <c r="F92" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G92" t="s">
-        <v>11</v>
+        <v>46</v>
       </c>
       <c r="H92">
-        <v>300</v>
+        <v>1100</v>
       </c>
       <c r="I92" t="s">
-        <v>26</v>
+        <v>44</v>
       </c>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.25">
@@ -3210,28 +4957,28 @@
         <v>92</v>
       </c>
       <c r="B93" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C93" s="1">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="D93">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E93" t="s">
-        <v>9</v>
+        <v>49</v>
       </c>
       <c r="F93" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G93" t="s">
-        <v>11</v>
+        <v>46</v>
       </c>
       <c r="H93">
-        <v>300</v>
+        <v>1100</v>
       </c>
       <c r="I93" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.25">
@@ -3239,28 +4986,28 @@
         <v>93</v>
       </c>
       <c r="B94" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C94" s="1">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="D94">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E94" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="F94" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G94" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="H94">
-        <v>300</v>
+        <v>1000</v>
       </c>
       <c r="I94" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.25">
@@ -3268,16 +5015,16 @@
         <v>94</v>
       </c>
       <c r="B95" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C95" s="1">
-        <v>17.5</v>
+        <v>34</v>
       </c>
       <c r="D95">
         <v>1</v>
       </c>
       <c r="E95" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="F95" t="s">
         <v>10</v>
@@ -3286,10 +5033,10 @@
         <v>11</v>
       </c>
       <c r="H95">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="I95" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.25">
@@ -3297,16 +5044,16 @@
         <v>95</v>
       </c>
       <c r="B96" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C96" s="1">
-        <v>18</v>
+        <v>34.5</v>
       </c>
       <c r="D96">
         <v>1</v>
       </c>
       <c r="E96" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="F96" t="s">
         <v>10</v>
@@ -3315,10 +5062,10 @@
         <v>11</v>
       </c>
       <c r="H96">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="I96" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.25">
@@ -3326,16 +5073,16 @@
         <v>96</v>
       </c>
       <c r="B97" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C97" s="1">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="D97">
         <v>1</v>
       </c>
       <c r="E97" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="F97" t="s">
         <v>10</v>
@@ -3344,10 +5091,10 @@
         <v>11</v>
       </c>
       <c r="H97">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="I97" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.25">
@@ -3355,28 +5102,1452 @@
         <v>97</v>
       </c>
       <c r="B98" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C98" s="1">
+        <v>35</v>
+      </c>
+      <c r="D98">
+        <v>1</v>
+      </c>
+      <c r="E98" t="s">
+        <v>15</v>
+      </c>
+      <c r="F98" t="s">
+        <v>10</v>
+      </c>
+      <c r="G98" t="s">
+        <v>11</v>
+      </c>
+      <c r="H98">
+        <v>200</v>
+      </c>
+      <c r="I98" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A99" s="1">
+        <v>98</v>
+      </c>
+      <c r="B99" s="1">
+        <v>4</v>
+      </c>
+      <c r="C99" s="1">
+        <v>35.5</v>
+      </c>
+      <c r="D99">
+        <v>1</v>
+      </c>
+      <c r="E99" t="s">
+        <v>16</v>
+      </c>
+      <c r="F99" t="s">
+        <v>10</v>
+      </c>
+      <c r="G99" t="s">
+        <v>11</v>
+      </c>
+      <c r="H99">
+        <v>200</v>
+      </c>
+      <c r="I99" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A100" s="1">
+        <v>99</v>
+      </c>
+      <c r="B100" s="1">
+        <v>5</v>
+      </c>
+      <c r="C100" s="1">
+        <v>1</v>
+      </c>
+      <c r="D100">
+        <v>1</v>
+      </c>
+      <c r="E100" t="s">
+        <v>9</v>
+      </c>
+      <c r="F100" t="s">
+        <v>10</v>
+      </c>
+      <c r="G100" t="s">
+        <v>11</v>
+      </c>
+      <c r="H100">
+        <v>300</v>
+      </c>
+      <c r="I100" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A101" s="1">
+        <v>100</v>
+      </c>
+      <c r="B101" s="1">
+        <v>5</v>
+      </c>
+      <c r="C101" s="1">
+        <v>2</v>
+      </c>
+      <c r="D101">
+        <v>1</v>
+      </c>
+      <c r="E101" t="s">
+        <v>9</v>
+      </c>
+      <c r="F101" t="s">
+        <v>10</v>
+      </c>
+      <c r="G101" t="s">
+        <v>11</v>
+      </c>
+      <c r="H101">
+        <v>300</v>
+      </c>
+      <c r="I101" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A102" s="1">
+        <v>101</v>
+      </c>
+      <c r="B102" s="1">
+        <v>5</v>
+      </c>
+      <c r="C102" s="1">
+        <v>3</v>
+      </c>
+      <c r="D102">
+        <v>1</v>
+      </c>
+      <c r="E102" t="s">
+        <v>9</v>
+      </c>
+      <c r="F102" t="s">
+        <v>10</v>
+      </c>
+      <c r="G102" t="s">
+        <v>11</v>
+      </c>
+      <c r="H102">
+        <v>300</v>
+      </c>
+      <c r="I102" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A103" s="1">
+        <v>102</v>
+      </c>
+      <c r="B103" s="1">
+        <v>5</v>
+      </c>
+      <c r="C103" s="1">
+        <v>5</v>
+      </c>
+      <c r="D103">
+        <v>1</v>
+      </c>
+      <c r="E103" t="s">
+        <v>16</v>
+      </c>
+      <c r="F103" t="s">
+        <v>10</v>
+      </c>
+      <c r="G103" t="s">
+        <v>11</v>
+      </c>
+      <c r="H103">
+        <v>300</v>
+      </c>
+      <c r="I103" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A104" s="1">
+        <v>103</v>
+      </c>
+      <c r="B104" s="1">
+        <v>5</v>
+      </c>
+      <c r="C104" s="1">
+        <v>6</v>
+      </c>
+      <c r="D104">
+        <v>1</v>
+      </c>
+      <c r="E104" t="s">
+        <v>16</v>
+      </c>
+      <c r="F104" t="s">
+        <v>10</v>
+      </c>
+      <c r="G104" t="s">
+        <v>11</v>
+      </c>
+      <c r="H104">
+        <v>300</v>
+      </c>
+      <c r="I104" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A105" s="1">
+        <v>104</v>
+      </c>
+      <c r="B105" s="1">
+        <v>5</v>
+      </c>
+      <c r="C105" s="1">
+        <v>7</v>
+      </c>
+      <c r="D105">
+        <v>1</v>
+      </c>
+      <c r="E105" t="s">
+        <v>16</v>
+      </c>
+      <c r="F105" t="s">
+        <v>10</v>
+      </c>
+      <c r="G105" t="s">
+        <v>11</v>
+      </c>
+      <c r="H105">
+        <v>300</v>
+      </c>
+      <c r="I105" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A106" s="1">
+        <v>105</v>
+      </c>
+      <c r="B106" s="1">
+        <v>5</v>
+      </c>
+      <c r="C106" s="1">
+        <v>9</v>
+      </c>
+      <c r="D106">
+        <v>1</v>
+      </c>
+      <c r="E106" t="s">
+        <v>15</v>
+      </c>
+      <c r="F106" t="s">
+        <v>10</v>
+      </c>
+      <c r="G106" t="s">
+        <v>11</v>
+      </c>
+      <c r="H106">
+        <v>300</v>
+      </c>
+      <c r="I106" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A107" s="1">
+        <v>106</v>
+      </c>
+      <c r="B107" s="1">
+        <v>5</v>
+      </c>
+      <c r="C107" s="1">
+        <v>10</v>
+      </c>
+      <c r="D107">
+        <v>1</v>
+      </c>
+      <c r="E107" t="s">
+        <v>15</v>
+      </c>
+      <c r="F107" t="s">
+        <v>10</v>
+      </c>
+      <c r="G107" t="s">
+        <v>11</v>
+      </c>
+      <c r="H107">
+        <v>300</v>
+      </c>
+      <c r="I107" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A108" s="1">
+        <v>107</v>
+      </c>
+      <c r="B108" s="1">
+        <v>5</v>
+      </c>
+      <c r="C108" s="1">
+        <v>11</v>
+      </c>
+      <c r="D108">
+        <v>1</v>
+      </c>
+      <c r="E108" t="s">
+        <v>15</v>
+      </c>
+      <c r="F108" t="s">
+        <v>10</v>
+      </c>
+      <c r="G108" t="s">
+        <v>11</v>
+      </c>
+      <c r="H108">
+        <v>300</v>
+      </c>
+      <c r="I108" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A109" s="1">
+        <v>108</v>
+      </c>
+      <c r="B109" s="1">
+        <v>5</v>
+      </c>
+      <c r="C109" s="1">
+        <v>13</v>
+      </c>
+      <c r="D109">
+        <v>1</v>
+      </c>
+      <c r="E109" t="s">
+        <v>9</v>
+      </c>
+      <c r="F109" t="s">
+        <v>10</v>
+      </c>
+      <c r="G109" t="s">
+        <v>11</v>
+      </c>
+      <c r="H109">
+        <v>300</v>
+      </c>
+      <c r="I109" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A110" s="1">
+        <v>109</v>
+      </c>
+      <c r="B110" s="1">
+        <v>5</v>
+      </c>
+      <c r="C110" s="1">
+        <v>14</v>
+      </c>
+      <c r="D110">
+        <v>1</v>
+      </c>
+      <c r="E110" t="s">
+        <v>16</v>
+      </c>
+      <c r="F110" t="s">
+        <v>10</v>
+      </c>
+      <c r="G110" t="s">
+        <v>11</v>
+      </c>
+      <c r="H110">
+        <v>300</v>
+      </c>
+      <c r="I110" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A111" s="1">
+        <v>110</v>
+      </c>
+      <c r="B111" s="1">
+        <v>5</v>
+      </c>
+      <c r="C111" s="1">
+        <v>15</v>
+      </c>
+      <c r="D111">
+        <v>1</v>
+      </c>
+      <c r="E111" t="s">
+        <v>15</v>
+      </c>
+      <c r="F111" t="s">
+        <v>10</v>
+      </c>
+      <c r="G111" t="s">
+        <v>11</v>
+      </c>
+      <c r="H111">
+        <v>300</v>
+      </c>
+      <c r="I111" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A112" s="1">
+        <v>111</v>
+      </c>
+      <c r="B112" s="1">
+        <v>5</v>
+      </c>
+      <c r="C112" s="1">
+        <v>17</v>
+      </c>
+      <c r="D112">
+        <v>1</v>
+      </c>
+      <c r="E112" t="s">
+        <v>9</v>
+      </c>
+      <c r="F112" t="s">
+        <v>10</v>
+      </c>
+      <c r="G112" t="s">
+        <v>11</v>
+      </c>
+      <c r="H112">
+        <v>300</v>
+      </c>
+      <c r="I112" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A113" s="1">
+        <v>112</v>
+      </c>
+      <c r="B113" s="1">
+        <v>5</v>
+      </c>
+      <c r="C113" s="1">
+        <v>18</v>
+      </c>
+      <c r="D113">
+        <v>1</v>
+      </c>
+      <c r="E113" t="s">
+        <v>16</v>
+      </c>
+      <c r="F113" t="s">
+        <v>10</v>
+      </c>
+      <c r="G113" t="s">
+        <v>11</v>
+      </c>
+      <c r="H113">
+        <v>300</v>
+      </c>
+      <c r="I113" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A114" s="1">
+        <v>113</v>
+      </c>
+      <c r="B114" s="1">
+        <v>5</v>
+      </c>
+      <c r="C114" s="1">
+        <v>19</v>
+      </c>
+      <c r="D114">
+        <v>1</v>
+      </c>
+      <c r="E114" t="s">
+        <v>15</v>
+      </c>
+      <c r="F114" t="s">
+        <v>10</v>
+      </c>
+      <c r="G114" t="s">
+        <v>11</v>
+      </c>
+      <c r="H114">
+        <v>300</v>
+      </c>
+      <c r="I114" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A115" s="1">
+        <v>114</v>
+      </c>
+      <c r="B115" s="1">
+        <v>6</v>
+      </c>
+      <c r="C115" s="1">
+        <v>1</v>
+      </c>
+      <c r="D115">
+        <v>1</v>
+      </c>
+      <c r="E115" t="s">
+        <v>16</v>
+      </c>
+      <c r="F115" t="s">
+        <v>10</v>
+      </c>
+      <c r="G115" t="s">
+        <v>11</v>
+      </c>
+      <c r="H115">
+        <v>300</v>
+      </c>
+      <c r="I115" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A116" s="1">
+        <v>115</v>
+      </c>
+      <c r="B116" s="1">
+        <v>6</v>
+      </c>
+      <c r="C116" s="1">
+        <v>2</v>
+      </c>
+      <c r="D116">
+        <v>1</v>
+      </c>
+      <c r="E116" t="s">
+        <v>9</v>
+      </c>
+      <c r="F116" t="s">
+        <v>10</v>
+      </c>
+      <c r="G116" t="s">
+        <v>11</v>
+      </c>
+      <c r="H116">
+        <v>300</v>
+      </c>
+      <c r="I116" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A117" s="1">
+        <v>116</v>
+      </c>
+      <c r="B117" s="1">
+        <v>6</v>
+      </c>
+      <c r="C117" s="1">
+        <v>3</v>
+      </c>
+      <c r="D117">
+        <v>1</v>
+      </c>
+      <c r="E117" t="s">
+        <v>9</v>
+      </c>
+      <c r="F117" t="s">
+        <v>10</v>
+      </c>
+      <c r="G117" t="s">
+        <v>11</v>
+      </c>
+      <c r="H117">
+        <v>300</v>
+      </c>
+      <c r="I117" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A118" s="1">
+        <v>117</v>
+      </c>
+      <c r="B118" s="1">
+        <v>6</v>
+      </c>
+      <c r="C118" s="1">
+        <v>3.5</v>
+      </c>
+      <c r="D118">
+        <v>1</v>
+      </c>
+      <c r="E118" t="s">
+        <v>15</v>
+      </c>
+      <c r="F118" t="s">
+        <v>10</v>
+      </c>
+      <c r="G118" t="s">
+        <v>11</v>
+      </c>
+      <c r="H118">
+        <v>300</v>
+      </c>
+      <c r="I118" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A119" s="1">
+        <v>118</v>
+      </c>
+      <c r="B119" s="1">
+        <v>6</v>
+      </c>
+      <c r="C119" s="1">
+        <v>4</v>
+      </c>
+      <c r="D119">
+        <v>1</v>
+      </c>
+      <c r="E119" t="s">
+        <v>9</v>
+      </c>
+      <c r="F119" t="s">
+        <v>10</v>
+      </c>
+      <c r="G119" t="s">
+        <v>11</v>
+      </c>
+      <c r="H119">
+        <v>300</v>
+      </c>
+      <c r="I119" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A120" s="1">
+        <v>119</v>
+      </c>
+      <c r="B120" s="1">
+        <v>6</v>
+      </c>
+      <c r="C120" s="1">
+        <v>4.5</v>
+      </c>
+      <c r="D120">
+        <v>1</v>
+      </c>
+      <c r="E120" t="s">
+        <v>16</v>
+      </c>
+      <c r="F120" t="s">
+        <v>10</v>
+      </c>
+      <c r="G120" t="s">
+        <v>11</v>
+      </c>
+      <c r="H120">
+        <v>300</v>
+      </c>
+      <c r="I120" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A121" s="1">
+        <v>120</v>
+      </c>
+      <c r="B121" s="1">
+        <v>6</v>
+      </c>
+      <c r="C121" s="1">
+        <v>5</v>
+      </c>
+      <c r="D121">
+        <v>1</v>
+      </c>
+      <c r="E121" t="s">
+        <v>9</v>
+      </c>
+      <c r="F121" t="s">
+        <v>10</v>
+      </c>
+      <c r="G121" t="s">
+        <v>11</v>
+      </c>
+      <c r="H121">
+        <v>300</v>
+      </c>
+      <c r="I121" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A122" s="1">
+        <v>121</v>
+      </c>
+      <c r="B122" s="1">
+        <v>6</v>
+      </c>
+      <c r="C122" s="1">
+        <v>5.5</v>
+      </c>
+      <c r="D122">
+        <v>1</v>
+      </c>
+      <c r="E122" t="s">
+        <v>15</v>
+      </c>
+      <c r="F122" t="s">
+        <v>10</v>
+      </c>
+      <c r="G122" t="s">
+        <v>11</v>
+      </c>
+      <c r="H122">
+        <v>300</v>
+      </c>
+      <c r="I122" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A123" s="1">
+        <v>122</v>
+      </c>
+      <c r="B123" s="1">
+        <v>6</v>
+      </c>
+      <c r="C123" s="1">
+        <v>7</v>
+      </c>
+      <c r="D123">
+        <v>1</v>
+      </c>
+      <c r="E123" t="s">
+        <v>16</v>
+      </c>
+      <c r="F123" t="s">
+        <v>10</v>
+      </c>
+      <c r="G123" t="s">
+        <v>11</v>
+      </c>
+      <c r="H123">
+        <v>300</v>
+      </c>
+      <c r="I123" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A124" s="1">
+        <v>123</v>
+      </c>
+      <c r="B124" s="1">
+        <v>6</v>
+      </c>
+      <c r="C124" s="1">
+        <v>7.5</v>
+      </c>
+      <c r="D124">
+        <v>1</v>
+      </c>
+      <c r="E124" t="s">
+        <v>16</v>
+      </c>
+      <c r="F124" t="s">
+        <v>10</v>
+      </c>
+      <c r="G124" t="s">
+        <v>11</v>
+      </c>
+      <c r="H124">
+        <v>300</v>
+      </c>
+      <c r="I124" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A125" s="1">
+        <v>124</v>
+      </c>
+      <c r="B125" s="1">
+        <v>6</v>
+      </c>
+      <c r="C125" s="1">
+        <v>8</v>
+      </c>
+      <c r="D125">
+        <v>1</v>
+      </c>
+      <c r="E125" t="s">
+        <v>9</v>
+      </c>
+      <c r="F125" t="s">
+        <v>10</v>
+      </c>
+      <c r="G125" t="s">
+        <v>11</v>
+      </c>
+      <c r="H125">
+        <v>300</v>
+      </c>
+      <c r="I125" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A126" s="1">
+        <v>125</v>
+      </c>
+      <c r="B126" s="1">
+        <v>6</v>
+      </c>
+      <c r="C126" s="1">
+        <v>9</v>
+      </c>
+      <c r="D126">
+        <v>1</v>
+      </c>
+      <c r="E126" t="s">
+        <v>15</v>
+      </c>
+      <c r="F126" t="s">
+        <v>10</v>
+      </c>
+      <c r="G126" t="s">
+        <v>11</v>
+      </c>
+      <c r="H126">
+        <v>300</v>
+      </c>
+      <c r="I126" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A127" s="1">
+        <v>126</v>
+      </c>
+      <c r="B127" s="1">
+        <v>6</v>
+      </c>
+      <c r="C127" s="1">
+        <v>11</v>
+      </c>
+      <c r="D127">
+        <v>1</v>
+      </c>
+      <c r="E127" t="s">
+        <v>15</v>
+      </c>
+      <c r="F127" t="s">
+        <v>10</v>
+      </c>
+      <c r="G127" t="s">
+        <v>11</v>
+      </c>
+      <c r="H127">
+        <v>300</v>
+      </c>
+      <c r="I127" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A128" s="1">
+        <v>127</v>
+      </c>
+      <c r="B128" s="1">
+        <v>6</v>
+      </c>
+      <c r="C128" s="1">
+        <v>11.5</v>
+      </c>
+      <c r="D128">
+        <v>1</v>
+      </c>
+      <c r="E128" t="s">
+        <v>9</v>
+      </c>
+      <c r="F128" t="s">
+        <v>10</v>
+      </c>
+      <c r="G128" t="s">
+        <v>11</v>
+      </c>
+      <c r="H128">
+        <v>300</v>
+      </c>
+      <c r="I128" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A129" s="1">
+        <v>128</v>
+      </c>
+      <c r="B129" s="1">
+        <v>6</v>
+      </c>
+      <c r="C129" s="1">
+        <v>12</v>
+      </c>
+      <c r="D129">
+        <v>1</v>
+      </c>
+      <c r="E129" t="s">
+        <v>9</v>
+      </c>
+      <c r="F129" t="s">
+        <v>10</v>
+      </c>
+      <c r="G129" t="s">
+        <v>11</v>
+      </c>
+      <c r="H129">
+        <v>300</v>
+      </c>
+      <c r="I129" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A130" s="1">
+        <v>129</v>
+      </c>
+      <c r="B130" s="1">
+        <v>6</v>
+      </c>
+      <c r="C130" s="1">
+        <v>13</v>
+      </c>
+      <c r="D130">
+        <v>1</v>
+      </c>
+      <c r="E130" t="s">
+        <v>15</v>
+      </c>
+      <c r="F130" t="s">
+        <v>10</v>
+      </c>
+      <c r="G130" t="s">
+        <v>11</v>
+      </c>
+      <c r="H130">
+        <v>300</v>
+      </c>
+      <c r="I130" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A131" s="1">
+        <v>130</v>
+      </c>
+      <c r="B131" s="1">
+        <v>6</v>
+      </c>
+      <c r="C131" s="1">
+        <v>14</v>
+      </c>
+      <c r="D131">
+        <v>1</v>
+      </c>
+      <c r="E131" t="s">
+        <v>16</v>
+      </c>
+      <c r="F131" t="s">
+        <v>10</v>
+      </c>
+      <c r="G131" t="s">
+        <v>11</v>
+      </c>
+      <c r="H131">
+        <v>300</v>
+      </c>
+      <c r="I131" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A132" s="1">
+        <v>131</v>
+      </c>
+      <c r="B132" s="1">
+        <v>6</v>
+      </c>
+      <c r="C132" s="1">
+        <v>15</v>
+      </c>
+      <c r="D132">
+        <v>1</v>
+      </c>
+      <c r="E132" t="s">
+        <v>16</v>
+      </c>
+      <c r="F132" t="s">
+        <v>10</v>
+      </c>
+      <c r="G132" t="s">
+        <v>11</v>
+      </c>
+      <c r="H132">
+        <v>300</v>
+      </c>
+      <c r="I132" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A133" s="1">
+        <v>132</v>
+      </c>
+      <c r="B133" s="1">
+        <v>6</v>
+      </c>
+      <c r="C133" s="1">
+        <v>15.5</v>
+      </c>
+      <c r="D133">
+        <v>1</v>
+      </c>
+      <c r="E133" t="s">
+        <v>15</v>
+      </c>
+      <c r="F133" t="s">
+        <v>10</v>
+      </c>
+      <c r="G133" t="s">
+        <v>11</v>
+      </c>
+      <c r="H133">
+        <v>300</v>
+      </c>
+      <c r="I133" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A134" s="1">
+        <v>133</v>
+      </c>
+      <c r="B134" s="1">
+        <v>6</v>
+      </c>
+      <c r="C134" s="1">
+        <v>16</v>
+      </c>
+      <c r="D134">
+        <v>1</v>
+      </c>
+      <c r="E134" t="s">
+        <v>9</v>
+      </c>
+      <c r="F134" t="s">
+        <v>10</v>
+      </c>
+      <c r="G134" t="s">
+        <v>11</v>
+      </c>
+      <c r="H134">
+        <v>300</v>
+      </c>
+      <c r="I134" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A135" s="1">
+        <v>134</v>
+      </c>
+      <c r="B135" s="1">
+        <v>6</v>
+      </c>
+      <c r="C135" s="1">
+        <v>17</v>
+      </c>
+      <c r="D135">
+        <v>1</v>
+      </c>
+      <c r="E135" t="s">
+        <v>15</v>
+      </c>
+      <c r="F135" t="s">
+        <v>10</v>
+      </c>
+      <c r="G135" t="s">
+        <v>11</v>
+      </c>
+      <c r="H135">
+        <v>300</v>
+      </c>
+      <c r="I135" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A136" s="1">
+        <v>135</v>
+      </c>
+      <c r="B136" s="1">
+        <v>6</v>
+      </c>
+      <c r="C136" s="1">
+        <v>17.5</v>
+      </c>
+      <c r="D136">
+        <v>1</v>
+      </c>
+      <c r="E136" t="s">
+        <v>9</v>
+      </c>
+      <c r="F136" t="s">
+        <v>10</v>
+      </c>
+      <c r="G136" t="s">
+        <v>11</v>
+      </c>
+      <c r="H136">
+        <v>300</v>
+      </c>
+      <c r="I136" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A137" s="1">
+        <v>136</v>
+      </c>
+      <c r="B137" s="1">
+        <v>6</v>
+      </c>
+      <c r="C137" s="1">
+        <v>18</v>
+      </c>
+      <c r="D137">
+        <v>1</v>
+      </c>
+      <c r="E137" t="s">
+        <v>9</v>
+      </c>
+      <c r="F137" t="s">
+        <v>10</v>
+      </c>
+      <c r="G137" t="s">
+        <v>11</v>
+      </c>
+      <c r="H137">
+        <v>300</v>
+      </c>
+      <c r="I137" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A138" s="1">
+        <v>137</v>
+      </c>
+      <c r="B138" s="1">
+        <v>6</v>
+      </c>
+      <c r="C138" s="1">
+        <v>19</v>
+      </c>
+      <c r="D138">
+        <v>1</v>
+      </c>
+      <c r="E138" t="s">
+        <v>15</v>
+      </c>
+      <c r="F138" t="s">
+        <v>10</v>
+      </c>
+      <c r="G138" t="s">
+        <v>11</v>
+      </c>
+      <c r="H138">
+        <v>300</v>
+      </c>
+      <c r="I138" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A139" s="1">
+        <v>138</v>
+      </c>
+      <c r="B139" s="1">
+        <v>6</v>
+      </c>
+      <c r="C139" s="1">
         <v>20</v>
       </c>
-      <c r="D98">
-        <v>1</v>
-      </c>
-      <c r="E98" t="s">
+      <c r="D139">
+        <v>1</v>
+      </c>
+      <c r="E139" t="s">
         <v>16</v>
       </c>
-      <c r="F98" t="s">
-        <v>10</v>
-      </c>
-      <c r="G98" t="s">
-        <v>11</v>
-      </c>
-      <c r="H98">
+      <c r="F139" t="s">
+        <v>10</v>
+      </c>
+      <c r="G139" t="s">
+        <v>11</v>
+      </c>
+      <c r="H139">
         <v>300</v>
       </c>
-      <c r="I98" t="s">
+      <c r="I139" t="s">
         <v>25</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C140">
+        <v>1</v>
+      </c>
+      <c r="D140">
+        <v>2</v>
+      </c>
+      <c r="E140" t="s">
+        <v>21</v>
+      </c>
+      <c r="F140" t="s">
+        <v>22</v>
+      </c>
+      <c r="G140" t="s">
+        <v>14</v>
+      </c>
+      <c r="H140">
+        <v>1000</v>
+      </c>
+      <c r="I140" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C141">
+        <v>4</v>
+      </c>
+      <c r="D141">
+        <v>2</v>
+      </c>
+      <c r="E141" t="s">
+        <v>12</v>
+      </c>
+      <c r="F141" t="s">
+        <v>13</v>
+      </c>
+      <c r="G141" t="s">
+        <v>14</v>
+      </c>
+      <c r="H141">
+        <v>1200</v>
+      </c>
+      <c r="I141" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C142">
+        <v>7</v>
+      </c>
+      <c r="D142">
+        <v>2</v>
+      </c>
+      <c r="E142" t="s">
+        <v>21</v>
+      </c>
+      <c r="F142" t="s">
+        <v>22</v>
+      </c>
+      <c r="G142" t="s">
+        <v>14</v>
+      </c>
+      <c r="H142">
+        <v>1200</v>
+      </c>
+      <c r="I142" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C143">
+        <v>10</v>
+      </c>
+      <c r="D143">
+        <v>2</v>
+      </c>
+      <c r="E143" t="s">
+        <v>37</v>
+      </c>
+      <c r="F143" t="s">
+        <v>13</v>
+      </c>
+      <c r="G143" t="s">
+        <v>14</v>
+      </c>
+      <c r="H143">
+        <v>1100</v>
+      </c>
+      <c r="I143" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C144">
+        <v>13</v>
+      </c>
+      <c r="D144">
+        <v>2</v>
+      </c>
+      <c r="E144" t="s">
+        <v>37</v>
+      </c>
+      <c r="F144" t="s">
+        <v>13</v>
+      </c>
+      <c r="G144" t="s">
+        <v>14</v>
+      </c>
+      <c r="H144">
+        <v>1100</v>
+      </c>
+      <c r="I144" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="145" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C145">
+        <v>16</v>
+      </c>
+      <c r="D145">
+        <v>2</v>
+      </c>
+      <c r="E145" t="s">
+        <v>47</v>
+      </c>
+      <c r="F145" t="s">
+        <v>22</v>
+      </c>
+      <c r="G145" t="s">
+        <v>46</v>
+      </c>
+      <c r="H145">
+        <v>1000</v>
+      </c>
+      <c r="I145" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="146" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C146">
+        <v>19</v>
+      </c>
+      <c r="D146">
+        <v>2</v>
+      </c>
+      <c r="E146" t="s">
+        <v>48</v>
+      </c>
+      <c r="F146" t="s">
+        <v>13</v>
+      </c>
+      <c r="G146" t="s">
+        <v>46</v>
+      </c>
+      <c r="H146">
+        <v>1200</v>
+      </c>
+      <c r="I146" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="147" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C147">
+        <v>22</v>
+      </c>
+      <c r="D147">
+        <v>2</v>
+      </c>
+      <c r="E147" t="s">
+        <v>47</v>
+      </c>
+      <c r="F147" t="s">
+        <v>22</v>
+      </c>
+      <c r="G147" t="s">
+        <v>46</v>
+      </c>
+      <c r="H147">
+        <v>1200</v>
+      </c>
+      <c r="I147" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="148" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C148">
+        <v>25</v>
+      </c>
+      <c r="D148">
+        <v>2</v>
+      </c>
+      <c r="E148" t="s">
+        <v>49</v>
+      </c>
+      <c r="F148" t="s">
+        <v>13</v>
+      </c>
+      <c r="G148" t="s">
+        <v>46</v>
+      </c>
+      <c r="H148">
+        <v>1100</v>
+      </c>
+      <c r="I148" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="149" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C149">
+        <v>28</v>
+      </c>
+      <c r="D149">
+        <v>2</v>
+      </c>
+      <c r="E149" t="s">
+        <v>49</v>
+      </c>
+      <c r="F149" t="s">
+        <v>13</v>
+      </c>
+      <c r="G149" t="s">
+        <v>46</v>
+      </c>
+      <c r="H149">
+        <v>1100</v>
+      </c>
+      <c r="I149" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="150" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C150">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -3385,12 +6556,577 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3067619-C168-4BE6-8476-EADCCE6CADAE}">
+  <dimension ref="A1:I7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2">
+        <v>200</v>
+      </c>
+      <c r="I2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H3">
+        <v>200</v>
+      </c>
+      <c r="I3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H4">
+        <v>200</v>
+      </c>
+      <c r="I4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1">
+        <v>1</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H5">
+        <v>200</v>
+      </c>
+      <c r="I5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1">
+        <v>1</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H6">
+        <v>200</v>
+      </c>
+      <c r="I6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1">
+        <v>1</v>
+      </c>
+      <c r="C7" s="1">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7" t="s">
+        <v>29</v>
+      </c>
+      <c r="F7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H7">
+        <v>200</v>
+      </c>
+      <c r="I7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{090FE189-214F-4CE5-ACED-2D83ACE2C234}">
+  <dimension ref="A1:I11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:I1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="48.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>2</v>
+      </c>
+      <c r="E2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2">
+        <v>1000</v>
+      </c>
+      <c r="I2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3">
+        <v>600</v>
+      </c>
+      <c r="I3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4">
+        <v>2</v>
+      </c>
+      <c r="E4" t="s">
+        <v>47</v>
+      </c>
+      <c r="F4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4">
+        <v>1000</v>
+      </c>
+      <c r="I4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>2.5</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H5">
+        <v>400</v>
+      </c>
+      <c r="I5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>3</v>
+      </c>
+      <c r="D6">
+        <v>2</v>
+      </c>
+      <c r="E6" t="s">
+        <v>48</v>
+      </c>
+      <c r="F6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6">
+        <v>1200</v>
+      </c>
+      <c r="I6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>3.5</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H7">
+        <v>400</v>
+      </c>
+      <c r="I7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>4</v>
+      </c>
+      <c r="D8">
+        <v>2</v>
+      </c>
+      <c r="E8" t="s">
+        <v>47</v>
+      </c>
+      <c r="F8" t="s">
+        <v>22</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8">
+        <v>1200</v>
+      </c>
+      <c r="I8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>4.5</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9" t="s">
+        <v>17</v>
+      </c>
+      <c r="F9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G9" t="s">
+        <v>19</v>
+      </c>
+      <c r="H9">
+        <v>100</v>
+      </c>
+      <c r="I9" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>5</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10" t="s">
+        <v>17</v>
+      </c>
+      <c r="F10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G10" t="s">
+        <v>19</v>
+      </c>
+      <c r="H10">
+        <v>200</v>
+      </c>
+      <c r="I10" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11">
+        <v>5.5</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11" t="s">
+        <v>17</v>
+      </c>
+      <c r="F11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G11" t="s">
+        <v>19</v>
+      </c>
+      <c r="H11">
+        <v>300</v>
+      </c>
+      <c r="I11" t="s">
+        <v>50</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FFCFF3D-1C7C-4DE3-946B-A03B4AB46579}">
   <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:I1"/>
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3604,12 +7340,358 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E17B64C6-D5AA-4512-A59C-D18B6E1544BE}">
+  <dimension ref="A1:I11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I11" sqref="D2:I11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="48.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>2</v>
+      </c>
+      <c r="E2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2">
+        <v>1000</v>
+      </c>
+      <c r="I2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>3</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3">
+        <v>1200</v>
+      </c>
+      <c r="I3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>5</v>
+      </c>
+      <c r="D4">
+        <v>2</v>
+      </c>
+      <c r="E4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H4">
+        <v>1200</v>
+      </c>
+      <c r="I4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>7</v>
+      </c>
+      <c r="D5">
+        <v>2</v>
+      </c>
+      <c r="E5" t="s">
+        <v>37</v>
+      </c>
+      <c r="F5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H5">
+        <v>1100</v>
+      </c>
+      <c r="I5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>9</v>
+      </c>
+      <c r="D6">
+        <v>2</v>
+      </c>
+      <c r="E6" t="s">
+        <v>37</v>
+      </c>
+      <c r="F6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H6">
+        <v>1100</v>
+      </c>
+      <c r="I6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>11</v>
+      </c>
+      <c r="D7">
+        <v>2</v>
+      </c>
+      <c r="E7" t="s">
+        <v>47</v>
+      </c>
+      <c r="F7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7">
+        <v>1000</v>
+      </c>
+      <c r="I7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>13</v>
+      </c>
+      <c r="D8">
+        <v>2</v>
+      </c>
+      <c r="E8" t="s">
+        <v>48</v>
+      </c>
+      <c r="F8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8">
+        <v>1200</v>
+      </c>
+      <c r="I8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>15</v>
+      </c>
+      <c r="D9">
+        <v>2</v>
+      </c>
+      <c r="E9" t="s">
+        <v>47</v>
+      </c>
+      <c r="F9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9">
+        <v>1200</v>
+      </c>
+      <c r="I9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>17</v>
+      </c>
+      <c r="D10">
+        <v>2</v>
+      </c>
+      <c r="E10" t="s">
+        <v>49</v>
+      </c>
+      <c r="F10" t="s">
+        <v>13</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10">
+        <v>1100</v>
+      </c>
+      <c r="I10" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11">
+        <v>19</v>
+      </c>
+      <c r="D11">
+        <v>2</v>
+      </c>
+      <c r="E11" t="s">
+        <v>49</v>
+      </c>
+      <c r="F11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11">
+        <v>1100</v>
+      </c>
+      <c r="I11" t="s">
+        <v>45</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{090108C3-5E9E-45F5-88A8-0431F8412338}">
   <dimension ref="A1:I56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7:I7"/>
+      <selection activeCell="D8" sqref="D8:I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/StageData.xlsx
+++ b/StageData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Documents\Unreal Projects\petitcon21\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41D77E75-FC33-46D7-B5CC-4FC499D1624C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6BCB4B0-A7CA-4ABD-952E-DA3A152A57D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32250" yWindow="675" windowWidth="19395" windowHeight="14745" activeTab="1" xr2:uid="{2A5FB008-7706-4DC0-AC1A-842182642272}"/>
+    <workbookView xWindow="34110" yWindow="585" windowWidth="19395" windowHeight="14745" activeTab="1" xr2:uid="{2A5FB008-7706-4DC0-AC1A-842182642272}"/>
   </bookViews>
   <sheets>
     <sheet name="作業中" sheetId="6" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1203" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1287" uniqueCount="52">
   <si>
     <t>Row Name</t>
   </si>
@@ -185,6 +185,9 @@
   <si>
     <t xml:space="preserve">左中段 </t>
   </si>
+  <si>
+    <t>左下段 普通</t>
+  </si>
 </sst>
 </file>
 
@@ -199,7 +202,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -224,6 +227,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0070C0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -237,11 +246,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -556,23 +566,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8CFAFC9-EAF1-40E4-8D59-0C784DC2BCCB}">
-  <dimension ref="A1:I58"/>
+  <dimension ref="A1:I56"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18:I58"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="23" topLeftCell="A39" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B24" sqref="B24:I56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="48.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -614,22 +625,22 @@
       <c r="C2" s="1">
         <v>0</v>
       </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="D2" s="4">
+        <v>1</v>
+      </c>
+      <c r="E2" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="F2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H2">
-        <v>200</v>
-      </c>
-      <c r="I2" t="s">
+      <c r="F2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" s="4">
+        <v>200</v>
+      </c>
+      <c r="I2" s="4" t="s">
         <v>32</v>
       </c>
     </row>
@@ -643,22 +654,22 @@
       <c r="C3" s="1">
         <v>0</v>
       </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="D3" s="4">
+        <v>1</v>
+      </c>
+      <c r="E3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H3">
-        <v>200</v>
-      </c>
-      <c r="I3" t="s">
+      <c r="F3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H3" s="4">
+        <v>200</v>
+      </c>
+      <c r="I3" s="4" t="s">
         <v>24</v>
       </c>
     </row>
@@ -672,22 +683,22 @@
       <c r="C4" s="1">
         <v>0</v>
       </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-      <c r="E4" t="s">
+      <c r="D4" s="4">
+        <v>1</v>
+      </c>
+      <c r="E4" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="F4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G4" t="s">
-        <v>11</v>
-      </c>
-      <c r="H4">
-        <v>200</v>
-      </c>
-      <c r="I4" t="s">
+      <c r="F4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H4" s="4">
+        <v>200</v>
+      </c>
+      <c r="I4" s="4" t="s">
         <v>33</v>
       </c>
     </row>
@@ -701,22 +712,22 @@
       <c r="C5" s="1">
         <v>0</v>
       </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
-      <c r="E5" t="s">
+      <c r="D5" s="4">
+        <v>1</v>
+      </c>
+      <c r="E5" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="F5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G5" t="s">
-        <v>19</v>
-      </c>
-      <c r="H5">
-        <v>200</v>
-      </c>
-      <c r="I5" t="s">
+      <c r="F5" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H5" s="4">
+        <v>200</v>
+      </c>
+      <c r="I5" s="4" t="s">
         <v>40</v>
       </c>
     </row>
@@ -730,22 +741,22 @@
       <c r="C6" s="1">
         <v>0</v>
       </c>
-      <c r="D6">
-        <v>1</v>
-      </c>
-      <c r="E6" t="s">
+      <c r="D6" s="4">
+        <v>1</v>
+      </c>
+      <c r="E6" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="F6" t="s">
-        <v>18</v>
-      </c>
-      <c r="G6" t="s">
-        <v>19</v>
-      </c>
-      <c r="H6">
-        <v>200</v>
-      </c>
-      <c r="I6" t="s">
+      <c r="F6" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H6" s="4">
+        <v>200</v>
+      </c>
+      <c r="I6" s="4" t="s">
         <v>39</v>
       </c>
     </row>
@@ -759,22 +770,22 @@
       <c r="C7" s="1">
         <v>0</v>
       </c>
-      <c r="D7">
-        <v>1</v>
-      </c>
-      <c r="E7" t="s">
+      <c r="D7" s="4">
+        <v>1</v>
+      </c>
+      <c r="E7" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="F7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H7">
-        <v>200</v>
-      </c>
-      <c r="I7" t="s">
+      <c r="F7" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H7" s="4">
+        <v>200</v>
+      </c>
+      <c r="I7" s="4" t="s">
         <v>30</v>
       </c>
     </row>
@@ -789,22 +800,22 @@
         <v>0</v>
       </c>
       <c r="D8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E8" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="F8" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G8" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="H8">
-        <v>1000</v>
+        <v>300</v>
       </c>
       <c r="I8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -818,22 +829,22 @@
         <v>0</v>
       </c>
       <c r="D9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E9" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F9" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G9" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="H9">
-        <v>1200</v>
+        <v>300</v>
       </c>
       <c r="I9" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -847,22 +858,22 @@
         <v>0</v>
       </c>
       <c r="D10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E10" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="F10" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G10" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="H10">
-        <v>1200</v>
+        <v>300</v>
       </c>
       <c r="I10" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -876,22 +887,22 @@
         <v>0</v>
       </c>
       <c r="D11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E11" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="F11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="G11" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="H11">
-        <v>1100</v>
+        <v>300</v>
       </c>
       <c r="I11" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
@@ -905,22 +916,22 @@
         <v>0</v>
       </c>
       <c r="D12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E12" t="s">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="F12" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="G12" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="H12">
-        <v>1100</v>
+        <v>300</v>
       </c>
       <c r="I12" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
@@ -934,22 +945,22 @@
         <v>0</v>
       </c>
       <c r="D13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E13" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="F13" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="G13" t="s">
-        <v>46</v>
+        <v>19</v>
       </c>
       <c r="H13">
-        <v>1000</v>
+        <v>300</v>
       </c>
       <c r="I13" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
@@ -966,19 +977,19 @@
         <v>2</v>
       </c>
       <c r="E14" t="s">
-        <v>48</v>
+        <v>21</v>
       </c>
       <c r="F14" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="G14" t="s">
-        <v>46</v>
+        <v>14</v>
       </c>
       <c r="H14">
-        <v>1200</v>
+        <v>1000</v>
       </c>
       <c r="I14" t="s">
-        <v>43</v>
+        <v>23</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
@@ -995,19 +1006,19 @@
         <v>2</v>
       </c>
       <c r="E15" t="s">
-        <v>47</v>
+        <v>12</v>
       </c>
       <c r="F15" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="G15" t="s">
-        <v>46</v>
+        <v>14</v>
       </c>
       <c r="H15">
         <v>1200</v>
       </c>
       <c r="I15" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
@@ -1024,19 +1035,19 @@
         <v>2</v>
       </c>
       <c r="E16" t="s">
-        <v>49</v>
+        <v>21</v>
       </c>
       <c r="F16" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="G16" t="s">
-        <v>46</v>
+        <v>14</v>
       </c>
       <c r="H16">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="I16" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
@@ -1053,19 +1064,19 @@
         <v>2</v>
       </c>
       <c r="E17" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="F17" t="s">
         <v>13</v>
       </c>
       <c r="G17" t="s">
-        <v>46</v>
+        <v>14</v>
       </c>
       <c r="H17">
         <v>1100</v>
       </c>
       <c r="I17" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
@@ -1073,28 +1084,28 @@
         <v>17</v>
       </c>
       <c r="B18" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C18" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D18">
         <v>2</v>
       </c>
       <c r="E18" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="F18" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="G18" t="s">
         <v>14</v>
       </c>
       <c r="H18">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="I18" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
@@ -1102,10 +1113,10 @@
         <v>18</v>
       </c>
       <c r="B19" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C19" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D19">
         <v>2</v>
@@ -1131,28 +1142,28 @@
         <v>19</v>
       </c>
       <c r="B20" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C20" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E20" t="s">
-        <v>16</v>
+        <v>48</v>
       </c>
       <c r="F20" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G20" t="s">
-        <v>11</v>
+        <v>46</v>
       </c>
       <c r="H20">
-        <v>200</v>
+        <v>1200</v>
       </c>
       <c r="I20" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
@@ -1160,28 +1171,28 @@
         <v>20</v>
       </c>
       <c r="B21" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C21" s="1">
-        <v>3.5</v>
+        <v>0</v>
       </c>
       <c r="D21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E21" t="s">
-        <v>15</v>
+        <v>47</v>
       </c>
       <c r="F21" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G21" t="s">
-        <v>11</v>
+        <v>46</v>
       </c>
       <c r="H21">
-        <v>200</v>
+        <v>1200</v>
       </c>
       <c r="I21" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
@@ -1189,28 +1200,28 @@
         <v>21</v>
       </c>
       <c r="B22" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C22" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E22" t="s">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="F22" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="G22" t="s">
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="H22">
-        <v>200</v>
+        <v>1100</v>
       </c>
       <c r="I22" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
@@ -1218,28 +1229,28 @@
         <v>22</v>
       </c>
       <c r="B23" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C23" s="1">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D23">
         <v>2</v>
       </c>
       <c r="E23" t="s">
-        <v>21</v>
+        <v>49</v>
       </c>
       <c r="F23" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="G23" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="H23">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="I23" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
@@ -1247,28 +1258,28 @@
         <v>23</v>
       </c>
       <c r="B24" s="1">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C24" s="1">
-        <v>6.5</v>
+        <v>1</v>
       </c>
       <c r="D24">
         <v>1</v>
       </c>
       <c r="E24" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F24" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G24" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="H24">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="I24" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
@@ -1276,28 +1287,28 @@
         <v>24</v>
       </c>
       <c r="B25" s="1">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C25" s="1">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E25" t="s">
-        <v>37</v>
+        <v>9</v>
       </c>
       <c r="F25" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G25" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="H25">
-        <v>1100</v>
+        <v>300</v>
       </c>
       <c r="I25" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
@@ -1305,16 +1316,16 @@
         <v>25</v>
       </c>
       <c r="B26" s="1">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C26" s="1">
-        <v>9</v>
+        <v>2.5</v>
       </c>
       <c r="D26">
         <v>1</v>
       </c>
       <c r="E26" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F26" t="s">
         <v>10</v>
@@ -1323,10 +1334,10 @@
         <v>11</v>
       </c>
       <c r="H26">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="I26" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
@@ -1334,28 +1345,28 @@
         <v>26</v>
       </c>
       <c r="B27" s="1">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C27" s="1">
-        <v>9.5</v>
+        <v>3</v>
       </c>
       <c r="D27">
         <v>1</v>
       </c>
       <c r="E27" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="F27" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G27" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="H27">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="I27" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
@@ -1363,16 +1374,16 @@
         <v>27</v>
       </c>
       <c r="B28" s="1">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C28" s="1">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D28">
         <v>1</v>
       </c>
       <c r="E28" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F28" t="s">
         <v>18</v>
@@ -1381,10 +1392,10 @@
         <v>19</v>
       </c>
       <c r="H28">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="I28" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
@@ -1392,28 +1403,28 @@
         <v>28</v>
       </c>
       <c r="B29" s="1">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C29" s="1">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D29">
         <v>1</v>
       </c>
       <c r="E29" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="F29" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G29" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="H29">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="I29" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
@@ -1421,28 +1432,28 @@
         <v>29</v>
       </c>
       <c r="B30" s="1">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C30" s="1">
-        <v>11</v>
+        <v>6.5</v>
       </c>
       <c r="D30">
         <v>1</v>
       </c>
       <c r="E30" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="F30" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G30" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="H30">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="I30" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
@@ -1450,10 +1461,10 @@
         <v>30</v>
       </c>
       <c r="B31" s="1">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C31" s="1">
-        <v>11.5</v>
+        <v>7</v>
       </c>
       <c r="D31">
         <v>1</v>
@@ -1468,114 +1479,114 @@
         <v>19</v>
       </c>
       <c r="H31">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="I31" t="s">
-        <v>30</v>
+        <v>51</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B32" s="1">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C32" s="1">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E32" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="F32" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="G32" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="H32">
-        <v>200</v>
+        <v>1000</v>
       </c>
       <c r="I32" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B33" s="1">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C33" s="1">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="D33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E33" t="s">
-        <v>9</v>
+        <v>47</v>
       </c>
       <c r="F33" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G33" t="s">
-        <v>11</v>
+        <v>46</v>
       </c>
       <c r="H33">
-        <v>200</v>
+        <v>1200</v>
       </c>
       <c r="I33" t="s">
-        <v>24</v>
+        <v>44</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B34" s="1">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C34" s="1">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D34">
         <v>1</v>
       </c>
       <c r="E34" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="F34" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G34" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="H34">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="I34" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B35" s="1">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C35" s="1">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D35">
         <v>1</v>
       </c>
       <c r="E35" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F35" t="s">
         <v>18</v>
@@ -1584,50 +1595,50 @@
         <v>19</v>
       </c>
       <c r="H35">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="I35" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B36" s="1">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C36" s="1">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D36">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E36" t="s">
-        <v>49</v>
+        <v>20</v>
       </c>
       <c r="F36" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="G36" t="s">
-        <v>46</v>
+        <v>19</v>
       </c>
       <c r="H36">
-        <v>1100</v>
+        <v>300</v>
       </c>
       <c r="I36" t="s">
-        <v>45</v>
+        <v>28</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B37" s="1">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C37" s="1">
-        <v>19.5</v>
+        <v>14.5</v>
       </c>
       <c r="D37">
         <v>1</v>
@@ -1642,192 +1653,192 @@
         <v>11</v>
       </c>
       <c r="H37">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="I37" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B38" s="1">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C38" s="1">
+        <v>15</v>
+      </c>
+      <c r="D38">
+        <v>1</v>
+      </c>
+      <c r="E38" t="s">
         <v>20</v>
       </c>
-      <c r="D38">
-        <v>1</v>
-      </c>
-      <c r="E38" t="s">
-        <v>15</v>
-      </c>
       <c r="F38" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G38" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="H38">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="I38" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B39" s="1">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C39" s="1">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D39">
         <v>1</v>
       </c>
       <c r="E39" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="F39" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G39" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="H39">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="I39" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B40" s="1">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C40" s="1">
-        <v>21.5</v>
+        <v>18</v>
       </c>
       <c r="D40">
         <v>1</v>
       </c>
       <c r="E40" t="s">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="F40" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G40" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="H40">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="I40" t="s">
-        <v>24</v>
+        <v>51</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B41" s="1">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C41" s="1">
-        <v>21.5</v>
+        <v>19</v>
       </c>
       <c r="D41">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E41" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="F41" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="G41" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="H41">
-        <v>200</v>
+        <v>1200</v>
       </c>
       <c r="I41" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B42" s="1">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C42" s="1">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D42">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E42" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="F42" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="G42" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="H42">
-        <v>1200</v>
+        <v>300</v>
       </c>
       <c r="I42" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B43" s="1">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C43" s="1">
-        <v>22.5</v>
+        <v>20.5</v>
       </c>
       <c r="D43">
         <v>1</v>
       </c>
       <c r="E43" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F43" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G43" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="H43">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="I43" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B44" s="1">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C44" s="1">
         <v>23</v>
@@ -1836,27 +1847,27 @@
         <v>1</v>
       </c>
       <c r="E44" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="F44" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G44" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="H44">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="I44" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B45" s="1">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C45" s="1">
         <v>24</v>
@@ -1865,56 +1876,56 @@
         <v>1</v>
       </c>
       <c r="E45" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="F45" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G45" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="H45">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="I45" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B46" s="1">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C46" s="1">
         <v>25</v>
       </c>
       <c r="D46">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E46" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="F46" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G46" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="H46">
-        <v>1000</v>
+        <v>300</v>
       </c>
       <c r="I46" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B47" s="1">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C47" s="1">
         <v>26</v>
@@ -1923,7 +1934,7 @@
         <v>1</v>
       </c>
       <c r="E47" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="F47" t="s">
         <v>10</v>
@@ -1932,47 +1943,47 @@
         <v>11</v>
       </c>
       <c r="H47">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="I47" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B48" s="1">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C48" s="1">
         <v>27</v>
       </c>
       <c r="D48">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E48" t="s">
-        <v>17</v>
+        <v>49</v>
       </c>
       <c r="F48" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="G48" t="s">
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="H48">
-        <v>200</v>
+        <v>1100</v>
       </c>
       <c r="I48" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B49" s="1">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C49" s="1">
         <v>27.5</v>
@@ -1981,7 +1992,7 @@
         <v>1</v>
       </c>
       <c r="E49" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="F49" t="s">
         <v>18</v>
@@ -1990,18 +2001,18 @@
         <v>19</v>
       </c>
       <c r="H49">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="I49" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B50" s="1">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C50" s="1">
         <v>28</v>
@@ -2010,85 +2021,85 @@
         <v>1</v>
       </c>
       <c r="E50" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="F50" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G50" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="H50">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="I50" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B51" s="1">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C51" s="1">
         <v>29</v>
       </c>
       <c r="D51">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E51" t="s">
-        <v>49</v>
+        <v>17</v>
       </c>
       <c r="F51" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="G51" t="s">
-        <v>46</v>
+        <v>19</v>
       </c>
       <c r="H51">
-        <v>1100</v>
+        <v>300</v>
       </c>
       <c r="I51" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B52" s="1">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C52" s="1">
         <v>30</v>
       </c>
       <c r="D52">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E52" t="s">
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="F52" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="G52" t="s">
-        <v>46</v>
+        <v>19</v>
       </c>
       <c r="H52">
-        <v>1100</v>
+        <v>300</v>
       </c>
       <c r="I52" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B53" s="1">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C53" s="1">
         <v>31</v>
@@ -2114,48 +2125,48 @@
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B54" s="1">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C54" s="1">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D54">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E54" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="F54" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G54" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="H54">
-        <v>200</v>
+        <v>1100</v>
       </c>
       <c r="I54" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B55" s="1">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C55" s="1">
-        <v>34.5</v>
+        <v>33</v>
       </c>
       <c r="D55">
         <v>1</v>
       </c>
       <c r="E55" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F55" t="s">
         <v>10</v>
@@ -2164,97 +2175,39 @@
         <v>11</v>
       </c>
       <c r="H55">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="I55" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B56" s="1">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C56" s="1">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D56">
         <v>1</v>
       </c>
       <c r="E56" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="F56" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G56" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="H56">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="I56" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A57" s="1">
-        <v>59</v>
-      </c>
-      <c r="B57" s="1">
-        <v>1</v>
-      </c>
-      <c r="C57" s="1">
-        <v>35</v>
-      </c>
-      <c r="D57">
-        <v>1</v>
-      </c>
-      <c r="E57" t="s">
-        <v>15</v>
-      </c>
-      <c r="F57" t="s">
-        <v>10</v>
-      </c>
-      <c r="G57" t="s">
-        <v>11</v>
-      </c>
-      <c r="H57">
-        <v>200</v>
-      </c>
-      <c r="I57" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A58" s="1">
-        <v>60</v>
-      </c>
-      <c r="B58" s="1">
-        <v>1</v>
-      </c>
-      <c r="C58" s="1">
-        <v>35.5</v>
-      </c>
-      <c r="D58">
-        <v>1</v>
-      </c>
-      <c r="E58" t="s">
-        <v>16</v>
-      </c>
-      <c r="F58" t="s">
-        <v>10</v>
-      </c>
-      <c r="G58" t="s">
-        <v>11</v>
-      </c>
-      <c r="H58">
-        <v>200</v>
-      </c>
-      <c r="I58" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -2265,11 +2218,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEBD7694-9D46-44B3-81F9-AE3C7A3C321F}">
-  <dimension ref="A1:I150"/>
+  <dimension ref="A1:I172"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A112" workbookViewId="0">
-      <selection activeCell="C141" sqref="C141"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -6316,238 +6267,960 @@
       </c>
     </row>
     <row r="140" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C140">
+      <c r="A140" s="1">
+        <v>139</v>
+      </c>
+      <c r="B140" s="1">
+        <v>7</v>
+      </c>
+      <c r="C140" s="1">
         <v>1</v>
       </c>
       <c r="D140">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E140" t="s">
+        <v>16</v>
+      </c>
+      <c r="F140" t="s">
+        <v>10</v>
+      </c>
+      <c r="G140" t="s">
+        <v>11</v>
+      </c>
+      <c r="H140">
+        <v>300</v>
+      </c>
+      <c r="I140" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A141" s="1">
+        <v>140</v>
+      </c>
+      <c r="B141" s="1">
+        <v>7</v>
+      </c>
+      <c r="C141" s="1">
+        <v>2</v>
+      </c>
+      <c r="D141">
+        <v>1</v>
+      </c>
+      <c r="E141" t="s">
+        <v>9</v>
+      </c>
+      <c r="F141" t="s">
+        <v>10</v>
+      </c>
+      <c r="G141" t="s">
+        <v>11</v>
+      </c>
+      <c r="H141">
+        <v>300</v>
+      </c>
+      <c r="I141" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A142" s="1">
+        <v>141</v>
+      </c>
+      <c r="B142" s="1">
+        <v>7</v>
+      </c>
+      <c r="C142" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="D142">
+        <v>1</v>
+      </c>
+      <c r="E142" t="s">
+        <v>16</v>
+      </c>
+      <c r="F142" t="s">
+        <v>10</v>
+      </c>
+      <c r="G142" t="s">
+        <v>11</v>
+      </c>
+      <c r="H142">
+        <v>300</v>
+      </c>
+      <c r="I142" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A143" s="1">
+        <v>142</v>
+      </c>
+      <c r="B143" s="1">
+        <v>7</v>
+      </c>
+      <c r="C143" s="1">
+        <v>3</v>
+      </c>
+      <c r="D143">
+        <v>1</v>
+      </c>
+      <c r="E143" t="s">
+        <v>15</v>
+      </c>
+      <c r="F143" t="s">
+        <v>10</v>
+      </c>
+      <c r="G143" t="s">
+        <v>11</v>
+      </c>
+      <c r="H143">
+        <v>300</v>
+      </c>
+      <c r="I143" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A144" s="1">
+        <v>143</v>
+      </c>
+      <c r="B144" s="1">
+        <v>7</v>
+      </c>
+      <c r="C144" s="1">
+        <v>5</v>
+      </c>
+      <c r="D144">
+        <v>1</v>
+      </c>
+      <c r="E144" t="s">
+        <v>20</v>
+      </c>
+      <c r="F144" t="s">
+        <v>18</v>
+      </c>
+      <c r="G144" t="s">
+        <v>19</v>
+      </c>
+      <c r="H144">
+        <v>300</v>
+      </c>
+      <c r="I144" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A145" s="1">
+        <v>144</v>
+      </c>
+      <c r="B145" s="1">
+        <v>7</v>
+      </c>
+      <c r="C145" s="1">
+        <v>6</v>
+      </c>
+      <c r="D145">
+        <v>1</v>
+      </c>
+      <c r="E145" t="s">
+        <v>17</v>
+      </c>
+      <c r="F145" t="s">
+        <v>18</v>
+      </c>
+      <c r="G145" t="s">
+        <v>19</v>
+      </c>
+      <c r="H145">
+        <v>300</v>
+      </c>
+      <c r="I145" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A146" s="1">
+        <v>145</v>
+      </c>
+      <c r="B146" s="1">
+        <v>7</v>
+      </c>
+      <c r="C146" s="1">
+        <v>6.5</v>
+      </c>
+      <c r="D146">
+        <v>1</v>
+      </c>
+      <c r="E146" t="s">
+        <v>20</v>
+      </c>
+      <c r="F146" t="s">
+        <v>18</v>
+      </c>
+      <c r="G146" t="s">
+        <v>19</v>
+      </c>
+      <c r="H146">
+        <v>300</v>
+      </c>
+      <c r="I146" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A147" s="1">
+        <v>146</v>
+      </c>
+      <c r="B147" s="1">
+        <v>7</v>
+      </c>
+      <c r="C147" s="1">
+        <v>7</v>
+      </c>
+      <c r="D147">
+        <v>1</v>
+      </c>
+      <c r="E147" t="s">
+        <v>29</v>
+      </c>
+      <c r="F147" t="s">
+        <v>18</v>
+      </c>
+      <c r="G147" t="s">
+        <v>19</v>
+      </c>
+      <c r="H147">
+        <v>300</v>
+      </c>
+      <c r="I147" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A148" s="1">
+        <v>147</v>
+      </c>
+      <c r="B148" s="1">
+        <v>7</v>
+      </c>
+      <c r="C148" s="1">
+        <v>10</v>
+      </c>
+      <c r="D148">
+        <v>2</v>
+      </c>
+      <c r="E148" t="s">
         <v>21</v>
       </c>
-      <c r="F140" t="s">
+      <c r="F148" t="s">
         <v>22</v>
       </c>
-      <c r="G140" t="s">
+      <c r="G148" t="s">
         <v>14</v>
       </c>
-      <c r="H140">
+      <c r="H148">
         <v>1000</v>
       </c>
-      <c r="I140" t="s">
+      <c r="I148" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C141">
-        <v>4</v>
-      </c>
-      <c r="D141">
-        <v>2</v>
-      </c>
-      <c r="E141" t="s">
-        <v>12</v>
-      </c>
-      <c r="F141" t="s">
-        <v>13</v>
-      </c>
-      <c r="G141" t="s">
-        <v>14</v>
-      </c>
-      <c r="H141">
-        <v>1200</v>
-      </c>
-      <c r="I141" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C142">
+    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A149" s="1">
+        <v>148</v>
+      </c>
+      <c r="B149" s="1">
         <v>7</v>
       </c>
-      <c r="D142">
-        <v>2</v>
-      </c>
-      <c r="E142" t="s">
-        <v>21</v>
-      </c>
-      <c r="F142" t="s">
+      <c r="C149" s="1">
+        <v>11</v>
+      </c>
+      <c r="D149">
+        <v>2</v>
+      </c>
+      <c r="E149" t="s">
+        <v>47</v>
+      </c>
+      <c r="F149" t="s">
         <v>22</v>
-      </c>
-      <c r="G142" t="s">
-        <v>14</v>
-      </c>
-      <c r="H142">
-        <v>1200</v>
-      </c>
-      <c r="I142" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C143">
-        <v>10</v>
-      </c>
-      <c r="D143">
-        <v>2</v>
-      </c>
-      <c r="E143" t="s">
-        <v>37</v>
-      </c>
-      <c r="F143" t="s">
-        <v>13</v>
-      </c>
-      <c r="G143" t="s">
-        <v>14</v>
-      </c>
-      <c r="H143">
-        <v>1100</v>
-      </c>
-      <c r="I143" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C144">
-        <v>13</v>
-      </c>
-      <c r="D144">
-        <v>2</v>
-      </c>
-      <c r="E144" t="s">
-        <v>37</v>
-      </c>
-      <c r="F144" t="s">
-        <v>13</v>
-      </c>
-      <c r="G144" t="s">
-        <v>14</v>
-      </c>
-      <c r="H144">
-        <v>1100</v>
-      </c>
-      <c r="I144" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="145" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C145">
-        <v>16</v>
-      </c>
-      <c r="D145">
-        <v>2</v>
-      </c>
-      <c r="E145" t="s">
-        <v>47</v>
-      </c>
-      <c r="F145" t="s">
-        <v>22</v>
-      </c>
-      <c r="G145" t="s">
-        <v>46</v>
-      </c>
-      <c r="H145">
-        <v>1000</v>
-      </c>
-      <c r="I145" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="146" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C146">
-        <v>19</v>
-      </c>
-      <c r="D146">
-        <v>2</v>
-      </c>
-      <c r="E146" t="s">
-        <v>48</v>
-      </c>
-      <c r="F146" t="s">
-        <v>13</v>
-      </c>
-      <c r="G146" t="s">
-        <v>46</v>
-      </c>
-      <c r="H146">
-        <v>1200</v>
-      </c>
-      <c r="I146" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="147" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C147">
-        <v>22</v>
-      </c>
-      <c r="D147">
-        <v>2</v>
-      </c>
-      <c r="E147" t="s">
-        <v>47</v>
-      </c>
-      <c r="F147" t="s">
-        <v>22</v>
-      </c>
-      <c r="G147" t="s">
-        <v>46</v>
-      </c>
-      <c r="H147">
-        <v>1200</v>
-      </c>
-      <c r="I147" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="148" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C148">
-        <v>25</v>
-      </c>
-      <c r="D148">
-        <v>2</v>
-      </c>
-      <c r="E148" t="s">
-        <v>49</v>
-      </c>
-      <c r="F148" t="s">
-        <v>13</v>
-      </c>
-      <c r="G148" t="s">
-        <v>46</v>
-      </c>
-      <c r="H148">
-        <v>1100</v>
-      </c>
-      <c r="I148" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="149" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C149">
-        <v>28</v>
-      </c>
-      <c r="D149">
-        <v>2</v>
-      </c>
-      <c r="E149" t="s">
-        <v>49</v>
-      </c>
-      <c r="F149" t="s">
-        <v>13</v>
       </c>
       <c r="G149" t="s">
         <v>46</v>
       </c>
       <c r="H149">
+        <v>1200</v>
+      </c>
+      <c r="I149" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A150" s="1">
+        <v>149</v>
+      </c>
+      <c r="B150" s="1">
+        <v>7</v>
+      </c>
+      <c r="C150" s="1">
+        <v>12</v>
+      </c>
+      <c r="D150">
+        <v>1</v>
+      </c>
+      <c r="E150" t="s">
+        <v>15</v>
+      </c>
+      <c r="F150" t="s">
+        <v>10</v>
+      </c>
+      <c r="G150" t="s">
+        <v>11</v>
+      </c>
+      <c r="H150">
+        <v>300</v>
+      </c>
+      <c r="I150" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A151" s="1">
+        <v>150</v>
+      </c>
+      <c r="B151" s="1">
+        <v>7</v>
+      </c>
+      <c r="C151" s="1">
+        <v>13</v>
+      </c>
+      <c r="D151">
+        <v>1</v>
+      </c>
+      <c r="E151" t="s">
+        <v>20</v>
+      </c>
+      <c r="F151" t="s">
+        <v>18</v>
+      </c>
+      <c r="G151" t="s">
+        <v>19</v>
+      </c>
+      <c r="H151">
+        <v>300</v>
+      </c>
+      <c r="I151" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A152" s="1">
+        <v>151</v>
+      </c>
+      <c r="B152" s="1">
+        <v>7</v>
+      </c>
+      <c r="C152" s="1">
+        <v>14</v>
+      </c>
+      <c r="D152">
+        <v>1</v>
+      </c>
+      <c r="E152" t="s">
+        <v>20</v>
+      </c>
+      <c r="F152" t="s">
+        <v>18</v>
+      </c>
+      <c r="G152" t="s">
+        <v>19</v>
+      </c>
+      <c r="H152">
+        <v>300</v>
+      </c>
+      <c r="I152" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A153" s="1">
+        <v>152</v>
+      </c>
+      <c r="B153" s="1">
+        <v>7</v>
+      </c>
+      <c r="C153" s="1">
+        <v>14.5</v>
+      </c>
+      <c r="D153">
+        <v>1</v>
+      </c>
+      <c r="E153" t="s">
+        <v>9</v>
+      </c>
+      <c r="F153" t="s">
+        <v>10</v>
+      </c>
+      <c r="G153" t="s">
+        <v>11</v>
+      </c>
+      <c r="H153">
+        <v>300</v>
+      </c>
+      <c r="I153" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A154" s="1">
+        <v>153</v>
+      </c>
+      <c r="B154" s="1">
+        <v>7</v>
+      </c>
+      <c r="C154" s="1">
+        <v>15</v>
+      </c>
+      <c r="D154">
+        <v>1</v>
+      </c>
+      <c r="E154" t="s">
+        <v>20</v>
+      </c>
+      <c r="F154" t="s">
+        <v>18</v>
+      </c>
+      <c r="G154" t="s">
+        <v>19</v>
+      </c>
+      <c r="H154">
+        <v>300</v>
+      </c>
+      <c r="I154" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A155" s="1">
+        <v>154</v>
+      </c>
+      <c r="B155" s="1">
+        <v>7</v>
+      </c>
+      <c r="C155" s="1">
+        <v>16</v>
+      </c>
+      <c r="D155">
+        <v>1</v>
+      </c>
+      <c r="E155" t="s">
+        <v>16</v>
+      </c>
+      <c r="F155" t="s">
+        <v>10</v>
+      </c>
+      <c r="G155" t="s">
+        <v>11</v>
+      </c>
+      <c r="H155">
+        <v>300</v>
+      </c>
+      <c r="I155" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A156" s="1">
+        <v>155</v>
+      </c>
+      <c r="B156" s="1">
+        <v>7</v>
+      </c>
+      <c r="C156" s="1">
+        <v>18</v>
+      </c>
+      <c r="D156">
+        <v>1</v>
+      </c>
+      <c r="E156" t="s">
+        <v>29</v>
+      </c>
+      <c r="F156" t="s">
+        <v>18</v>
+      </c>
+      <c r="G156" t="s">
+        <v>19</v>
+      </c>
+      <c r="H156">
+        <v>300</v>
+      </c>
+      <c r="I156" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A157" s="1">
+        <v>156</v>
+      </c>
+      <c r="B157" s="1">
+        <v>7</v>
+      </c>
+      <c r="C157" s="1">
+        <v>19</v>
+      </c>
+      <c r="D157">
+        <v>2</v>
+      </c>
+      <c r="E157" t="s">
+        <v>12</v>
+      </c>
+      <c r="F157" t="s">
+        <v>13</v>
+      </c>
+      <c r="G157" t="s">
+        <v>14</v>
+      </c>
+      <c r="H157">
+        <v>1200</v>
+      </c>
+      <c r="I157" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A158" s="1">
+        <v>157</v>
+      </c>
+      <c r="B158" s="1">
+        <v>7</v>
+      </c>
+      <c r="C158" s="1">
+        <v>20</v>
+      </c>
+      <c r="D158">
+        <v>1</v>
+      </c>
+      <c r="E158" t="s">
+        <v>20</v>
+      </c>
+      <c r="F158" t="s">
+        <v>18</v>
+      </c>
+      <c r="G158" t="s">
+        <v>19</v>
+      </c>
+      <c r="H158">
+        <v>300</v>
+      </c>
+      <c r="I158" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A159" s="1">
+        <v>158</v>
+      </c>
+      <c r="B159" s="1">
+        <v>7</v>
+      </c>
+      <c r="C159" s="1">
+        <v>20.5</v>
+      </c>
+      <c r="D159">
+        <v>1</v>
+      </c>
+      <c r="E159" t="s">
+        <v>16</v>
+      </c>
+      <c r="F159" t="s">
+        <v>10</v>
+      </c>
+      <c r="G159" t="s">
+        <v>11</v>
+      </c>
+      <c r="H159">
+        <v>300</v>
+      </c>
+      <c r="I159" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A160" s="1">
+        <v>159</v>
+      </c>
+      <c r="B160" s="1">
+        <v>7</v>
+      </c>
+      <c r="C160" s="1">
+        <v>23</v>
+      </c>
+      <c r="D160">
+        <v>1</v>
+      </c>
+      <c r="E160" t="s">
+        <v>29</v>
+      </c>
+      <c r="F160" t="s">
+        <v>18</v>
+      </c>
+      <c r="G160" t="s">
+        <v>19</v>
+      </c>
+      <c r="H160">
+        <v>300</v>
+      </c>
+      <c r="I160" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A161" s="1">
+        <v>160</v>
+      </c>
+      <c r="B161" s="1">
+        <v>7</v>
+      </c>
+      <c r="C161" s="1">
+        <v>24</v>
+      </c>
+      <c r="D161">
+        <v>1</v>
+      </c>
+      <c r="E161" t="s">
+        <v>16</v>
+      </c>
+      <c r="F161" t="s">
+        <v>10</v>
+      </c>
+      <c r="G161" t="s">
+        <v>11</v>
+      </c>
+      <c r="H161">
+        <v>300</v>
+      </c>
+      <c r="I161" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A162" s="1">
+        <v>161</v>
+      </c>
+      <c r="B162" s="1">
+        <v>7</v>
+      </c>
+      <c r="C162" s="1">
+        <v>25</v>
+      </c>
+      <c r="D162">
+        <v>1</v>
+      </c>
+      <c r="E162" t="s">
+        <v>9</v>
+      </c>
+      <c r="F162" t="s">
+        <v>10</v>
+      </c>
+      <c r="G162" t="s">
+        <v>11</v>
+      </c>
+      <c r="H162">
+        <v>300</v>
+      </c>
+      <c r="I162" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A163" s="1">
+        <v>162</v>
+      </c>
+      <c r="B163" s="1">
+        <v>7</v>
+      </c>
+      <c r="C163" s="1">
+        <v>26</v>
+      </c>
+      <c r="D163">
+        <v>1</v>
+      </c>
+      <c r="E163" t="s">
+        <v>15</v>
+      </c>
+      <c r="F163" t="s">
+        <v>10</v>
+      </c>
+      <c r="G163" t="s">
+        <v>11</v>
+      </c>
+      <c r="H163">
+        <v>300</v>
+      </c>
+      <c r="I163" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A164" s="1">
+        <v>163</v>
+      </c>
+      <c r="B164" s="1">
+        <v>7</v>
+      </c>
+      <c r="C164" s="1">
+        <v>27</v>
+      </c>
+      <c r="D164">
+        <v>2</v>
+      </c>
+      <c r="E164" t="s">
+        <v>49</v>
+      </c>
+      <c r="F164" t="s">
+        <v>13</v>
+      </c>
+      <c r="G164" t="s">
+        <v>46</v>
+      </c>
+      <c r="H164">
         <v>1100</v>
       </c>
-      <c r="I149" t="s">
+      <c r="I164" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="150" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C150">
+    <row r="165" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A165" s="1">
+        <v>164</v>
+      </c>
+      <c r="B165" s="1">
+        <v>7</v>
+      </c>
+      <c r="C165" s="1">
+        <v>27.5</v>
+      </c>
+      <c r="D165">
+        <v>1</v>
+      </c>
+      <c r="E165" t="s">
+        <v>20</v>
+      </c>
+      <c r="F165" t="s">
+        <v>18</v>
+      </c>
+      <c r="G165" t="s">
+        <v>19</v>
+      </c>
+      <c r="H165">
+        <v>300</v>
+      </c>
+      <c r="I165" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A166" s="1">
+        <v>165</v>
+      </c>
+      <c r="B166" s="1">
+        <v>7</v>
+      </c>
+      <c r="C166" s="1">
+        <v>28</v>
+      </c>
+      <c r="D166">
+        <v>1</v>
+      </c>
+      <c r="E166" t="s">
+        <v>16</v>
+      </c>
+      <c r="F166" t="s">
+        <v>10</v>
+      </c>
+      <c r="G166" t="s">
+        <v>11</v>
+      </c>
+      <c r="H166">
+        <v>300</v>
+      </c>
+      <c r="I166" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A167" s="1">
+        <v>166</v>
+      </c>
+      <c r="B167" s="1">
+        <v>7</v>
+      </c>
+      <c r="C167" s="1">
+        <v>29</v>
+      </c>
+      <c r="D167">
+        <v>1</v>
+      </c>
+      <c r="E167" t="s">
+        <v>17</v>
+      </c>
+      <c r="F167" t="s">
+        <v>18</v>
+      </c>
+      <c r="G167" t="s">
+        <v>19</v>
+      </c>
+      <c r="H167">
+        <v>300</v>
+      </c>
+      <c r="I167" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="168" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A168" s="1">
+        <v>167</v>
+      </c>
+      <c r="B168" s="1">
+        <v>7</v>
+      </c>
+      <c r="C168" s="1">
+        <v>30</v>
+      </c>
+      <c r="D168">
+        <v>1</v>
+      </c>
+      <c r="E168" t="s">
+        <v>29</v>
+      </c>
+      <c r="F168" t="s">
+        <v>18</v>
+      </c>
+      <c r="G168" t="s">
+        <v>19</v>
+      </c>
+      <c r="H168">
+        <v>300</v>
+      </c>
+      <c r="I168" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A169" s="1">
+        <v>168</v>
+      </c>
+      <c r="B169" s="1">
+        <v>7</v>
+      </c>
+      <c r="C169" s="1">
         <v>31</v>
+      </c>
+      <c r="D169">
+        <v>2</v>
+      </c>
+      <c r="E169" t="s">
+        <v>21</v>
+      </c>
+      <c r="F169" t="s">
+        <v>22</v>
+      </c>
+      <c r="G169" t="s">
+        <v>14</v>
+      </c>
+      <c r="H169">
+        <v>1000</v>
+      </c>
+      <c r="I169" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="170" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A170" s="1">
+        <v>169</v>
+      </c>
+      <c r="B170" s="1">
+        <v>7</v>
+      </c>
+      <c r="C170" s="1">
+        <v>32</v>
+      </c>
+      <c r="D170">
+        <v>2</v>
+      </c>
+      <c r="E170" t="s">
+        <v>37</v>
+      </c>
+      <c r="F170" t="s">
+        <v>13</v>
+      </c>
+      <c r="G170" t="s">
+        <v>14</v>
+      </c>
+      <c r="H170">
+        <v>1100</v>
+      </c>
+      <c r="I170" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="171" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A171" s="1">
+        <v>170</v>
+      </c>
+      <c r="B171" s="1">
+        <v>7</v>
+      </c>
+      <c r="C171" s="1">
+        <v>33</v>
+      </c>
+      <c r="D171">
+        <v>1</v>
+      </c>
+      <c r="E171" t="s">
+        <v>15</v>
+      </c>
+      <c r="F171" t="s">
+        <v>10</v>
+      </c>
+      <c r="G171" t="s">
+        <v>11</v>
+      </c>
+      <c r="H171">
+        <v>300</v>
+      </c>
+      <c r="I171" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="172" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A172" s="1">
+        <v>171</v>
+      </c>
+      <c r="B172" s="1">
+        <v>7</v>
+      </c>
+      <c r="C172" s="1">
+        <v>34</v>
+      </c>
+      <c r="D172">
+        <v>1</v>
+      </c>
+      <c r="E172" t="s">
+        <v>20</v>
+      </c>
+      <c r="F172" t="s">
+        <v>18</v>
+      </c>
+      <c r="G172" t="s">
+        <v>19</v>
+      </c>
+      <c r="H172">
+        <v>300</v>
+      </c>
+      <c r="I172" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/StageData.xlsx
+++ b/StageData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Documents\Unreal Projects\petitcon21\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6BCB4B0-A7CA-4ABD-952E-DA3A152A57D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EAA6B4E-57CE-4AF8-B831-AF4509EC8D0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="34110" yWindow="585" windowWidth="19395" windowHeight="14745" activeTab="1" xr2:uid="{2A5FB008-7706-4DC0-AC1A-842182642272}"/>
+    <workbookView xWindow="37815" yWindow="360" windowWidth="19395" windowHeight="15345" xr2:uid="{2A5FB008-7706-4DC0-AC1A-842182642272}"/>
   </bookViews>
   <sheets>
     <sheet name="作業中" sheetId="6" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1287" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1475" uniqueCount="58">
   <si>
     <t>Row Name</t>
   </si>
@@ -188,12 +188,30 @@
   <si>
     <t>左下段 普通</t>
   </si>
+  <si>
+    <t>右上段 速い</t>
+  </si>
+  <si>
+    <t>右中段 速い</t>
+  </si>
+  <si>
+    <t>右下段 速い</t>
+  </si>
+  <si>
+    <t>左上段 速い</t>
+  </si>
+  <si>
+    <t>左中段 速い</t>
+  </si>
+  <si>
+    <t>左下段 速い</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -201,8 +219,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -227,12 +251,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF0070C0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -251,7 +269,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -566,23 +584,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8CFAFC9-EAF1-40E4-8D59-0C784DC2BCCB}">
-  <dimension ref="A1:I56"/>
+  <dimension ref="A1:I66"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="23" topLeftCell="A39" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B24" sqref="B24:I56"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane xSplit="8" ySplit="29" topLeftCell="I42" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="I1" sqref="I1"/>
+      <selection pane="bottomLeft" activeCell="A30" sqref="A30"/>
+      <selection pane="bottomRight" activeCell="E61" sqref="E61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="24.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.42578125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="48.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -974,22 +994,22 @@
         <v>0</v>
       </c>
       <c r="D14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E14" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="F14" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G14" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="H14">
-        <v>1000</v>
+        <v>400</v>
       </c>
       <c r="I14" t="s">
-        <v>23</v>
+        <v>52</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
@@ -1003,22 +1023,22 @@
         <v>0</v>
       </c>
       <c r="D15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E15" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F15" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G15" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="H15">
-        <v>1200</v>
+        <v>400</v>
       </c>
       <c r="I15" t="s">
-        <v>35</v>
+        <v>53</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
@@ -1032,22 +1052,22 @@
         <v>0</v>
       </c>
       <c r="D16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E16" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="F16" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G16" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="H16">
-        <v>1200</v>
+        <v>400</v>
       </c>
       <c r="I16" t="s">
-        <v>36</v>
+        <v>54</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
@@ -1061,22 +1081,22 @@
         <v>0</v>
       </c>
       <c r="D17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E17" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="F17" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="G17" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="H17">
-        <v>1100</v>
+        <v>400</v>
       </c>
       <c r="I17" t="s">
-        <v>36</v>
+        <v>55</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
@@ -1090,22 +1110,22 @@
         <v>0</v>
       </c>
       <c r="D18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E18" t="s">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="F18" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="G18" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="H18">
-        <v>1100</v>
+        <v>400</v>
       </c>
       <c r="I18" t="s">
-        <v>38</v>
+        <v>56</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
@@ -1119,22 +1139,22 @@
         <v>0</v>
       </c>
       <c r="D19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E19" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="F19" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="G19" t="s">
-        <v>46</v>
+        <v>19</v>
       </c>
       <c r="H19">
-        <v>1000</v>
+        <v>400</v>
       </c>
       <c r="I19" t="s">
-        <v>42</v>
+        <v>57</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
@@ -1151,19 +1171,19 @@
         <v>2</v>
       </c>
       <c r="E20" t="s">
-        <v>48</v>
+        <v>21</v>
       </c>
       <c r="F20" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="G20" t="s">
-        <v>46</v>
+        <v>14</v>
       </c>
       <c r="H20">
-        <v>1200</v>
+        <v>1000</v>
       </c>
       <c r="I20" t="s">
-        <v>43</v>
+        <v>23</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
@@ -1180,19 +1200,19 @@
         <v>2</v>
       </c>
       <c r="E21" t="s">
-        <v>47</v>
+        <v>12</v>
       </c>
       <c r="F21" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="G21" t="s">
-        <v>46</v>
+        <v>14</v>
       </c>
       <c r="H21">
         <v>1200</v>
       </c>
       <c r="I21" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
@@ -1209,19 +1229,19 @@
         <v>2</v>
       </c>
       <c r="E22" t="s">
-        <v>49</v>
+        <v>21</v>
       </c>
       <c r="F22" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="G22" t="s">
-        <v>46</v>
+        <v>14</v>
       </c>
       <c r="H22">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="I22" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
@@ -1238,19 +1258,19 @@
         <v>2</v>
       </c>
       <c r="E23" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="F23" t="s">
         <v>13</v>
       </c>
       <c r="G23" t="s">
-        <v>46</v>
+        <v>14</v>
       </c>
       <c r="H23">
         <v>1100</v>
       </c>
       <c r="I23" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
@@ -1258,28 +1278,28 @@
         <v>23</v>
       </c>
       <c r="B24" s="1">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="C24" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E24" t="s">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="F24" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G24" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="H24">
-        <v>300</v>
+        <v>1100</v>
       </c>
       <c r="I24" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
@@ -1287,28 +1307,28 @@
         <v>24</v>
       </c>
       <c r="B25" s="1">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="C25" s="1">
+        <v>0</v>
+      </c>
+      <c r="D25">
         <v>2</v>
       </c>
-      <c r="D25">
-        <v>1</v>
-      </c>
       <c r="E25" t="s">
-        <v>9</v>
+        <v>47</v>
       </c>
       <c r="F25" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G25" t="s">
-        <v>11</v>
+        <v>46</v>
       </c>
       <c r="H25">
-        <v>300</v>
+        <v>1000</v>
       </c>
       <c r="I25" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
@@ -1316,28 +1336,28 @@
         <v>25</v>
       </c>
       <c r="B26" s="1">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="C26" s="1">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="D26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E26" t="s">
-        <v>16</v>
+        <v>48</v>
       </c>
       <c r="F26" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G26" t="s">
-        <v>11</v>
+        <v>46</v>
       </c>
       <c r="H26">
-        <v>300</v>
+        <v>1200</v>
       </c>
       <c r="I26" t="s">
-        <v>25</v>
+        <v>43</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
@@ -1345,28 +1365,28 @@
         <v>26</v>
       </c>
       <c r="B27" s="1">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="C27" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D27">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E27" t="s">
-        <v>15</v>
+        <v>47</v>
       </c>
       <c r="F27" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G27" t="s">
-        <v>11</v>
+        <v>46</v>
       </c>
       <c r="H27">
-        <v>300</v>
+        <v>1200</v>
       </c>
       <c r="I27" t="s">
-        <v>26</v>
+        <v>44</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
@@ -1374,28 +1394,28 @@
         <v>27</v>
       </c>
       <c r="B28" s="1">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="C28" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D28">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E28" t="s">
-        <v>20</v>
+        <v>49</v>
       </c>
       <c r="F28" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="G28" t="s">
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="H28">
-        <v>300</v>
+        <v>1100</v>
       </c>
       <c r="I28" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
@@ -1403,28 +1423,28 @@
         <v>28</v>
       </c>
       <c r="B29" s="1">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="C29" s="1">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D29">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E29" t="s">
-        <v>17</v>
+        <v>49</v>
       </c>
       <c r="F29" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="G29" t="s">
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="H29">
-        <v>300</v>
+        <v>1100</v>
       </c>
       <c r="I29" t="s">
-        <v>27</v>
+        <v>45</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
@@ -1432,28 +1452,28 @@
         <v>29</v>
       </c>
       <c r="B30" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C30" s="1">
-        <v>6.5</v>
-      </c>
-      <c r="D30">
-        <v>1</v>
-      </c>
-      <c r="E30" t="s">
-        <v>20</v>
-      </c>
-      <c r="F30" t="s">
-        <v>18</v>
-      </c>
-      <c r="G30" t="s">
-        <v>19</v>
-      </c>
-      <c r="H30">
-        <v>300</v>
-      </c>
-      <c r="I30" t="s">
-        <v>28</v>
+        <v>1</v>
+      </c>
+      <c r="D30" s="4">
+        <v>1</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F30" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G30" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H30" s="4">
+        <v>200</v>
+      </c>
+      <c r="I30" s="4" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
@@ -1461,28 +1481,28 @@
         <v>30</v>
       </c>
       <c r="B31" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C31" s="1">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D31">
         <v>1</v>
       </c>
       <c r="E31" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="F31" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G31" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="H31">
         <v>300</v>
       </c>
       <c r="I31" t="s">
-        <v>51</v>
+        <v>25</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
@@ -1490,28 +1510,28 @@
         <v>31</v>
       </c>
       <c r="B32" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C32" s="1">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D32">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E32" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="F32" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G32" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="H32">
-        <v>1000</v>
+        <v>400</v>
       </c>
       <c r="I32" t="s">
-        <v>23</v>
+        <v>54</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
@@ -1519,28 +1539,28 @@
         <v>32</v>
       </c>
       <c r="B33" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C33" s="1">
-        <v>11</v>
-      </c>
-      <c r="D33">
-        <v>2</v>
-      </c>
-      <c r="E33" t="s">
-        <v>47</v>
-      </c>
-      <c r="F33" t="s">
-        <v>22</v>
-      </c>
-      <c r="G33" t="s">
-        <v>46</v>
-      </c>
-      <c r="H33">
-        <v>1200</v>
-      </c>
-      <c r="I33" t="s">
-        <v>44</v>
+        <v>4</v>
+      </c>
+      <c r="D33" s="4">
+        <v>1</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F33" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G33" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H33" s="4">
+        <v>200</v>
+      </c>
+      <c r="I33" s="4" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
@@ -1548,28 +1568,28 @@
         <v>33</v>
       </c>
       <c r="B34" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C34" s="1">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="D34">
         <v>1</v>
       </c>
       <c r="E34" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F34" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G34" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="H34">
         <v>300</v>
       </c>
       <c r="I34" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
@@ -1577,16 +1597,16 @@
         <v>34</v>
       </c>
       <c r="B35" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C35" s="1">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="D35">
         <v>1</v>
       </c>
       <c r="E35" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="F35" t="s">
         <v>18</v>
@@ -1595,10 +1615,10 @@
         <v>19</v>
       </c>
       <c r="H35">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="I35" t="s">
-        <v>28</v>
+        <v>57</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
@@ -1606,28 +1626,28 @@
         <v>35</v>
       </c>
       <c r="B36" s="1">
+        <v>8</v>
+      </c>
+      <c r="C36" s="1">
         <v>7</v>
       </c>
-      <c r="C36" s="1">
-        <v>14</v>
-      </c>
-      <c r="D36">
-        <v>1</v>
-      </c>
-      <c r="E36" t="s">
-        <v>20</v>
-      </c>
-      <c r="F36" t="s">
-        <v>18</v>
-      </c>
-      <c r="G36" t="s">
-        <v>19</v>
-      </c>
-      <c r="H36">
-        <v>300</v>
-      </c>
-      <c r="I36" t="s">
-        <v>28</v>
+      <c r="D36" s="4">
+        <v>1</v>
+      </c>
+      <c r="E36" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F36" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G36" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H36" s="4">
+        <v>200</v>
+      </c>
+      <c r="I36" s="4" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
@@ -1635,10 +1655,10 @@
         <v>36</v>
       </c>
       <c r="B37" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C37" s="1">
-        <v>14.5</v>
+        <v>8</v>
       </c>
       <c r="D37">
         <v>1</v>
@@ -1664,16 +1684,16 @@
         <v>37</v>
       </c>
       <c r="B38" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C38" s="1">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D38">
         <v>1</v>
       </c>
       <c r="E38" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="F38" t="s">
         <v>18</v>
@@ -1685,7 +1705,7 @@
         <v>300</v>
       </c>
       <c r="I38" t="s">
-        <v>28</v>
+        <v>51</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
@@ -1693,28 +1713,28 @@
         <v>38</v>
       </c>
       <c r="B39" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C39" s="1">
-        <v>16</v>
-      </c>
-      <c r="D39">
-        <v>1</v>
-      </c>
-      <c r="E39" t="s">
-        <v>16</v>
-      </c>
-      <c r="F39" t="s">
-        <v>10</v>
-      </c>
-      <c r="G39" t="s">
-        <v>11</v>
-      </c>
-      <c r="H39">
-        <v>300</v>
-      </c>
-      <c r="I39" t="s">
-        <v>25</v>
+        <v>13</v>
+      </c>
+      <c r="D39" s="4">
+        <v>1</v>
+      </c>
+      <c r="E39" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F39" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G39" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H39" s="4">
+        <v>200</v>
+      </c>
+      <c r="I39" s="4" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
@@ -1722,28 +1742,28 @@
         <v>39</v>
       </c>
       <c r="B40" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C40" s="1">
-        <v>18</v>
-      </c>
-      <c r="D40">
-        <v>1</v>
-      </c>
-      <c r="E40" t="s">
-        <v>29</v>
-      </c>
-      <c r="F40" t="s">
-        <v>18</v>
-      </c>
-      <c r="G40" t="s">
-        <v>19</v>
-      </c>
-      <c r="H40">
-        <v>300</v>
-      </c>
-      <c r="I40" t="s">
-        <v>51</v>
+        <v>14</v>
+      </c>
+      <c r="D40" s="4">
+        <v>1</v>
+      </c>
+      <c r="E40" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F40" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G40" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H40" s="4">
+        <v>200</v>
+      </c>
+      <c r="I40" s="4" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
@@ -1751,28 +1771,28 @@
         <v>40</v>
       </c>
       <c r="B41" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C41" s="1">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D41">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E41" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F41" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G41" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="H41">
-        <v>1200</v>
+        <v>300</v>
       </c>
       <c r="I41" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
@@ -1780,28 +1800,28 @@
         <v>41</v>
       </c>
       <c r="B42" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C42" s="1">
-        <v>20</v>
-      </c>
-      <c r="D42">
-        <v>1</v>
-      </c>
-      <c r="E42" t="s">
-        <v>20</v>
-      </c>
-      <c r="F42" t="s">
-        <v>18</v>
-      </c>
-      <c r="G42" t="s">
-        <v>19</v>
-      </c>
-      <c r="H42">
-        <v>300</v>
-      </c>
-      <c r="I42" t="s">
-        <v>28</v>
+        <v>16</v>
+      </c>
+      <c r="D42" s="4">
+        <v>1</v>
+      </c>
+      <c r="E42" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F42" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G42" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H42" s="4">
+        <v>200</v>
+      </c>
+      <c r="I42" s="4" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
@@ -1809,28 +1829,28 @@
         <v>42</v>
       </c>
       <c r="B43" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C43" s="1">
-        <v>20.5</v>
+        <v>17</v>
       </c>
       <c r="D43">
         <v>1</v>
       </c>
       <c r="E43" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F43" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G43" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="H43">
         <v>300</v>
       </c>
       <c r="I43" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
@@ -1838,16 +1858,16 @@
         <v>43</v>
       </c>
       <c r="B44" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C44" s="1">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D44">
         <v>1</v>
       </c>
       <c r="E44" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="F44" t="s">
         <v>18</v>
@@ -1856,10 +1876,10 @@
         <v>19</v>
       </c>
       <c r="H44">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="I44" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
@@ -1867,28 +1887,28 @@
         <v>44</v>
       </c>
       <c r="B45" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C45" s="1">
-        <v>24</v>
-      </c>
-      <c r="D45">
-        <v>1</v>
-      </c>
-      <c r="E45" t="s">
-        <v>16</v>
-      </c>
-      <c r="F45" t="s">
-        <v>10</v>
-      </c>
-      <c r="G45" t="s">
-        <v>11</v>
-      </c>
-      <c r="H45">
-        <v>300</v>
-      </c>
-      <c r="I45" t="s">
-        <v>25</v>
+        <v>19</v>
+      </c>
+      <c r="D45" s="4">
+        <v>1</v>
+      </c>
+      <c r="E45" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F45" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G45" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H45" s="4">
+        <v>200</v>
+      </c>
+      <c r="I45" s="4" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
@@ -1896,10 +1916,10 @@
         <v>45</v>
       </c>
       <c r="B46" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C46" s="1">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D46">
         <v>1</v>
@@ -1925,28 +1945,28 @@
         <v>46</v>
       </c>
       <c r="B47" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C47" s="1">
-        <v>26</v>
-      </c>
-      <c r="D47">
-        <v>1</v>
-      </c>
-      <c r="E47" t="s">
-        <v>15</v>
-      </c>
-      <c r="F47" t="s">
-        <v>10</v>
-      </c>
-      <c r="G47" t="s">
-        <v>11</v>
-      </c>
-      <c r="H47">
-        <v>300</v>
-      </c>
-      <c r="I47" t="s">
-        <v>26</v>
+        <v>23</v>
+      </c>
+      <c r="D47" s="4">
+        <v>1</v>
+      </c>
+      <c r="E47" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F47" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G47" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H47" s="4">
+        <v>200</v>
+      </c>
+      <c r="I47" s="4" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
@@ -1954,28 +1974,28 @@
         <v>47</v>
       </c>
       <c r="B48" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C48" s="1">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D48">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E48" t="s">
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="F48" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="G48" t="s">
-        <v>46</v>
+        <v>19</v>
       </c>
       <c r="H48">
-        <v>1100</v>
+        <v>300</v>
       </c>
       <c r="I48" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
@@ -1983,28 +2003,28 @@
         <v>48</v>
       </c>
       <c r="B49" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C49" s="1">
-        <v>27.5</v>
-      </c>
-      <c r="D49">
-        <v>1</v>
-      </c>
-      <c r="E49" t="s">
-        <v>20</v>
-      </c>
-      <c r="F49" t="s">
-        <v>18</v>
-      </c>
-      <c r="G49" t="s">
-        <v>19</v>
-      </c>
-      <c r="H49">
-        <v>300</v>
-      </c>
-      <c r="I49" t="s">
-        <v>28</v>
+        <v>25</v>
+      </c>
+      <c r="D49" s="4">
+        <v>1</v>
+      </c>
+      <c r="E49" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F49" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G49" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H49" s="4">
+        <v>200</v>
+      </c>
+      <c r="I49" s="4" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
@@ -2012,28 +2032,28 @@
         <v>49</v>
       </c>
       <c r="B50" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C50" s="1">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D50">
         <v>1</v>
       </c>
       <c r="E50" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F50" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G50" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="H50">
         <v>300</v>
       </c>
       <c r="I50" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
@@ -2041,28 +2061,28 @@
         <v>50</v>
       </c>
       <c r="B51" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C51" s="1">
-        <v>29</v>
-      </c>
-      <c r="D51">
-        <v>1</v>
-      </c>
-      <c r="E51" t="s">
-        <v>17</v>
-      </c>
-      <c r="F51" t="s">
-        <v>18</v>
-      </c>
-      <c r="G51" t="s">
-        <v>19</v>
-      </c>
-      <c r="H51">
-        <v>300</v>
-      </c>
-      <c r="I51" t="s">
         <v>27</v>
+      </c>
+      <c r="D51" s="4">
+        <v>1</v>
+      </c>
+      <c r="E51" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F51" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G51" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H51" s="4">
+        <v>200</v>
+      </c>
+      <c r="I51" s="4" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
@@ -2070,28 +2090,28 @@
         <v>51</v>
       </c>
       <c r="B52" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C52" s="1">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D52">
         <v>1</v>
       </c>
       <c r="E52" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="F52" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G52" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="H52">
         <v>300</v>
       </c>
       <c r="I52" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
@@ -2099,28 +2119,28 @@
         <v>52</v>
       </c>
       <c r="B53" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C53" s="1">
-        <v>31</v>
-      </c>
-      <c r="D53">
-        <v>2</v>
-      </c>
-      <c r="E53" t="s">
-        <v>21</v>
-      </c>
-      <c r="F53" t="s">
-        <v>22</v>
-      </c>
-      <c r="G53" t="s">
-        <v>14</v>
-      </c>
-      <c r="H53">
-        <v>1000</v>
-      </c>
-      <c r="I53" t="s">
-        <v>23</v>
+        <v>30</v>
+      </c>
+      <c r="D53" s="4">
+        <v>1</v>
+      </c>
+      <c r="E53" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F53" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G53" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H53" s="4">
+        <v>200</v>
+      </c>
+      <c r="I53" s="4" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
@@ -2128,28 +2148,28 @@
         <v>53</v>
       </c>
       <c r="B54" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C54" s="1">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D54">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E54" t="s">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="F54" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="G54" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="H54">
-        <v>1100</v>
+        <v>300</v>
       </c>
       <c r="I54" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
@@ -2157,28 +2177,28 @@
         <v>54</v>
       </c>
       <c r="B55" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C55" s="1">
-        <v>33</v>
-      </c>
-      <c r="D55">
-        <v>1</v>
-      </c>
-      <c r="E55" t="s">
-        <v>15</v>
-      </c>
-      <c r="F55" t="s">
-        <v>10</v>
-      </c>
-      <c r="G55" t="s">
-        <v>11</v>
-      </c>
-      <c r="H55">
-        <v>300</v>
-      </c>
-      <c r="I55" t="s">
-        <v>26</v>
+        <v>32</v>
+      </c>
+      <c r="D55" s="4">
+        <v>1</v>
+      </c>
+      <c r="E55" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F55" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G55" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H55" s="4">
+        <v>200</v>
+      </c>
+      <c r="I55" s="4" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
@@ -2186,28 +2206,318 @@
         <v>55</v>
       </c>
       <c r="B56" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C56" s="1">
+        <v>33</v>
+      </c>
+      <c r="D56">
+        <v>1</v>
+      </c>
+      <c r="E56" t="s">
+        <v>17</v>
+      </c>
+      <c r="F56" t="s">
+        <v>18</v>
+      </c>
+      <c r="G56" t="s">
+        <v>19</v>
+      </c>
+      <c r="H56">
+        <v>300</v>
+      </c>
+      <c r="I56" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A57" s="1">
+        <v>56</v>
+      </c>
+      <c r="B57" s="1">
+        <v>8</v>
+      </c>
+      <c r="C57" s="1">
         <v>34</v>
       </c>
-      <c r="D56">
-        <v>1</v>
-      </c>
-      <c r="E56" t="s">
+      <c r="D57" s="4">
+        <v>1</v>
+      </c>
+      <c r="E57" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F57" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G57" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H57" s="4">
+        <v>200</v>
+      </c>
+      <c r="I57" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A58" s="1">
+        <v>57</v>
+      </c>
+      <c r="B58" s="1">
+        <v>8</v>
+      </c>
+      <c r="C58" s="1">
+        <v>35</v>
+      </c>
+      <c r="D58">
+        <v>1</v>
+      </c>
+      <c r="E58" t="s">
+        <v>9</v>
+      </c>
+      <c r="F58" t="s">
+        <v>10</v>
+      </c>
+      <c r="G58" t="s">
+        <v>11</v>
+      </c>
+      <c r="H58">
+        <v>300</v>
+      </c>
+      <c r="I58" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A59" s="1">
+        <v>58</v>
+      </c>
+      <c r="B59" s="1">
+        <v>8</v>
+      </c>
+      <c r="C59" s="1">
+        <v>36</v>
+      </c>
+      <c r="D59">
+        <v>1</v>
+      </c>
+      <c r="E59" t="s">
+        <v>15</v>
+      </c>
+      <c r="F59" t="s">
+        <v>10</v>
+      </c>
+      <c r="G59" t="s">
+        <v>11</v>
+      </c>
+      <c r="H59">
+        <v>400</v>
+      </c>
+      <c r="I59" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A60" s="1">
+        <v>59</v>
+      </c>
+      <c r="B60" s="1">
+        <v>8</v>
+      </c>
+      <c r="C60" s="1">
+        <v>37</v>
+      </c>
+      <c r="D60" s="4">
+        <v>1</v>
+      </c>
+      <c r="E60" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F60" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G60" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H60" s="4">
+        <v>200</v>
+      </c>
+      <c r="I60" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A61" s="1">
+        <v>60</v>
+      </c>
+      <c r="B61" s="1">
+        <v>8</v>
+      </c>
+      <c r="C61" s="1">
+        <v>43</v>
+      </c>
+      <c r="D61" s="4">
+        <v>1</v>
+      </c>
+      <c r="E61" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="F56" t="s">
-        <v>18</v>
-      </c>
-      <c r="G56" t="s">
-        <v>19</v>
-      </c>
-      <c r="H56">
-        <v>300</v>
-      </c>
-      <c r="I56" t="s">
-        <v>28</v>
+      <c r="F61" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G61" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H61" s="4">
+        <v>200</v>
+      </c>
+      <c r="I61" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A62" s="1">
+        <v>61</v>
+      </c>
+      <c r="B62" s="1">
+        <v>8</v>
+      </c>
+      <c r="C62" s="1">
+        <v>43</v>
+      </c>
+      <c r="D62" s="4">
+        <v>1</v>
+      </c>
+      <c r="E62" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F62" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G62" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H62" s="4">
+        <v>200</v>
+      </c>
+      <c r="I62" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A63" s="1">
+        <v>62</v>
+      </c>
+      <c r="B63" s="1">
+        <v>8</v>
+      </c>
+      <c r="C63" s="4">
+        <v>44</v>
+      </c>
+      <c r="D63" s="4">
+        <v>1</v>
+      </c>
+      <c r="E63" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F63" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G63" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H63" s="4">
+        <v>200</v>
+      </c>
+      <c r="I63" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A64" s="1">
+        <v>63</v>
+      </c>
+      <c r="B64" s="1">
+        <v>8</v>
+      </c>
+      <c r="C64" s="1">
+        <v>44</v>
+      </c>
+      <c r="D64">
+        <v>1</v>
+      </c>
+      <c r="E64" t="s">
+        <v>9</v>
+      </c>
+      <c r="F64" t="s">
+        <v>10</v>
+      </c>
+      <c r="G64" t="s">
+        <v>11</v>
+      </c>
+      <c r="H64">
+        <v>300</v>
+      </c>
+      <c r="I64" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A65" s="1">
+        <v>64</v>
+      </c>
+      <c r="B65" s="1">
+        <v>8</v>
+      </c>
+      <c r="C65" s="4">
+        <v>45</v>
+      </c>
+      <c r="D65" s="4">
+        <v>1</v>
+      </c>
+      <c r="E65" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F65" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G65" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H65" s="4">
+        <v>200</v>
+      </c>
+      <c r="I65" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A66" s="1">
+        <v>65</v>
+      </c>
+      <c r="B66" s="1">
+        <v>8</v>
+      </c>
+      <c r="C66" s="1">
+        <v>45.5</v>
+      </c>
+      <c r="D66">
+        <v>1</v>
+      </c>
+      <c r="E66" t="s">
+        <v>17</v>
+      </c>
+      <c r="F66" t="s">
+        <v>18</v>
+      </c>
+      <c r="G66" t="s">
+        <v>19</v>
+      </c>
+      <c r="H66">
+        <v>400</v>
+      </c>
+      <c r="I66" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -2218,9 +2528,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEBD7694-9D46-44B3-81F9-AE3C7A3C321F}">
-  <dimension ref="A1:I172"/>
+  <dimension ref="A1:I209"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView topLeftCell="A179" workbookViewId="0">
+      <selection activeCell="E201" sqref="E201"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -7221,6 +7533,1079 @@
       </c>
       <c r="I172" t="s">
         <v>28</v>
+      </c>
+    </row>
+    <row r="173" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A173" s="1">
+        <v>172</v>
+      </c>
+      <c r="B173" s="1">
+        <v>8</v>
+      </c>
+      <c r="C173" s="1">
+        <v>1</v>
+      </c>
+      <c r="D173" s="4">
+        <v>1</v>
+      </c>
+      <c r="E173" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F173" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G173" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H173" s="4">
+        <v>200</v>
+      </c>
+      <c r="I173" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="174" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A174" s="1">
+        <v>173</v>
+      </c>
+      <c r="B174" s="1">
+        <v>8</v>
+      </c>
+      <c r="C174" s="1">
+        <v>2</v>
+      </c>
+      <c r="D174">
+        <v>1</v>
+      </c>
+      <c r="E174" t="s">
+        <v>16</v>
+      </c>
+      <c r="F174" t="s">
+        <v>10</v>
+      </c>
+      <c r="G174" t="s">
+        <v>11</v>
+      </c>
+      <c r="H174">
+        <v>300</v>
+      </c>
+      <c r="I174" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="175" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A175" s="1">
+        <v>174</v>
+      </c>
+      <c r="B175" s="1">
+        <v>8</v>
+      </c>
+      <c r="C175" s="1">
+        <v>3</v>
+      </c>
+      <c r="D175">
+        <v>1</v>
+      </c>
+      <c r="E175" t="s">
+        <v>15</v>
+      </c>
+      <c r="F175" t="s">
+        <v>10</v>
+      </c>
+      <c r="G175" t="s">
+        <v>11</v>
+      </c>
+      <c r="H175">
+        <v>400</v>
+      </c>
+      <c r="I175" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="176" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A176" s="1">
+        <v>175</v>
+      </c>
+      <c r="B176" s="1">
+        <v>8</v>
+      </c>
+      <c r="C176" s="1">
+        <v>4</v>
+      </c>
+      <c r="D176" s="4">
+        <v>1</v>
+      </c>
+      <c r="E176" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F176" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G176" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H176" s="4">
+        <v>200</v>
+      </c>
+      <c r="I176" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="177" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A177" s="1">
+        <v>176</v>
+      </c>
+      <c r="B177" s="1">
+        <v>8</v>
+      </c>
+      <c r="C177" s="1">
+        <v>5</v>
+      </c>
+      <c r="D177">
+        <v>1</v>
+      </c>
+      <c r="E177" t="s">
+        <v>17</v>
+      </c>
+      <c r="F177" t="s">
+        <v>18</v>
+      </c>
+      <c r="G177" t="s">
+        <v>19</v>
+      </c>
+      <c r="H177">
+        <v>300</v>
+      </c>
+      <c r="I177" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="178" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A178" s="1">
+        <v>177</v>
+      </c>
+      <c r="B178" s="1">
+        <v>8</v>
+      </c>
+      <c r="C178" s="1">
+        <v>6</v>
+      </c>
+      <c r="D178">
+        <v>1</v>
+      </c>
+      <c r="E178" t="s">
+        <v>29</v>
+      </c>
+      <c r="F178" t="s">
+        <v>18</v>
+      </c>
+      <c r="G178" t="s">
+        <v>19</v>
+      </c>
+      <c r="H178">
+        <v>400</v>
+      </c>
+      <c r="I178" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="179" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A179" s="1">
+        <v>178</v>
+      </c>
+      <c r="B179" s="1">
+        <v>8</v>
+      </c>
+      <c r="C179" s="1">
+        <v>7</v>
+      </c>
+      <c r="D179" s="4">
+        <v>1</v>
+      </c>
+      <c r="E179" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F179" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G179" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H179" s="4">
+        <v>200</v>
+      </c>
+      <c r="I179" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="180" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A180" s="1">
+        <v>179</v>
+      </c>
+      <c r="B180" s="1">
+        <v>8</v>
+      </c>
+      <c r="C180" s="1">
+        <v>8</v>
+      </c>
+      <c r="D180">
+        <v>1</v>
+      </c>
+      <c r="E180" t="s">
+        <v>9</v>
+      </c>
+      <c r="F180" t="s">
+        <v>10</v>
+      </c>
+      <c r="G180" t="s">
+        <v>11</v>
+      </c>
+      <c r="H180">
+        <v>300</v>
+      </c>
+      <c r="I180" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="181" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A181" s="1">
+        <v>180</v>
+      </c>
+      <c r="B181" s="1">
+        <v>8</v>
+      </c>
+      <c r="C181" s="1">
+        <v>12</v>
+      </c>
+      <c r="D181">
+        <v>1</v>
+      </c>
+      <c r="E181" t="s">
+        <v>29</v>
+      </c>
+      <c r="F181" t="s">
+        <v>18</v>
+      </c>
+      <c r="G181" t="s">
+        <v>19</v>
+      </c>
+      <c r="H181">
+        <v>300</v>
+      </c>
+      <c r="I181" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="182" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A182" s="1">
+        <v>181</v>
+      </c>
+      <c r="B182" s="1">
+        <v>8</v>
+      </c>
+      <c r="C182" s="1">
+        <v>13</v>
+      </c>
+      <c r="D182" s="4">
+        <v>1</v>
+      </c>
+      <c r="E182" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F182" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G182" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H182" s="4">
+        <v>200</v>
+      </c>
+      <c r="I182" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="183" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A183" s="1">
+        <v>182</v>
+      </c>
+      <c r="B183" s="1">
+        <v>8</v>
+      </c>
+      <c r="C183" s="1">
+        <v>14</v>
+      </c>
+      <c r="D183" s="4">
+        <v>1</v>
+      </c>
+      <c r="E183" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F183" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G183" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H183" s="4">
+        <v>200</v>
+      </c>
+      <c r="I183" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="184" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A184" s="1">
+        <v>183</v>
+      </c>
+      <c r="B184" s="1">
+        <v>8</v>
+      </c>
+      <c r="C184" s="1">
+        <v>15</v>
+      </c>
+      <c r="D184">
+        <v>1</v>
+      </c>
+      <c r="E184" t="s">
+        <v>16</v>
+      </c>
+      <c r="F184" t="s">
+        <v>10</v>
+      </c>
+      <c r="G184" t="s">
+        <v>11</v>
+      </c>
+      <c r="H184">
+        <v>300</v>
+      </c>
+      <c r="I184" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="185" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A185" s="1">
+        <v>184</v>
+      </c>
+      <c r="B185" s="1">
+        <v>8</v>
+      </c>
+      <c r="C185" s="1">
+        <v>16</v>
+      </c>
+      <c r="D185" s="4">
+        <v>1</v>
+      </c>
+      <c r="E185" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F185" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G185" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H185" s="4">
+        <v>200</v>
+      </c>
+      <c r="I185" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="186" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A186" s="1">
+        <v>185</v>
+      </c>
+      <c r="B186" s="1">
+        <v>8</v>
+      </c>
+      <c r="C186" s="1">
+        <v>17</v>
+      </c>
+      <c r="D186">
+        <v>1</v>
+      </c>
+      <c r="E186" t="s">
+        <v>17</v>
+      </c>
+      <c r="F186" t="s">
+        <v>18</v>
+      </c>
+      <c r="G186" t="s">
+        <v>19</v>
+      </c>
+      <c r="H186">
+        <v>300</v>
+      </c>
+      <c r="I186" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="187" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A187" s="1">
+        <v>186</v>
+      </c>
+      <c r="B187" s="1">
+        <v>8</v>
+      </c>
+      <c r="C187" s="1">
+        <v>18</v>
+      </c>
+      <c r="D187">
+        <v>1</v>
+      </c>
+      <c r="E187" t="s">
+        <v>20</v>
+      </c>
+      <c r="F187" t="s">
+        <v>18</v>
+      </c>
+      <c r="G187" t="s">
+        <v>19</v>
+      </c>
+      <c r="H187">
+        <v>400</v>
+      </c>
+      <c r="I187" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="188" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A188" s="1">
+        <v>187</v>
+      </c>
+      <c r="B188" s="1">
+        <v>8</v>
+      </c>
+      <c r="C188" s="1">
+        <v>19</v>
+      </c>
+      <c r="D188" s="4">
+        <v>1</v>
+      </c>
+      <c r="E188" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F188" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G188" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H188" s="4">
+        <v>200</v>
+      </c>
+      <c r="I188" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="189" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A189" s="1">
+        <v>188</v>
+      </c>
+      <c r="B189" s="1">
+        <v>8</v>
+      </c>
+      <c r="C189" s="1">
+        <v>20</v>
+      </c>
+      <c r="D189">
+        <v>1</v>
+      </c>
+      <c r="E189" t="s">
+        <v>9</v>
+      </c>
+      <c r="F189" t="s">
+        <v>10</v>
+      </c>
+      <c r="G189" t="s">
+        <v>11</v>
+      </c>
+      <c r="H189">
+        <v>300</v>
+      </c>
+      <c r="I189" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="190" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A190" s="1">
+        <v>189</v>
+      </c>
+      <c r="B190" s="1">
+        <v>8</v>
+      </c>
+      <c r="C190" s="1">
+        <v>23</v>
+      </c>
+      <c r="D190" s="4">
+        <v>1</v>
+      </c>
+      <c r="E190" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F190" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G190" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H190" s="4">
+        <v>200</v>
+      </c>
+      <c r="I190" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="191" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A191" s="1">
+        <v>190</v>
+      </c>
+      <c r="B191" s="1">
+        <v>8</v>
+      </c>
+      <c r="C191" s="1">
+        <v>24</v>
+      </c>
+      <c r="D191">
+        <v>1</v>
+      </c>
+      <c r="E191" t="s">
+        <v>29</v>
+      </c>
+      <c r="F191" t="s">
+        <v>18</v>
+      </c>
+      <c r="G191" t="s">
+        <v>19</v>
+      </c>
+      <c r="H191">
+        <v>300</v>
+      </c>
+      <c r="I191" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="192" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A192" s="1">
+        <v>191</v>
+      </c>
+      <c r="B192" s="1">
+        <v>8</v>
+      </c>
+      <c r="C192" s="1">
+        <v>25</v>
+      </c>
+      <c r="D192" s="4">
+        <v>1</v>
+      </c>
+      <c r="E192" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F192" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G192" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H192" s="4">
+        <v>200</v>
+      </c>
+      <c r="I192" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="193" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A193" s="1">
+        <v>192</v>
+      </c>
+      <c r="B193" s="1">
+        <v>8</v>
+      </c>
+      <c r="C193" s="1">
+        <v>26</v>
+      </c>
+      <c r="D193">
+        <v>1</v>
+      </c>
+      <c r="E193" t="s">
+        <v>17</v>
+      </c>
+      <c r="F193" t="s">
+        <v>18</v>
+      </c>
+      <c r="G193" t="s">
+        <v>19</v>
+      </c>
+      <c r="H193">
+        <v>300</v>
+      </c>
+      <c r="I193" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="194" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A194" s="1">
+        <v>193</v>
+      </c>
+      <c r="B194" s="1">
+        <v>8</v>
+      </c>
+      <c r="C194" s="1">
+        <v>27</v>
+      </c>
+      <c r="D194" s="4">
+        <v>1</v>
+      </c>
+      <c r="E194" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F194" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G194" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H194" s="4">
+        <v>200</v>
+      </c>
+      <c r="I194" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="195" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A195" s="1">
+        <v>194</v>
+      </c>
+      <c r="B195" s="1">
+        <v>8</v>
+      </c>
+      <c r="C195" s="1">
+        <v>28</v>
+      </c>
+      <c r="D195">
+        <v>1</v>
+      </c>
+      <c r="E195" t="s">
+        <v>9</v>
+      </c>
+      <c r="F195" t="s">
+        <v>10</v>
+      </c>
+      <c r="G195" t="s">
+        <v>11</v>
+      </c>
+      <c r="H195">
+        <v>300</v>
+      </c>
+      <c r="I195" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="196" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A196" s="1">
+        <v>195</v>
+      </c>
+      <c r="B196" s="1">
+        <v>8</v>
+      </c>
+      <c r="C196" s="1">
+        <v>30</v>
+      </c>
+      <c r="D196" s="4">
+        <v>1</v>
+      </c>
+      <c r="E196" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F196" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G196" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H196" s="4">
+        <v>200</v>
+      </c>
+      <c r="I196" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="197" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A197" s="1">
+        <v>196</v>
+      </c>
+      <c r="B197" s="1">
+        <v>8</v>
+      </c>
+      <c r="C197" s="1">
+        <v>31</v>
+      </c>
+      <c r="D197">
+        <v>1</v>
+      </c>
+      <c r="E197" t="s">
+        <v>17</v>
+      </c>
+      <c r="F197" t="s">
+        <v>18</v>
+      </c>
+      <c r="G197" t="s">
+        <v>19</v>
+      </c>
+      <c r="H197">
+        <v>300</v>
+      </c>
+      <c r="I197" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="198" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A198" s="1">
+        <v>197</v>
+      </c>
+      <c r="B198" s="1">
+        <v>8</v>
+      </c>
+      <c r="C198" s="1">
+        <v>32</v>
+      </c>
+      <c r="D198" s="4">
+        <v>1</v>
+      </c>
+      <c r="E198" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F198" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G198" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H198" s="4">
+        <v>200</v>
+      </c>
+      <c r="I198" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="199" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A199" s="1">
+        <v>198</v>
+      </c>
+      <c r="B199" s="1">
+        <v>8</v>
+      </c>
+      <c r="C199" s="1">
+        <v>33</v>
+      </c>
+      <c r="D199">
+        <v>1</v>
+      </c>
+      <c r="E199" t="s">
+        <v>17</v>
+      </c>
+      <c r="F199" t="s">
+        <v>18</v>
+      </c>
+      <c r="G199" t="s">
+        <v>19</v>
+      </c>
+      <c r="H199">
+        <v>300</v>
+      </c>
+      <c r="I199" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="200" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A200" s="1">
+        <v>199</v>
+      </c>
+      <c r="B200" s="1">
+        <v>8</v>
+      </c>
+      <c r="C200" s="1">
+        <v>34</v>
+      </c>
+      <c r="D200" s="4">
+        <v>1</v>
+      </c>
+      <c r="E200" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F200" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G200" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H200" s="4">
+        <v>200</v>
+      </c>
+      <c r="I200" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="201" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A201" s="1">
+        <v>200</v>
+      </c>
+      <c r="B201" s="1">
+        <v>8</v>
+      </c>
+      <c r="C201" s="1">
+        <v>35</v>
+      </c>
+      <c r="D201">
+        <v>1</v>
+      </c>
+      <c r="E201" t="s">
+        <v>9</v>
+      </c>
+      <c r="F201" t="s">
+        <v>10</v>
+      </c>
+      <c r="G201" t="s">
+        <v>11</v>
+      </c>
+      <c r="H201">
+        <v>300</v>
+      </c>
+      <c r="I201" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="202" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A202" s="1">
+        <v>201</v>
+      </c>
+      <c r="B202" s="1">
+        <v>8</v>
+      </c>
+      <c r="C202" s="1">
+        <v>36</v>
+      </c>
+      <c r="D202">
+        <v>1</v>
+      </c>
+      <c r="E202" t="s">
+        <v>15</v>
+      </c>
+      <c r="F202" t="s">
+        <v>10</v>
+      </c>
+      <c r="G202" t="s">
+        <v>11</v>
+      </c>
+      <c r="H202">
+        <v>400</v>
+      </c>
+      <c r="I202" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="203" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A203" s="1">
+        <v>202</v>
+      </c>
+      <c r="B203" s="1">
+        <v>8</v>
+      </c>
+      <c r="C203" s="1">
+        <v>37</v>
+      </c>
+      <c r="D203" s="4">
+        <v>1</v>
+      </c>
+      <c r="E203" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F203" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G203" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H203" s="4">
+        <v>200</v>
+      </c>
+      <c r="I203" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="204" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A204" s="1">
+        <v>203</v>
+      </c>
+      <c r="B204" s="1">
+        <v>8</v>
+      </c>
+      <c r="C204" s="1">
+        <v>43</v>
+      </c>
+      <c r="D204" s="4">
+        <v>1</v>
+      </c>
+      <c r="E204" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F204" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G204" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H204" s="4">
+        <v>200</v>
+      </c>
+      <c r="I204" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="205" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A205" s="1">
+        <v>204</v>
+      </c>
+      <c r="B205" s="1">
+        <v>8</v>
+      </c>
+      <c r="C205" s="1">
+        <v>43</v>
+      </c>
+      <c r="D205" s="4">
+        <v>1</v>
+      </c>
+      <c r="E205" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F205" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G205" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H205" s="4">
+        <v>200</v>
+      </c>
+      <c r="I205" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="206" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A206" s="1">
+        <v>205</v>
+      </c>
+      <c r="B206" s="1">
+        <v>8</v>
+      </c>
+      <c r="C206" s="4">
+        <v>44</v>
+      </c>
+      <c r="D206" s="4">
+        <v>1</v>
+      </c>
+      <c r="E206" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F206" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G206" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H206" s="4">
+        <v>200</v>
+      </c>
+      <c r="I206" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="207" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A207" s="1">
+        <v>206</v>
+      </c>
+      <c r="B207" s="1">
+        <v>8</v>
+      </c>
+      <c r="C207" s="1">
+        <v>44</v>
+      </c>
+      <c r="D207">
+        <v>1</v>
+      </c>
+      <c r="E207" t="s">
+        <v>9</v>
+      </c>
+      <c r="F207" t="s">
+        <v>10</v>
+      </c>
+      <c r="G207" t="s">
+        <v>11</v>
+      </c>
+      <c r="H207">
+        <v>300</v>
+      </c>
+      <c r="I207" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="208" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A208" s="1">
+        <v>207</v>
+      </c>
+      <c r="B208" s="1">
+        <v>8</v>
+      </c>
+      <c r="C208" s="4">
+        <v>45</v>
+      </c>
+      <c r="D208" s="4">
+        <v>1</v>
+      </c>
+      <c r="E208" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F208" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G208" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H208" s="4">
+        <v>200</v>
+      </c>
+      <c r="I208" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="209" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A209" s="1">
+        <v>208</v>
+      </c>
+      <c r="B209" s="1">
+        <v>8</v>
+      </c>
+      <c r="C209" s="1">
+        <v>45.5</v>
+      </c>
+      <c r="D209">
+        <v>1</v>
+      </c>
+      <c r="E209" t="s">
+        <v>17</v>
+      </c>
+      <c r="F209" t="s">
+        <v>18</v>
+      </c>
+      <c r="G209" t="s">
+        <v>19</v>
+      </c>
+      <c r="H209">
+        <v>400</v>
+      </c>
+      <c r="I209" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -7453,7 +8838,7 @@
   <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:I1"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8364,7 +9749,7 @@
   <dimension ref="A1:I56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8:I8"/>
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/StageData.xlsx
+++ b/StageData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Documents\Unreal Projects\petitcon21\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EAA6B4E-57CE-4AF8-B831-AF4509EC8D0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{927A6511-2A53-42A4-8E1B-98365BC94AFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="37815" yWindow="360" windowWidth="19395" windowHeight="15345" xr2:uid="{2A5FB008-7706-4DC0-AC1A-842182642272}"/>
+    <workbookView xWindow="37815" yWindow="360" windowWidth="19395" windowHeight="15345" activeTab="1" xr2:uid="{2A5FB008-7706-4DC0-AC1A-842182642272}"/>
   </bookViews>
   <sheets>
     <sheet name="作業中" sheetId="6" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1475" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1727" uniqueCount="58">
   <si>
     <t>Row Name</t>
   </si>
@@ -584,13 +584,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8CFAFC9-EAF1-40E4-8D59-0C784DC2BCCB}">
-  <dimension ref="A1:I66"/>
+  <dimension ref="A1:J98"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="8" ySplit="29" topLeftCell="I42" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane xSplit="8" ySplit="29" topLeftCell="I30" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A30" sqref="A30"/>
-      <selection pane="bottomRight" activeCell="E61" sqref="E61"/>
+      <selection pane="bottomRight" activeCell="B30" sqref="B30:I98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1452,7 +1452,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="1">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C30" s="1">
         <v>1</v>
@@ -1481,7 +1481,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="1">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C31" s="1">
         <v>2</v>
@@ -1510,7 +1510,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="1">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C32" s="1">
         <v>3</v>
@@ -1528,10 +1528,10 @@
         <v>11</v>
       </c>
       <c r="H32">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="I32" t="s">
-        <v>54</v>
+        <v>26</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
@@ -1539,28 +1539,28 @@
         <v>32</v>
       </c>
       <c r="B33" s="1">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C33" s="1">
-        <v>4</v>
-      </c>
-      <c r="D33" s="4">
-        <v>1</v>
-      </c>
-      <c r="E33" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="F33" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="G33" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="H33" s="4">
-        <v>200</v>
-      </c>
-      <c r="I33" s="4" t="s">
-        <v>40</v>
+        <v>4.5</v>
+      </c>
+      <c r="D33">
+        <v>2</v>
+      </c>
+      <c r="E33" t="s">
+        <v>12</v>
+      </c>
+      <c r="F33" t="s">
+        <v>13</v>
+      </c>
+      <c r="G33" t="s">
+        <v>14</v>
+      </c>
+      <c r="H33">
+        <v>1200</v>
+      </c>
+      <c r="I33" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
@@ -1568,28 +1568,28 @@
         <v>33</v>
       </c>
       <c r="B34" s="1">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C34" s="1">
-        <v>5</v>
-      </c>
-      <c r="D34">
-        <v>1</v>
-      </c>
-      <c r="E34" t="s">
-        <v>17</v>
-      </c>
-      <c r="F34" t="s">
+        <v>4</v>
+      </c>
+      <c r="D34" s="4">
+        <v>1</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F34" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="G34" t="s">
+      <c r="G34" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="H34">
-        <v>300</v>
-      </c>
-      <c r="I34" t="s">
-        <v>27</v>
+      <c r="H34" s="4">
+        <v>200</v>
+      </c>
+      <c r="I34" s="4" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
@@ -1597,28 +1597,28 @@
         <v>34</v>
       </c>
       <c r="B35" s="1">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C35" s="1">
-        <v>6</v>
-      </c>
-      <c r="D35">
-        <v>1</v>
-      </c>
-      <c r="E35" t="s">
-        <v>29</v>
-      </c>
-      <c r="F35" t="s">
-        <v>18</v>
-      </c>
-      <c r="G35" t="s">
-        <v>19</v>
-      </c>
-      <c r="H35">
-        <v>400</v>
-      </c>
-      <c r="I35" t="s">
-        <v>57</v>
+        <v>4.5</v>
+      </c>
+      <c r="D35" s="4">
+        <v>1</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F35" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G35" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H35" s="4">
+        <v>200</v>
+      </c>
+      <c r="I35" s="4" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
@@ -1626,28 +1626,28 @@
         <v>35</v>
       </c>
       <c r="B36" s="1">
-        <v>8</v>
-      </c>
-      <c r="C36" s="1">
-        <v>7</v>
+        <v>9</v>
+      </c>
+      <c r="C36" s="4">
+        <v>5</v>
       </c>
       <c r="D36" s="4">
         <v>1</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G36" s="4" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="H36" s="4">
         <v>200</v>
       </c>
       <c r="I36" s="4" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
@@ -1655,28 +1655,28 @@
         <v>36</v>
       </c>
       <c r="B37" s="1">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C37" s="1">
-        <v>8</v>
+        <v>5.5</v>
       </c>
       <c r="D37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E37" t="s">
-        <v>9</v>
+        <v>47</v>
       </c>
       <c r="F37" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G37" t="s">
-        <v>11</v>
+        <v>46</v>
       </c>
       <c r="H37">
-        <v>300</v>
+        <v>1000</v>
       </c>
       <c r="I37" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
@@ -1684,10 +1684,10 @@
         <v>37</v>
       </c>
       <c r="B38" s="1">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C38" s="1">
-        <v>12</v>
+        <v>6.5</v>
       </c>
       <c r="D38">
         <v>1</v>
@@ -1713,28 +1713,28 @@
         <v>38</v>
       </c>
       <c r="B39" s="1">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C39" s="1">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D39" s="4">
         <v>1</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G39" s="4" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="H39" s="4">
         <v>200</v>
       </c>
       <c r="I39" s="4" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
@@ -1742,10 +1742,10 @@
         <v>39</v>
       </c>
       <c r="B40" s="1">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C40" s="1">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D40" s="4">
         <v>1</v>
@@ -1771,16 +1771,16 @@
         <v>40</v>
       </c>
       <c r="B41" s="1">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C41" s="1">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D41">
         <v>1</v>
       </c>
       <c r="E41" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="F41" t="s">
         <v>10</v>
@@ -1792,7 +1792,7 @@
         <v>300</v>
       </c>
       <c r="I41" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
@@ -1800,10 +1800,10 @@
         <v>41</v>
       </c>
       <c r="B42" s="1">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C42" s="1">
-        <v>16</v>
+        <v>10.5</v>
       </c>
       <c r="D42" s="4">
         <v>1</v>
@@ -1829,16 +1829,16 @@
         <v>42</v>
       </c>
       <c r="B43" s="1">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C43" s="1">
-        <v>17</v>
+        <v>11.5</v>
       </c>
       <c r="D43">
         <v>1</v>
       </c>
       <c r="E43" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F43" t="s">
         <v>18</v>
@@ -1850,7 +1850,7 @@
         <v>300</v>
       </c>
       <c r="I43" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
@@ -1858,28 +1858,28 @@
         <v>43</v>
       </c>
       <c r="B44" s="1">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C44" s="1">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D44">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E44" t="s">
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="F44" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="G44" t="s">
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="H44">
-        <v>400</v>
+        <v>1200</v>
       </c>
       <c r="I44" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
@@ -1887,16 +1887,16 @@
         <v>44</v>
       </c>
       <c r="B45" s="1">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C45" s="1">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D45" s="4">
         <v>1</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F45" s="4" t="s">
         <v>10</v>
@@ -1908,7 +1908,7 @@
         <v>200</v>
       </c>
       <c r="I45" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
@@ -1916,10 +1916,10 @@
         <v>45</v>
       </c>
       <c r="B46" s="1">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C46" s="1">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D46">
         <v>1</v>
@@ -1945,28 +1945,28 @@
         <v>46</v>
       </c>
       <c r="B47" s="1">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C47" s="1">
-        <v>23</v>
-      </c>
-      <c r="D47" s="4">
-        <v>1</v>
-      </c>
-      <c r="E47" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F47" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="G47" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="H47" s="4">
-        <v>200</v>
-      </c>
-      <c r="I47" s="4" t="s">
-        <v>39</v>
+        <v>16</v>
+      </c>
+      <c r="D47">
+        <v>1</v>
+      </c>
+      <c r="E47" t="s">
+        <v>15</v>
+      </c>
+      <c r="F47" t="s">
+        <v>10</v>
+      </c>
+      <c r="G47" t="s">
+        <v>11</v>
+      </c>
+      <c r="H47">
+        <v>400</v>
+      </c>
+      <c r="I47" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
@@ -1974,28 +1974,28 @@
         <v>47</v>
       </c>
       <c r="B48" s="1">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C48" s="1">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="D48">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E48" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="F48" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="G48" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="H48">
-        <v>300</v>
+        <v>1100</v>
       </c>
       <c r="I48" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
@@ -2003,16 +2003,16 @@
         <v>48</v>
       </c>
       <c r="B49" s="1">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C49" s="1">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D49" s="4">
         <v>1</v>
       </c>
       <c r="E49" s="4" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="F49" s="4" t="s">
         <v>10</v>
@@ -2024,7 +2024,7 @@
         <v>200</v>
       </c>
       <c r="I49" s="4" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
@@ -2032,28 +2032,28 @@
         <v>49</v>
       </c>
       <c r="B50" s="1">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C50" s="1">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="D50">
         <v>1</v>
       </c>
       <c r="E50" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="F50" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G50" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="H50">
         <v>300</v>
       </c>
       <c r="I50" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
@@ -2061,28 +2061,28 @@
         <v>50</v>
       </c>
       <c r="B51" s="1">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C51" s="1">
-        <v>27</v>
-      </c>
-      <c r="D51" s="4">
-        <v>1</v>
-      </c>
-      <c r="E51" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F51" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G51" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="H51" s="4">
-        <v>200</v>
-      </c>
-      <c r="I51" s="4" t="s">
-        <v>32</v>
+        <v>20.5</v>
+      </c>
+      <c r="D51">
+        <v>1</v>
+      </c>
+      <c r="E51" t="s">
+        <v>15</v>
+      </c>
+      <c r="F51" t="s">
+        <v>10</v>
+      </c>
+      <c r="G51" t="s">
+        <v>11</v>
+      </c>
+      <c r="H51">
+        <v>300</v>
+      </c>
+      <c r="I51" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
@@ -2090,16 +2090,16 @@
         <v>51</v>
       </c>
       <c r="B52" s="1">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C52" s="1">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="D52">
         <v>1</v>
       </c>
       <c r="E52" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="F52" t="s">
         <v>10</v>
@@ -2111,7 +2111,7 @@
         <v>300</v>
       </c>
       <c r="I52" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
@@ -2119,28 +2119,28 @@
         <v>52</v>
       </c>
       <c r="B53" s="1">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C53" s="1">
-        <v>30</v>
-      </c>
-      <c r="D53" s="4">
-        <v>1</v>
-      </c>
-      <c r="E53" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="F53" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="G53" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="H53" s="4">
-        <v>200</v>
-      </c>
-      <c r="I53" s="4" t="s">
-        <v>40</v>
+        <v>22</v>
+      </c>
+      <c r="D53">
+        <v>1</v>
+      </c>
+      <c r="E53" t="s">
+        <v>9</v>
+      </c>
+      <c r="F53" t="s">
+        <v>10</v>
+      </c>
+      <c r="G53" t="s">
+        <v>11</v>
+      </c>
+      <c r="H53">
+        <v>300</v>
+      </c>
+      <c r="I53" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
@@ -2148,28 +2148,28 @@
         <v>53</v>
       </c>
       <c r="B54" s="1">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C54" s="1">
-        <v>31</v>
+        <v>22.5</v>
       </c>
       <c r="D54">
         <v>1</v>
       </c>
       <c r="E54" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F54" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G54" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="H54">
         <v>300</v>
       </c>
       <c r="I54" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
@@ -2177,28 +2177,28 @@
         <v>54</v>
       </c>
       <c r="B55" s="1">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C55" s="1">
-        <v>32</v>
-      </c>
-      <c r="D55" s="4">
-        <v>1</v>
-      </c>
-      <c r="E55" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D55">
+        <v>1</v>
+      </c>
+      <c r="E55" t="s">
         <v>16</v>
       </c>
-      <c r="F55" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G55" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="H55" s="4">
-        <v>200</v>
-      </c>
-      <c r="I55" s="4" t="s">
-        <v>32</v>
+      <c r="F55" t="s">
+        <v>10</v>
+      </c>
+      <c r="G55" t="s">
+        <v>11</v>
+      </c>
+      <c r="H55">
+        <v>400</v>
+      </c>
+      <c r="I55" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
@@ -2206,28 +2206,28 @@
         <v>55</v>
       </c>
       <c r="B56" s="1">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C56" s="1">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="D56">
         <v>1</v>
       </c>
       <c r="E56" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="F56" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G56" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="H56">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="I56" t="s">
-        <v>27</v>
+        <v>53</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
@@ -2235,28 +2235,28 @@
         <v>56</v>
       </c>
       <c r="B57" s="1">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C57" s="1">
-        <v>34</v>
-      </c>
-      <c r="D57" s="4">
-        <v>1</v>
-      </c>
-      <c r="E57" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F57" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G57" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="H57" s="4">
-        <v>200</v>
-      </c>
-      <c r="I57" s="4" t="s">
-        <v>32</v>
+        <v>25</v>
+      </c>
+      <c r="D57">
+        <v>1</v>
+      </c>
+      <c r="E57" t="s">
+        <v>15</v>
+      </c>
+      <c r="F57" t="s">
+        <v>10</v>
+      </c>
+      <c r="G57" t="s">
+        <v>11</v>
+      </c>
+      <c r="H57">
+        <v>400</v>
+      </c>
+      <c r="I57" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
@@ -2264,28 +2264,28 @@
         <v>57</v>
       </c>
       <c r="B58" s="1">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C58" s="1">
-        <v>35</v>
+        <v>25.5</v>
       </c>
       <c r="D58">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E58" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="F58" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G58" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="H58">
-        <v>300</v>
+        <v>1000</v>
       </c>
       <c r="I58" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
@@ -2293,28 +2293,28 @@
         <v>58</v>
       </c>
       <c r="B59" s="1">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C59" s="1">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="D59">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E59" t="s">
-        <v>15</v>
+        <v>49</v>
       </c>
       <c r="F59" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G59" t="s">
-        <v>11</v>
+        <v>46</v>
       </c>
       <c r="H59">
-        <v>400</v>
+        <v>1100</v>
       </c>
       <c r="I59" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
@@ -2322,28 +2322,28 @@
         <v>59</v>
       </c>
       <c r="B60" s="1">
-        <v>8</v>
-      </c>
-      <c r="C60" s="1">
-        <v>37</v>
+        <v>9</v>
+      </c>
+      <c r="C60" s="4">
+        <v>26.5</v>
       </c>
       <c r="D60" s="4">
         <v>1</v>
       </c>
       <c r="E60" s="4" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="F60" s="4" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G60" s="4" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="H60" s="4">
         <v>200</v>
       </c>
       <c r="I60" s="4" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
@@ -2351,28 +2351,28 @@
         <v>60</v>
       </c>
       <c r="B61" s="1">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C61" s="1">
-        <v>43</v>
-      </c>
-      <c r="D61" s="4">
-        <v>1</v>
-      </c>
-      <c r="E61" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="F61" s="4" t="s">
+        <v>27.5</v>
+      </c>
+      <c r="D61">
+        <v>1</v>
+      </c>
+      <c r="E61" t="s">
+        <v>29</v>
+      </c>
+      <c r="F61" t="s">
         <v>18</v>
       </c>
-      <c r="G61" s="4" t="s">
+      <c r="G61" t="s">
         <v>19</v>
       </c>
-      <c r="H61" s="4">
-        <v>200</v>
-      </c>
-      <c r="I61" s="4" t="s">
-        <v>40</v>
+      <c r="H61">
+        <v>300</v>
+      </c>
+      <c r="I61" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
@@ -2380,28 +2380,28 @@
         <v>61</v>
       </c>
       <c r="B62" s="1">
-        <v>8</v>
-      </c>
-      <c r="C62" s="1">
-        <v>43</v>
+        <v>9</v>
+      </c>
+      <c r="C62" s="4">
+        <v>30</v>
       </c>
       <c r="D62" s="4">
         <v>1</v>
       </c>
       <c r="E62" s="4" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="F62" s="4" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G62" s="4" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="H62" s="4">
         <v>200</v>
       </c>
       <c r="I62" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
@@ -2409,28 +2409,28 @@
         <v>62</v>
       </c>
       <c r="B63" s="1">
-        <v>8</v>
-      </c>
-      <c r="C63" s="4">
-        <v>44</v>
-      </c>
-      <c r="D63" s="4">
-        <v>1</v>
-      </c>
-      <c r="E63" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="F63" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="G63" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="H63" s="4">
-        <v>200</v>
-      </c>
-      <c r="I63" s="4" t="s">
-        <v>30</v>
+        <v>9</v>
+      </c>
+      <c r="C63" s="1">
+        <v>31</v>
+      </c>
+      <c r="D63">
+        <v>1</v>
+      </c>
+      <c r="E63" t="s">
+        <v>9</v>
+      </c>
+      <c r="F63" t="s">
+        <v>10</v>
+      </c>
+      <c r="G63" t="s">
+        <v>11</v>
+      </c>
+      <c r="H63">
+        <v>300</v>
+      </c>
+      <c r="I63" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
@@ -2438,16 +2438,16 @@
         <v>63</v>
       </c>
       <c r="B64" s="1">
-        <v>8</v>
-      </c>
-      <c r="C64" s="1">
-        <v>44</v>
+        <v>9</v>
+      </c>
+      <c r="C64" s="4">
+        <v>32</v>
       </c>
       <c r="D64">
         <v>1</v>
       </c>
       <c r="E64" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="F64" t="s">
         <v>10</v>
@@ -2456,68 +2456,1133 @@
         <v>11</v>
       </c>
       <c r="H64">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="I64" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>64</v>
       </c>
       <c r="B65" s="1">
-        <v>8</v>
-      </c>
-      <c r="C65" s="4">
-        <v>45</v>
-      </c>
-      <c r="D65" s="4">
-        <v>1</v>
-      </c>
-      <c r="E65" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F65" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G65" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="H65" s="4">
-        <v>200</v>
-      </c>
-      <c r="I65" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C65" s="1">
         <v>33</v>
       </c>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D65">
+        <v>1</v>
+      </c>
+      <c r="E65" t="s">
+        <v>16</v>
+      </c>
+      <c r="F65" t="s">
+        <v>10</v>
+      </c>
+      <c r="G65" t="s">
+        <v>11</v>
+      </c>
+      <c r="H65">
+        <v>400</v>
+      </c>
+      <c r="I65" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>65</v>
       </c>
       <c r="B66" s="1">
-        <v>8</v>
-      </c>
-      <c r="C66" s="1">
-        <v>45.5</v>
+        <v>9</v>
+      </c>
+      <c r="C66" s="4">
+        <v>34</v>
       </c>
       <c r="D66">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E66" t="s">
+        <v>47</v>
+      </c>
+      <c r="F66" t="s">
+        <v>22</v>
+      </c>
+      <c r="G66" t="s">
+        <v>46</v>
+      </c>
+      <c r="H66">
+        <v>1000</v>
+      </c>
+      <c r="I66" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A67" s="1">
+        <v>66</v>
+      </c>
+      <c r="B67" s="1">
+        <v>9</v>
+      </c>
+      <c r="C67" s="1">
+        <v>35</v>
+      </c>
+      <c r="D67">
+        <v>2</v>
+      </c>
+      <c r="E67" t="s">
+        <v>48</v>
+      </c>
+      <c r="F67" t="s">
+        <v>13</v>
+      </c>
+      <c r="G67" t="s">
+        <v>46</v>
+      </c>
+      <c r="H67">
+        <v>1200</v>
+      </c>
+      <c r="I67" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A68" s="1">
+        <v>67</v>
+      </c>
+      <c r="B68" s="1">
+        <v>9</v>
+      </c>
+      <c r="C68" s="4">
+        <v>36</v>
+      </c>
+      <c r="D68">
+        <v>2</v>
+      </c>
+      <c r="E68" t="s">
+        <v>47</v>
+      </c>
+      <c r="F68" t="s">
+        <v>22</v>
+      </c>
+      <c r="G68" t="s">
+        <v>46</v>
+      </c>
+      <c r="H68">
+        <v>1200</v>
+      </c>
+      <c r="I68" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A69" s="1">
+        <v>68</v>
+      </c>
+      <c r="B69" s="1">
+        <v>9</v>
+      </c>
+      <c r="C69" s="1">
+        <v>37</v>
+      </c>
+      <c r="D69">
+        <v>1</v>
+      </c>
+      <c r="E69" t="s">
+        <v>29</v>
+      </c>
+      <c r="F69" t="s">
+        <v>18</v>
+      </c>
+      <c r="G69" t="s">
+        <v>19</v>
+      </c>
+      <c r="H69">
+        <v>300</v>
+      </c>
+      <c r="I69" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A70" s="1">
+        <v>69</v>
+      </c>
+      <c r="B70" s="1">
+        <v>9</v>
+      </c>
+      <c r="C70" s="4">
+        <v>38</v>
+      </c>
+      <c r="D70">
+        <v>1</v>
+      </c>
+      <c r="E70" t="s">
+        <v>9</v>
+      </c>
+      <c r="F70" t="s">
+        <v>10</v>
+      </c>
+      <c r="G70" t="s">
+        <v>11</v>
+      </c>
+      <c r="H70">
+        <v>300</v>
+      </c>
+      <c r="I70" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A71" s="1">
+        <v>70</v>
+      </c>
+      <c r="B71" s="1">
+        <v>9</v>
+      </c>
+      <c r="C71" s="1">
+        <v>39</v>
+      </c>
+      <c r="D71">
+        <v>2</v>
+      </c>
+      <c r="E71" t="s">
+        <v>49</v>
+      </c>
+      <c r="F71" t="s">
+        <v>13</v>
+      </c>
+      <c r="G71" t="s">
+        <v>46</v>
+      </c>
+      <c r="H71">
+        <v>1100</v>
+      </c>
+      <c r="I71" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A72" s="1">
+        <v>71</v>
+      </c>
+      <c r="B72" s="1">
+        <v>9</v>
+      </c>
+      <c r="C72" s="4">
+        <v>40</v>
+      </c>
+      <c r="D72">
+        <v>1</v>
+      </c>
+      <c r="E72" t="s">
+        <v>9</v>
+      </c>
+      <c r="F72" t="s">
+        <v>10</v>
+      </c>
+      <c r="G72" t="s">
+        <v>11</v>
+      </c>
+      <c r="H72">
+        <v>400</v>
+      </c>
+      <c r="I72" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A73" s="1">
+        <v>72</v>
+      </c>
+      <c r="B73" s="1">
+        <v>9</v>
+      </c>
+      <c r="C73" s="1">
+        <v>41</v>
+      </c>
+      <c r="D73" s="4">
+        <v>1</v>
+      </c>
+      <c r="E73" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="F66" t="s">
+      <c r="F73" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="G66" t="s">
+      <c r="G73" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="H66">
+      <c r="H73" s="4">
+        <v>200</v>
+      </c>
+      <c r="I73" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A74" s="1">
+        <v>73</v>
+      </c>
+      <c r="B74" s="1">
+        <v>9</v>
+      </c>
+      <c r="C74" s="1">
+        <v>44</v>
+      </c>
+      <c r="D74" s="4">
+        <v>1</v>
+      </c>
+      <c r="E74" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F74" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G74" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H74" s="4">
+        <v>200</v>
+      </c>
+      <c r="I74" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="J74" s="4"/>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A75" s="1">
+        <v>74</v>
+      </c>
+      <c r="B75" s="1">
+        <v>9</v>
+      </c>
+      <c r="C75" s="1">
+        <v>44</v>
+      </c>
+      <c r="D75" s="4">
+        <v>1</v>
+      </c>
+      <c r="E75" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F75" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G75" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H75" s="4">
+        <v>200</v>
+      </c>
+      <c r="I75" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="J75" s="4"/>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A76" s="1">
+        <v>75</v>
+      </c>
+      <c r="B76" s="1">
+        <v>9</v>
+      </c>
+      <c r="C76" s="4">
+        <v>45</v>
+      </c>
+      <c r="D76" s="4">
+        <v>1</v>
+      </c>
+      <c r="E76" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F76" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G76" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H76" s="4">
+        <v>200</v>
+      </c>
+      <c r="I76" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="J76" s="4"/>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A77" s="1">
+        <v>76</v>
+      </c>
+      <c r="B77" s="1">
+        <v>9</v>
+      </c>
+      <c r="C77" s="1">
+        <v>45</v>
+      </c>
+      <c r="D77">
+        <v>1</v>
+      </c>
+      <c r="E77" t="s">
+        <v>9</v>
+      </c>
+      <c r="F77" t="s">
+        <v>10</v>
+      </c>
+      <c r="G77" t="s">
+        <v>11</v>
+      </c>
+      <c r="H77">
+        <v>300</v>
+      </c>
+      <c r="I77" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A78" s="1">
+        <v>77</v>
+      </c>
+      <c r="B78" s="1">
+        <v>9</v>
+      </c>
+      <c r="C78" s="4">
+        <v>46</v>
+      </c>
+      <c r="D78" s="4">
+        <v>1</v>
+      </c>
+      <c r="E78" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F78" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G78" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H78" s="4">
+        <v>200</v>
+      </c>
+      <c r="I78" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="J78" s="4"/>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A79" s="1">
+        <v>78</v>
+      </c>
+      <c r="B79" s="1">
+        <v>9</v>
+      </c>
+      <c r="C79" s="1">
+        <v>46.5</v>
+      </c>
+      <c r="D79">
+        <v>2</v>
+      </c>
+      <c r="E79" t="s">
+        <v>48</v>
+      </c>
+      <c r="F79" t="s">
+        <v>13</v>
+      </c>
+      <c r="G79" t="s">
+        <v>46</v>
+      </c>
+      <c r="H79">
+        <v>1200</v>
+      </c>
+      <c r="I79" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A80" s="1">
+        <v>79</v>
+      </c>
+      <c r="B80" s="1">
+        <v>9</v>
+      </c>
+      <c r="C80" s="1">
+        <f>C30+48</f>
+        <v>49</v>
+      </c>
+      <c r="D80">
+        <f>D30</f>
+        <v>1</v>
+      </c>
+      <c r="E80" t="str">
+        <f>E30</f>
+        <v>(X=0,Y=-600,Z=103)</v>
+      </c>
+      <c r="F80" t="str">
+        <f>F30</f>
+        <v>(Pitch=0,Yaw=90,Roll=0)</v>
+      </c>
+      <c r="G80" t="str">
+        <f>G30</f>
+        <v>(X=0,Y=1,Z=0)</v>
+      </c>
+      <c r="H80">
+        <f>H30</f>
+        <v>200</v>
+      </c>
+      <c r="I80" t="str">
+        <f>I30</f>
+        <v>右中段 遅い</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A81" s="1">
+        <v>80</v>
+      </c>
+      <c r="B81" s="1">
+        <v>9</v>
+      </c>
+      <c r="C81" s="1">
+        <f>C31+48</f>
+        <v>50</v>
+      </c>
+      <c r="D81">
+        <f>D31</f>
+        <v>1</v>
+      </c>
+      <c r="E81" t="str">
+        <f>E31</f>
+        <v>(X=0,Y=-600,Z=163)</v>
+      </c>
+      <c r="F81" t="str">
+        <f>F31</f>
+        <v>(Pitch=0,Yaw=90,Roll=0)</v>
+      </c>
+      <c r="G81" t="str">
+        <f>G31</f>
+        <v>(X=0,Y=1,Z=0)</v>
+      </c>
+      <c r="H81">
+        <f>H31</f>
+        <v>300</v>
+      </c>
+      <c r="I81" t="str">
+        <f>I31</f>
+        <v>右上段 普通</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A82" s="1">
+        <v>81</v>
+      </c>
+      <c r="B82" s="1">
+        <v>9</v>
+      </c>
+      <c r="C82" s="1">
+        <f>C32+48</f>
+        <v>51</v>
+      </c>
+      <c r="D82">
+        <f>D32</f>
+        <v>1</v>
+      </c>
+      <c r="E82" t="str">
+        <f>E32</f>
+        <v>(X=0,Y=-600,Z=43)</v>
+      </c>
+      <c r="F82" t="str">
+        <f>F32</f>
+        <v>(Pitch=0,Yaw=90,Roll=0)</v>
+      </c>
+      <c r="G82" t="str">
+        <f>G32</f>
+        <v>(X=0,Y=1,Z=0)</v>
+      </c>
+      <c r="H82">
+        <f>H32</f>
+        <v>300</v>
+      </c>
+      <c r="I82" t="str">
+        <f>I32</f>
+        <v>右下段 普通</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A83" s="1">
+        <v>82</v>
+      </c>
+      <c r="B83" s="1">
+        <v>9</v>
+      </c>
+      <c r="C83" s="1">
+        <f>C33+48</f>
+        <v>52.5</v>
+      </c>
+      <c r="D83">
+        <f>D33</f>
+        <v>2</v>
+      </c>
+      <c r="E83" t="str">
+        <f>E33</f>
+        <v>(X=0,Y=-500,Z=60)</v>
+      </c>
+      <c r="F83" t="str">
+        <f>F33</f>
+        <v>(Pitch=-45,Yaw=90,Roll=0)</v>
+      </c>
+      <c r="G83" t="str">
+        <f>G33</f>
+        <v>(X=0,Y=2,Z=1)</v>
+      </c>
+      <c r="H83">
+        <f>H33</f>
+        <v>1200</v>
+      </c>
+      <c r="I83" t="str">
+        <f>I33</f>
+        <v>右上段に真横に飛んでくる 身体に当たる</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A84" s="1">
+        <v>83</v>
+      </c>
+      <c r="B84" s="1">
+        <v>9</v>
+      </c>
+      <c r="C84" s="1">
+        <f>C34+48</f>
+        <v>52</v>
+      </c>
+      <c r="D84">
+        <f>D34</f>
+        <v>1</v>
+      </c>
+      <c r="E84" t="str">
+        <f>E34</f>
+        <v>(X=0,Y=600,Z=163)</v>
+      </c>
+      <c r="F84" t="str">
+        <f>F34</f>
+        <v>(Pitch=0,Yaw=-90,Roll=0)</v>
+      </c>
+      <c r="G84" t="str">
+        <f>G34</f>
+        <v>(X=0,Y=-1,Z=0)</v>
+      </c>
+      <c r="H84">
+        <f>H34</f>
+        <v>200</v>
+      </c>
+      <c r="I84" t="str">
+        <f>I34</f>
+        <v>左上段 遅い</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A85" s="1">
+        <v>84</v>
+      </c>
+      <c r="B85" s="1">
+        <v>9</v>
+      </c>
+      <c r="C85" s="1">
+        <f>C35+48</f>
+        <v>52.5</v>
+      </c>
+      <c r="D85">
+        <f>D35</f>
+        <v>1</v>
+      </c>
+      <c r="E85" t="str">
+        <f>E35</f>
+        <v>(X=0,Y=-600,Z=163)</v>
+      </c>
+      <c r="F85" t="str">
+        <f>F35</f>
+        <v>(Pitch=0,Yaw=90,Roll=0)</v>
+      </c>
+      <c r="G85" t="str">
+        <f>G35</f>
+        <v>(X=0,Y=1,Z=0)</v>
+      </c>
+      <c r="H85">
+        <f>H35</f>
+        <v>200</v>
+      </c>
+      <c r="I85" t="str">
+        <f>I35</f>
+        <v>右上段 遅い</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A86" s="1">
+        <v>85</v>
+      </c>
+      <c r="B86" s="1">
+        <v>9</v>
+      </c>
+      <c r="C86" s="1">
+        <f>C36+48</f>
+        <v>53</v>
+      </c>
+      <c r="D86">
+        <f>D36</f>
+        <v>1</v>
+      </c>
+      <c r="E86" t="str">
+        <f>E36</f>
+        <v>(X=0,Y=600,Z=103)</v>
+      </c>
+      <c r="F86" t="str">
+        <f>F36</f>
+        <v>(Pitch=0,Yaw=-90,Roll=0)</v>
+      </c>
+      <c r="G86" t="str">
+        <f>G36</f>
+        <v>(X=0,Y=-1,Z=0)</v>
+      </c>
+      <c r="H86">
+        <f>H36</f>
+        <v>200</v>
+      </c>
+      <c r="I86" t="str">
+        <f>I36</f>
+        <v>左中段 遅い</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A87" s="1">
+        <v>86</v>
+      </c>
+      <c r="B87" s="1">
+        <v>9</v>
+      </c>
+      <c r="C87" s="1">
+        <f>C37+48</f>
+        <v>53.5</v>
+      </c>
+      <c r="D87">
+        <f>D37</f>
+        <v>2</v>
+      </c>
+      <c r="E87" t="str">
+        <f>E37</f>
+        <v>(X=0,Y=500,Z=100)</v>
+      </c>
+      <c r="F87" t="str">
+        <f>F37</f>
+        <v>(Pitch=45,Yaw=90,Roll=0)</v>
+      </c>
+      <c r="G87" t="str">
+        <f>G37</f>
+        <v>(X=0,Y=-2,Z=1)</v>
+      </c>
+      <c r="H87">
+        <f>H37</f>
+        <v>1000</v>
+      </c>
+      <c r="I87" t="str">
+        <f>I37</f>
+        <v>左中段から手前に落ちる</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A88" s="1">
+        <v>87</v>
+      </c>
+      <c r="B88" s="1">
+        <v>9</v>
+      </c>
+      <c r="C88" s="1">
+        <f>C38+48</f>
+        <v>54.5</v>
+      </c>
+      <c r="D88">
+        <f>D38</f>
+        <v>1</v>
+      </c>
+      <c r="E88" t="str">
+        <f>E38</f>
+        <v>(X=0,Y=600,Z=43)</v>
+      </c>
+      <c r="F88" t="str">
+        <f>F38</f>
+        <v>(Pitch=0,Yaw=-90,Roll=0)</v>
+      </c>
+      <c r="G88" t="str">
+        <f>G38</f>
+        <v>(X=0,Y=-1,Z=0)</v>
+      </c>
+      <c r="H88">
+        <f>H38</f>
+        <v>300</v>
+      </c>
+      <c r="I88" t="str">
+        <f>I38</f>
+        <v>左下段 普通</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A89" s="1">
+        <v>88</v>
+      </c>
+      <c r="B89" s="1">
+        <v>9</v>
+      </c>
+      <c r="C89" s="1">
+        <f>C39+48</f>
+        <v>57</v>
+      </c>
+      <c r="D89">
+        <f>D39</f>
+        <v>1</v>
+      </c>
+      <c r="E89" t="str">
+        <f>E39</f>
+        <v>(X=0,Y=-600,Z=163)</v>
+      </c>
+      <c r="F89" t="str">
+        <f>F39</f>
+        <v>(Pitch=0,Yaw=90,Roll=0)</v>
+      </c>
+      <c r="G89" t="str">
+        <f>G39</f>
+        <v>(X=0,Y=1,Z=0)</v>
+      </c>
+      <c r="H89">
+        <f>H39</f>
+        <v>200</v>
+      </c>
+      <c r="I89" t="str">
+        <f>I39</f>
+        <v>右上段 遅い</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A90" s="1">
+        <v>89</v>
+      </c>
+      <c r="B90" s="1">
+        <v>9</v>
+      </c>
+      <c r="C90" s="1">
+        <f>C40+48</f>
+        <v>57</v>
+      </c>
+      <c r="D90">
+        <f>D40</f>
+        <v>1</v>
+      </c>
+      <c r="E90" t="str">
+        <f>E40</f>
+        <v>(X=0,Y=600,Z=103)</v>
+      </c>
+      <c r="F90" t="str">
+        <f>F40</f>
+        <v>(Pitch=0,Yaw=-90,Roll=0)</v>
+      </c>
+      <c r="G90" t="str">
+        <f>G40</f>
+        <v>(X=0,Y=-1,Z=0)</v>
+      </c>
+      <c r="H90">
+        <f>H40</f>
+        <v>200</v>
+      </c>
+      <c r="I90" t="str">
+        <f>I40</f>
+        <v>左中段 遅い</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A91" s="1">
+        <v>90</v>
+      </c>
+      <c r="B91" s="1">
+        <v>9</v>
+      </c>
+      <c r="C91" s="1">
+        <f>C41+48</f>
+        <v>58</v>
+      </c>
+      <c r="D91">
+        <f>D41</f>
+        <v>1</v>
+      </c>
+      <c r="E91" t="str">
+        <f>E41</f>
+        <v>(X=0,Y=-600,Z=103)</v>
+      </c>
+      <c r="F91" t="str">
+        <f>F41</f>
+        <v>(Pitch=0,Yaw=90,Roll=0)</v>
+      </c>
+      <c r="G91" t="str">
+        <f>G41</f>
+        <v>(X=0,Y=1,Z=0)</v>
+      </c>
+      <c r="H91">
+        <f>H41</f>
+        <v>300</v>
+      </c>
+      <c r="I91" t="str">
+        <f>I41</f>
+        <v>右中段 普通</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A92" s="1">
+        <v>91</v>
+      </c>
+      <c r="B92" s="1">
+        <v>9</v>
+      </c>
+      <c r="C92" s="1">
+        <f>C42+48</f>
+        <v>58.5</v>
+      </c>
+      <c r="D92">
+        <f>D42</f>
+        <v>1</v>
+      </c>
+      <c r="E92" t="str">
+        <f>E42</f>
+        <v>(X=0,Y=600,Z=43)</v>
+      </c>
+      <c r="F92" t="str">
+        <f>F42</f>
+        <v>(Pitch=0,Yaw=-90,Roll=0)</v>
+      </c>
+      <c r="G92" t="str">
+        <f>G42</f>
+        <v>(X=0,Y=-1,Z=0)</v>
+      </c>
+      <c r="H92">
+        <f>H42</f>
+        <v>200</v>
+      </c>
+      <c r="I92" t="str">
+        <f>I42</f>
+        <v>左下段 遅い</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A93" s="1">
+        <v>92</v>
+      </c>
+      <c r="B93" s="1">
+        <v>9</v>
+      </c>
+      <c r="C93" s="1">
+        <f>C43+48</f>
+        <v>59.5</v>
+      </c>
+      <c r="D93">
+        <f>D43</f>
+        <v>1</v>
+      </c>
+      <c r="E93" t="str">
+        <f>E43</f>
+        <v>(X=0,Y=600,Z=163)</v>
+      </c>
+      <c r="F93" t="str">
+        <f>F43</f>
+        <v>(Pitch=0,Yaw=-90,Roll=0)</v>
+      </c>
+      <c r="G93" t="str">
+        <f>G43</f>
+        <v>(X=0,Y=-1,Z=0)</v>
+      </c>
+      <c r="H93">
+        <f>H43</f>
+        <v>300</v>
+      </c>
+      <c r="I93" t="str">
+        <f>I43</f>
+        <v>左上段 普通</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A94" s="1">
+        <v>93</v>
+      </c>
+      <c r="B94" s="1">
+        <v>9</v>
+      </c>
+      <c r="C94" s="1">
+        <f>C44+48</f>
+        <v>61</v>
+      </c>
+      <c r="D94">
+        <f>D44</f>
+        <v>2</v>
+      </c>
+      <c r="E94" t="str">
+        <f>E44</f>
+        <v>(X=0,Y=500,Z=100)</v>
+      </c>
+      <c r="F94" t="str">
+        <f>F44</f>
+        <v>(Pitch=45,Yaw=90,Roll=0)</v>
+      </c>
+      <c r="G94" t="str">
+        <f>G44</f>
+        <v>(X=0,Y=-2,Z=1)</v>
+      </c>
+      <c r="H94">
+        <f>H44</f>
+        <v>1200</v>
+      </c>
+      <c r="I94" t="str">
+        <f>I44</f>
+        <v>左上段から手前に落ちる 身体にたまに当たる</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A95" s="1">
+        <v>94</v>
+      </c>
+      <c r="B95" s="1">
+        <v>9</v>
+      </c>
+      <c r="C95" s="1">
+        <f>C45+48</f>
+        <v>62</v>
+      </c>
+      <c r="D95">
+        <f>D45</f>
+        <v>1</v>
+      </c>
+      <c r="E95" t="str">
+        <f>E45</f>
+        <v>(X=0,Y=-600,Z=163)</v>
+      </c>
+      <c r="F95" t="str">
+        <f>F45</f>
+        <v>(Pitch=0,Yaw=90,Roll=0)</v>
+      </c>
+      <c r="G95" t="str">
+        <f>G45</f>
+        <v>(X=0,Y=1,Z=0)</v>
+      </c>
+      <c r="H95">
+        <f>H45</f>
+        <v>200</v>
+      </c>
+      <c r="I95" t="str">
+        <f>I45</f>
+        <v>右上段 遅い</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A96" s="1">
+        <v>95</v>
+      </c>
+      <c r="B96" s="1">
+        <v>9</v>
+      </c>
+      <c r="C96" s="1">
+        <f>C46+48</f>
+        <v>63</v>
+      </c>
+      <c r="D96">
+        <f>D46</f>
+        <v>1</v>
+      </c>
+      <c r="E96" t="str">
+        <f>E46</f>
+        <v>(X=0,Y=-600,Z=103)</v>
+      </c>
+      <c r="F96" t="str">
+        <f>F46</f>
+        <v>(Pitch=0,Yaw=90,Roll=0)</v>
+      </c>
+      <c r="G96" t="str">
+        <f>G46</f>
+        <v>(X=0,Y=1,Z=0)</v>
+      </c>
+      <c r="H96">
+        <f>H46</f>
+        <v>300</v>
+      </c>
+      <c r="I96" t="str">
+        <f>I46</f>
+        <v>右中段 普通</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A97" s="1">
+        <v>96</v>
+      </c>
+      <c r="B97" s="1">
+        <v>9</v>
+      </c>
+      <c r="C97" s="1">
+        <f>C47+48</f>
+        <v>64</v>
+      </c>
+      <c r="D97">
+        <f>D47</f>
+        <v>1</v>
+      </c>
+      <c r="E97" t="str">
+        <f>E47</f>
+        <v>(X=0,Y=-600,Z=43)</v>
+      </c>
+      <c r="F97" t="str">
+        <f>F47</f>
+        <v>(Pitch=0,Yaw=90,Roll=0)</v>
+      </c>
+      <c r="G97" t="str">
+        <f>G47</f>
+        <v>(X=0,Y=1,Z=0)</v>
+      </c>
+      <c r="H97">
+        <f>H47</f>
         <v>400</v>
       </c>
-      <c r="I66" t="s">
-        <v>56</v>
+      <c r="I97" t="str">
+        <f>I47</f>
+        <v>右下段 速い</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A98" s="1">
+        <v>97</v>
+      </c>
+      <c r="B98" s="1">
+        <v>9</v>
+      </c>
+      <c r="C98" s="1">
+        <f>C48+48</f>
+        <v>65</v>
+      </c>
+      <c r="D98">
+        <f>D48</f>
+        <v>2</v>
+      </c>
+      <c r="E98" t="str">
+        <f>E48</f>
+        <v>(X=0,Y=-500,Z=120)</v>
+      </c>
+      <c r="F98" t="str">
+        <f>F48</f>
+        <v>(Pitch=-45,Yaw=90,Roll=0)</v>
+      </c>
+      <c r="G98" t="str">
+        <f>G48</f>
+        <v>(X=0,Y=2,Z=1)</v>
+      </c>
+      <c r="H98">
+        <f>H48</f>
+        <v>1100</v>
+      </c>
+      <c r="I98" t="str">
+        <f>I48</f>
+        <v>右上から落ちてきて膝に当たる</v>
       </c>
     </row>
   </sheetData>
@@ -2528,10 +3593,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEBD7694-9D46-44B3-81F9-AE3C7A3C321F}">
-  <dimension ref="A1:I209"/>
+  <dimension ref="A1:I278"/>
   <sheetViews>
-    <sheetView topLeftCell="A179" workbookViewId="0">
-      <selection activeCell="E201" sqref="E201"/>
+    <sheetView tabSelected="1" topLeftCell="A238" workbookViewId="0">
+      <selection activeCell="C241" sqref="C241"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8606,6 +9671,2140 @@
       </c>
       <c r="I209" t="s">
         <v>56</v>
+      </c>
+    </row>
+    <row r="210" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A210" s="1">
+        <v>209</v>
+      </c>
+      <c r="B210" s="1">
+        <v>9</v>
+      </c>
+      <c r="C210" s="1">
+        <v>1</v>
+      </c>
+      <c r="D210" s="4">
+        <v>1</v>
+      </c>
+      <c r="E210" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F210" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G210" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H210" s="4">
+        <v>200</v>
+      </c>
+      <c r="I210" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="211" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A211" s="1">
+        <v>210</v>
+      </c>
+      <c r="B211" s="1">
+        <v>9</v>
+      </c>
+      <c r="C211" s="1">
+        <v>2</v>
+      </c>
+      <c r="D211">
+        <v>1</v>
+      </c>
+      <c r="E211" t="s">
+        <v>16</v>
+      </c>
+      <c r="F211" t="s">
+        <v>10</v>
+      </c>
+      <c r="G211" t="s">
+        <v>11</v>
+      </c>
+      <c r="H211">
+        <v>300</v>
+      </c>
+      <c r="I211" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="212" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A212" s="1">
+        <v>211</v>
+      </c>
+      <c r="B212" s="1">
+        <v>9</v>
+      </c>
+      <c r="C212" s="1">
+        <v>3</v>
+      </c>
+      <c r="D212">
+        <v>1</v>
+      </c>
+      <c r="E212" t="s">
+        <v>15</v>
+      </c>
+      <c r="F212" t="s">
+        <v>10</v>
+      </c>
+      <c r="G212" t="s">
+        <v>11</v>
+      </c>
+      <c r="H212">
+        <v>300</v>
+      </c>
+      <c r="I212" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="213" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A213" s="1">
+        <v>212</v>
+      </c>
+      <c r="B213" s="1">
+        <v>9</v>
+      </c>
+      <c r="C213" s="1">
+        <v>4.5</v>
+      </c>
+      <c r="D213">
+        <v>2</v>
+      </c>
+      <c r="E213" t="s">
+        <v>12</v>
+      </c>
+      <c r="F213" t="s">
+        <v>13</v>
+      </c>
+      <c r="G213" t="s">
+        <v>14</v>
+      </c>
+      <c r="H213">
+        <v>1200</v>
+      </c>
+      <c r="I213" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="214" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A214" s="1">
+        <v>213</v>
+      </c>
+      <c r="B214" s="1">
+        <v>9</v>
+      </c>
+      <c r="C214" s="1">
+        <v>4</v>
+      </c>
+      <c r="D214" s="4">
+        <v>1</v>
+      </c>
+      <c r="E214" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F214" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G214" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H214" s="4">
+        <v>200</v>
+      </c>
+      <c r="I214" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="215" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A215" s="1">
+        <v>214</v>
+      </c>
+      <c r="B215" s="1">
+        <v>9</v>
+      </c>
+      <c r="C215" s="1">
+        <v>4.5</v>
+      </c>
+      <c r="D215" s="4">
+        <v>1</v>
+      </c>
+      <c r="E215" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F215" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G215" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H215" s="4">
+        <v>200</v>
+      </c>
+      <c r="I215" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="216" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A216" s="1">
+        <v>215</v>
+      </c>
+      <c r="B216" s="1">
+        <v>9</v>
+      </c>
+      <c r="C216" s="4">
+        <v>5</v>
+      </c>
+      <c r="D216" s="4">
+        <v>1</v>
+      </c>
+      <c r="E216" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F216" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G216" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H216" s="4">
+        <v>200</v>
+      </c>
+      <c r="I216" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="217" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A217" s="1">
+        <v>216</v>
+      </c>
+      <c r="B217" s="1">
+        <v>9</v>
+      </c>
+      <c r="C217" s="1">
+        <v>5.5</v>
+      </c>
+      <c r="D217">
+        <v>2</v>
+      </c>
+      <c r="E217" t="s">
+        <v>47</v>
+      </c>
+      <c r="F217" t="s">
+        <v>22</v>
+      </c>
+      <c r="G217" t="s">
+        <v>46</v>
+      </c>
+      <c r="H217">
+        <v>1000</v>
+      </c>
+      <c r="I217" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="218" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A218" s="1">
+        <v>217</v>
+      </c>
+      <c r="B218" s="1">
+        <v>9</v>
+      </c>
+      <c r="C218" s="1">
+        <v>6.5</v>
+      </c>
+      <c r="D218">
+        <v>1</v>
+      </c>
+      <c r="E218" t="s">
+        <v>29</v>
+      </c>
+      <c r="F218" t="s">
+        <v>18</v>
+      </c>
+      <c r="G218" t="s">
+        <v>19</v>
+      </c>
+      <c r="H218">
+        <v>300</v>
+      </c>
+      <c r="I218" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="219" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A219" s="1">
+        <v>218</v>
+      </c>
+      <c r="B219" s="1">
+        <v>9</v>
+      </c>
+      <c r="C219" s="1">
+        <v>9</v>
+      </c>
+      <c r="D219" s="4">
+        <v>1</v>
+      </c>
+      <c r="E219" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F219" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G219" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H219" s="4">
+        <v>200</v>
+      </c>
+      <c r="I219" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="220" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A220" s="1">
+        <v>219</v>
+      </c>
+      <c r="B220" s="1">
+        <v>9</v>
+      </c>
+      <c r="C220" s="1">
+        <v>9</v>
+      </c>
+      <c r="D220" s="4">
+        <v>1</v>
+      </c>
+      <c r="E220" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F220" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G220" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H220" s="4">
+        <v>200</v>
+      </c>
+      <c r="I220" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="221" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A221" s="1">
+        <v>220</v>
+      </c>
+      <c r="B221" s="1">
+        <v>9</v>
+      </c>
+      <c r="C221" s="1">
+        <v>10</v>
+      </c>
+      <c r="D221">
+        <v>1</v>
+      </c>
+      <c r="E221" t="s">
+        <v>9</v>
+      </c>
+      <c r="F221" t="s">
+        <v>10</v>
+      </c>
+      <c r="G221" t="s">
+        <v>11</v>
+      </c>
+      <c r="H221">
+        <v>300</v>
+      </c>
+      <c r="I221" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="222" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A222" s="1">
+        <v>221</v>
+      </c>
+      <c r="B222" s="1">
+        <v>9</v>
+      </c>
+      <c r="C222" s="1">
+        <v>10.5</v>
+      </c>
+      <c r="D222" s="4">
+        <v>1</v>
+      </c>
+      <c r="E222" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F222" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G222" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H222" s="4">
+        <v>200</v>
+      </c>
+      <c r="I222" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="223" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A223" s="1">
+        <v>222</v>
+      </c>
+      <c r="B223" s="1">
+        <v>9</v>
+      </c>
+      <c r="C223" s="1">
+        <v>11.5</v>
+      </c>
+      <c r="D223">
+        <v>1</v>
+      </c>
+      <c r="E223" t="s">
+        <v>20</v>
+      </c>
+      <c r="F223" t="s">
+        <v>18</v>
+      </c>
+      <c r="G223" t="s">
+        <v>19</v>
+      </c>
+      <c r="H223">
+        <v>300</v>
+      </c>
+      <c r="I223" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="224" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A224" s="1">
+        <v>223</v>
+      </c>
+      <c r="B224" s="1">
+        <v>9</v>
+      </c>
+      <c r="C224" s="1">
+        <v>13</v>
+      </c>
+      <c r="D224">
+        <v>2</v>
+      </c>
+      <c r="E224" t="s">
+        <v>47</v>
+      </c>
+      <c r="F224" t="s">
+        <v>22</v>
+      </c>
+      <c r="G224" t="s">
+        <v>46</v>
+      </c>
+      <c r="H224">
+        <v>1200</v>
+      </c>
+      <c r="I224" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="225" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A225" s="1">
+        <v>224</v>
+      </c>
+      <c r="B225" s="1">
+        <v>9</v>
+      </c>
+      <c r="C225" s="1">
+        <v>14</v>
+      </c>
+      <c r="D225" s="4">
+        <v>1</v>
+      </c>
+      <c r="E225" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F225" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G225" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H225" s="4">
+        <v>200</v>
+      </c>
+      <c r="I225" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="226" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A226" s="1">
+        <v>225</v>
+      </c>
+      <c r="B226" s="1">
+        <v>9</v>
+      </c>
+      <c r="C226" s="1">
+        <v>15</v>
+      </c>
+      <c r="D226">
+        <v>1</v>
+      </c>
+      <c r="E226" t="s">
+        <v>9</v>
+      </c>
+      <c r="F226" t="s">
+        <v>10</v>
+      </c>
+      <c r="G226" t="s">
+        <v>11</v>
+      </c>
+      <c r="H226">
+        <v>300</v>
+      </c>
+      <c r="I226" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="227" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A227" s="1">
+        <v>226</v>
+      </c>
+      <c r="B227" s="1">
+        <v>9</v>
+      </c>
+      <c r="C227" s="1">
+        <v>16</v>
+      </c>
+      <c r="D227">
+        <v>1</v>
+      </c>
+      <c r="E227" t="s">
+        <v>15</v>
+      </c>
+      <c r="F227" t="s">
+        <v>10</v>
+      </c>
+      <c r="G227" t="s">
+        <v>11</v>
+      </c>
+      <c r="H227">
+        <v>400</v>
+      </c>
+      <c r="I227" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="228" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A228" s="1">
+        <v>227</v>
+      </c>
+      <c r="B228" s="1">
+        <v>9</v>
+      </c>
+      <c r="C228" s="1">
+        <v>17</v>
+      </c>
+      <c r="D228">
+        <v>2</v>
+      </c>
+      <c r="E228" t="s">
+        <v>37</v>
+      </c>
+      <c r="F228" t="s">
+        <v>13</v>
+      </c>
+      <c r="G228" t="s">
+        <v>14</v>
+      </c>
+      <c r="H228">
+        <v>1100</v>
+      </c>
+      <c r="I228" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="229" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A229" s="1">
+        <v>228</v>
+      </c>
+      <c r="B229" s="1">
+        <v>9</v>
+      </c>
+      <c r="C229" s="1">
+        <v>19</v>
+      </c>
+      <c r="D229" s="4">
+        <v>1</v>
+      </c>
+      <c r="E229" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F229" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G229" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H229" s="4">
+        <v>200</v>
+      </c>
+      <c r="I229" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="230" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A230" s="1">
+        <v>229</v>
+      </c>
+      <c r="B230" s="1">
+        <v>9</v>
+      </c>
+      <c r="C230" s="1">
+        <v>20</v>
+      </c>
+      <c r="D230">
+        <v>1</v>
+      </c>
+      <c r="E230" t="s">
+        <v>9</v>
+      </c>
+      <c r="F230" t="s">
+        <v>10</v>
+      </c>
+      <c r="G230" t="s">
+        <v>11</v>
+      </c>
+      <c r="H230">
+        <v>300</v>
+      </c>
+      <c r="I230" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="231" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A231" s="1">
+        <v>230</v>
+      </c>
+      <c r="B231" s="1">
+        <v>9</v>
+      </c>
+      <c r="C231" s="1">
+        <v>20.5</v>
+      </c>
+      <c r="D231">
+        <v>1</v>
+      </c>
+      <c r="E231" t="s">
+        <v>15</v>
+      </c>
+      <c r="F231" t="s">
+        <v>10</v>
+      </c>
+      <c r="G231" t="s">
+        <v>11</v>
+      </c>
+      <c r="H231">
+        <v>300</v>
+      </c>
+      <c r="I231" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="232" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A232" s="1">
+        <v>231</v>
+      </c>
+      <c r="B232" s="1">
+        <v>9</v>
+      </c>
+      <c r="C232" s="1">
+        <v>21</v>
+      </c>
+      <c r="D232">
+        <v>1</v>
+      </c>
+      <c r="E232" t="s">
+        <v>16</v>
+      </c>
+      <c r="F232" t="s">
+        <v>10</v>
+      </c>
+      <c r="G232" t="s">
+        <v>11</v>
+      </c>
+      <c r="H232">
+        <v>300</v>
+      </c>
+      <c r="I232" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="233" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A233" s="1">
+        <v>232</v>
+      </c>
+      <c r="B233" s="1">
+        <v>9</v>
+      </c>
+      <c r="C233" s="1">
+        <v>22</v>
+      </c>
+      <c r="D233">
+        <v>1</v>
+      </c>
+      <c r="E233" t="s">
+        <v>9</v>
+      </c>
+      <c r="F233" t="s">
+        <v>10</v>
+      </c>
+      <c r="G233" t="s">
+        <v>11</v>
+      </c>
+      <c r="H233">
+        <v>300</v>
+      </c>
+      <c r="I233" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="234" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A234" s="1">
+        <v>233</v>
+      </c>
+      <c r="B234" s="1">
+        <v>9</v>
+      </c>
+      <c r="C234" s="1">
+        <v>22.5</v>
+      </c>
+      <c r="D234">
+        <v>1</v>
+      </c>
+      <c r="E234" t="s">
+        <v>15</v>
+      </c>
+      <c r="F234" t="s">
+        <v>10</v>
+      </c>
+      <c r="G234" t="s">
+        <v>11</v>
+      </c>
+      <c r="H234">
+        <v>300</v>
+      </c>
+      <c r="I234" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="235" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A235" s="1">
+        <v>234</v>
+      </c>
+      <c r="B235" s="1">
+        <v>9</v>
+      </c>
+      <c r="C235" s="1">
+        <v>23</v>
+      </c>
+      <c r="D235">
+        <v>1</v>
+      </c>
+      <c r="E235" t="s">
+        <v>16</v>
+      </c>
+      <c r="F235" t="s">
+        <v>10</v>
+      </c>
+      <c r="G235" t="s">
+        <v>11</v>
+      </c>
+      <c r="H235">
+        <v>400</v>
+      </c>
+      <c r="I235" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="236" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A236" s="1">
+        <v>235</v>
+      </c>
+      <c r="B236" s="1">
+        <v>9</v>
+      </c>
+      <c r="C236" s="1">
+        <v>24</v>
+      </c>
+      <c r="D236">
+        <v>1</v>
+      </c>
+      <c r="E236" t="s">
+        <v>9</v>
+      </c>
+      <c r="F236" t="s">
+        <v>10</v>
+      </c>
+      <c r="G236" t="s">
+        <v>11</v>
+      </c>
+      <c r="H236">
+        <v>400</v>
+      </c>
+      <c r="I236" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="237" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A237" s="1">
+        <v>236</v>
+      </c>
+      <c r="B237" s="1">
+        <v>9</v>
+      </c>
+      <c r="C237" s="1">
+        <v>25</v>
+      </c>
+      <c r="D237">
+        <v>1</v>
+      </c>
+      <c r="E237" t="s">
+        <v>15</v>
+      </c>
+      <c r="F237" t="s">
+        <v>10</v>
+      </c>
+      <c r="G237" t="s">
+        <v>11</v>
+      </c>
+      <c r="H237">
+        <v>400</v>
+      </c>
+      <c r="I237" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="238" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A238" s="1">
+        <v>237</v>
+      </c>
+      <c r="B238" s="1">
+        <v>9</v>
+      </c>
+      <c r="C238" s="1">
+        <v>25.5</v>
+      </c>
+      <c r="D238">
+        <v>2</v>
+      </c>
+      <c r="E238" t="s">
+        <v>21</v>
+      </c>
+      <c r="F238" t="s">
+        <v>22</v>
+      </c>
+      <c r="G238" t="s">
+        <v>14</v>
+      </c>
+      <c r="H238">
+        <v>1000</v>
+      </c>
+      <c r="I238" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="239" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A239" s="1">
+        <v>238</v>
+      </c>
+      <c r="B239" s="1">
+        <v>9</v>
+      </c>
+      <c r="C239" s="1">
+        <v>26</v>
+      </c>
+      <c r="D239">
+        <v>2</v>
+      </c>
+      <c r="E239" t="s">
+        <v>49</v>
+      </c>
+      <c r="F239" t="s">
+        <v>13</v>
+      </c>
+      <c r="G239" t="s">
+        <v>46</v>
+      </c>
+      <c r="H239">
+        <v>1100</v>
+      </c>
+      <c r="I239" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="240" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A240" s="1">
+        <v>239</v>
+      </c>
+      <c r="B240" s="1">
+        <v>9</v>
+      </c>
+      <c r="C240" s="4">
+        <v>26.5</v>
+      </c>
+      <c r="D240" s="4">
+        <v>1</v>
+      </c>
+      <c r="E240" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F240" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G240" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H240" s="4">
+        <v>200</v>
+      </c>
+      <c r="I240" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="241" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A241" s="1">
+        <v>240</v>
+      </c>
+      <c r="B241" s="1">
+        <v>9</v>
+      </c>
+      <c r="C241" s="1">
+        <v>27.5</v>
+      </c>
+      <c r="D241">
+        <v>1</v>
+      </c>
+      <c r="E241" t="s">
+        <v>29</v>
+      </c>
+      <c r="F241" t="s">
+        <v>18</v>
+      </c>
+      <c r="G241" t="s">
+        <v>19</v>
+      </c>
+      <c r="H241">
+        <v>300</v>
+      </c>
+      <c r="I241" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="242" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A242" s="1">
+        <v>241</v>
+      </c>
+      <c r="B242" s="1">
+        <v>9</v>
+      </c>
+      <c r="C242" s="4">
+        <v>30</v>
+      </c>
+      <c r="D242" s="4">
+        <v>1</v>
+      </c>
+      <c r="E242" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F242" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G242" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H242" s="4">
+        <v>200</v>
+      </c>
+      <c r="I242" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="243" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A243" s="1">
+        <v>242</v>
+      </c>
+      <c r="B243" s="1">
+        <v>9</v>
+      </c>
+      <c r="C243" s="1">
+        <v>31</v>
+      </c>
+      <c r="D243">
+        <v>1</v>
+      </c>
+      <c r="E243" t="s">
+        <v>9</v>
+      </c>
+      <c r="F243" t="s">
+        <v>10</v>
+      </c>
+      <c r="G243" t="s">
+        <v>11</v>
+      </c>
+      <c r="H243">
+        <v>300</v>
+      </c>
+      <c r="I243" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="244" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A244" s="1">
+        <v>243</v>
+      </c>
+      <c r="B244" s="1">
+        <v>9</v>
+      </c>
+      <c r="C244" s="4">
+        <v>32</v>
+      </c>
+      <c r="D244">
+        <v>1</v>
+      </c>
+      <c r="E244" t="s">
+        <v>16</v>
+      </c>
+      <c r="F244" t="s">
+        <v>10</v>
+      </c>
+      <c r="G244" t="s">
+        <v>11</v>
+      </c>
+      <c r="H244">
+        <v>400</v>
+      </c>
+      <c r="I244" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="245" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A245" s="1">
+        <v>244</v>
+      </c>
+      <c r="B245" s="1">
+        <v>9</v>
+      </c>
+      <c r="C245" s="1">
+        <v>33</v>
+      </c>
+      <c r="D245">
+        <v>1</v>
+      </c>
+      <c r="E245" t="s">
+        <v>16</v>
+      </c>
+      <c r="F245" t="s">
+        <v>10</v>
+      </c>
+      <c r="G245" t="s">
+        <v>11</v>
+      </c>
+      <c r="H245">
+        <v>400</v>
+      </c>
+      <c r="I245" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="246" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A246" s="1">
+        <v>245</v>
+      </c>
+      <c r="B246" s="1">
+        <v>9</v>
+      </c>
+      <c r="C246" s="4">
+        <v>34</v>
+      </c>
+      <c r="D246">
+        <v>2</v>
+      </c>
+      <c r="E246" t="s">
+        <v>47</v>
+      </c>
+      <c r="F246" t="s">
+        <v>22</v>
+      </c>
+      <c r="G246" t="s">
+        <v>46</v>
+      </c>
+      <c r="H246">
+        <v>1000</v>
+      </c>
+      <c r="I246" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="247" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A247" s="1">
+        <v>246</v>
+      </c>
+      <c r="B247" s="1">
+        <v>9</v>
+      </c>
+      <c r="C247" s="1">
+        <v>35</v>
+      </c>
+      <c r="D247">
+        <v>2</v>
+      </c>
+      <c r="E247" t="s">
+        <v>48</v>
+      </c>
+      <c r="F247" t="s">
+        <v>13</v>
+      </c>
+      <c r="G247" t="s">
+        <v>46</v>
+      </c>
+      <c r="H247">
+        <v>1200</v>
+      </c>
+      <c r="I247" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="248" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A248" s="1">
+        <v>247</v>
+      </c>
+      <c r="B248" s="1">
+        <v>9</v>
+      </c>
+      <c r="C248" s="4">
+        <v>36</v>
+      </c>
+      <c r="D248">
+        <v>2</v>
+      </c>
+      <c r="E248" t="s">
+        <v>47</v>
+      </c>
+      <c r="F248" t="s">
+        <v>22</v>
+      </c>
+      <c r="G248" t="s">
+        <v>46</v>
+      </c>
+      <c r="H248">
+        <v>1200</v>
+      </c>
+      <c r="I248" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="249" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A249" s="1">
+        <v>248</v>
+      </c>
+      <c r="B249" s="1">
+        <v>9</v>
+      </c>
+      <c r="C249" s="1">
+        <v>37</v>
+      </c>
+      <c r="D249">
+        <v>1</v>
+      </c>
+      <c r="E249" t="s">
+        <v>29</v>
+      </c>
+      <c r="F249" t="s">
+        <v>18</v>
+      </c>
+      <c r="G249" t="s">
+        <v>19</v>
+      </c>
+      <c r="H249">
+        <v>300</v>
+      </c>
+      <c r="I249" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="250" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A250" s="1">
+        <v>249</v>
+      </c>
+      <c r="B250" s="1">
+        <v>9</v>
+      </c>
+      <c r="C250" s="4">
+        <v>38</v>
+      </c>
+      <c r="D250">
+        <v>1</v>
+      </c>
+      <c r="E250" t="s">
+        <v>9</v>
+      </c>
+      <c r="F250" t="s">
+        <v>10</v>
+      </c>
+      <c r="G250" t="s">
+        <v>11</v>
+      </c>
+      <c r="H250">
+        <v>300</v>
+      </c>
+      <c r="I250" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="251" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A251" s="1">
+        <v>250</v>
+      </c>
+      <c r="B251" s="1">
+        <v>9</v>
+      </c>
+      <c r="C251" s="1">
+        <v>39</v>
+      </c>
+      <c r="D251">
+        <v>2</v>
+      </c>
+      <c r="E251" t="s">
+        <v>49</v>
+      </c>
+      <c r="F251" t="s">
+        <v>13</v>
+      </c>
+      <c r="G251" t="s">
+        <v>46</v>
+      </c>
+      <c r="H251">
+        <v>1100</v>
+      </c>
+      <c r="I251" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="252" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A252" s="1">
+        <v>251</v>
+      </c>
+      <c r="B252" s="1">
+        <v>9</v>
+      </c>
+      <c r="C252" s="4">
+        <v>40</v>
+      </c>
+      <c r="D252">
+        <v>1</v>
+      </c>
+      <c r="E252" t="s">
+        <v>9</v>
+      </c>
+      <c r="F252" t="s">
+        <v>10</v>
+      </c>
+      <c r="G252" t="s">
+        <v>11</v>
+      </c>
+      <c r="H252">
+        <v>400</v>
+      </c>
+      <c r="I252" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="253" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A253" s="1">
+        <v>252</v>
+      </c>
+      <c r="B253" s="1">
+        <v>9</v>
+      </c>
+      <c r="C253" s="1">
+        <v>41</v>
+      </c>
+      <c r="D253" s="4">
+        <v>1</v>
+      </c>
+      <c r="E253" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F253" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G253" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H253" s="4">
+        <v>200</v>
+      </c>
+      <c r="I253" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="254" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A254" s="1">
+        <v>253</v>
+      </c>
+      <c r="B254" s="1">
+        <v>9</v>
+      </c>
+      <c r="C254" s="1">
+        <v>44</v>
+      </c>
+      <c r="D254" s="4">
+        <v>1</v>
+      </c>
+      <c r="E254" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F254" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G254" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H254" s="4">
+        <v>200</v>
+      </c>
+      <c r="I254" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="255" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A255" s="1">
+        <v>254</v>
+      </c>
+      <c r="B255" s="1">
+        <v>9</v>
+      </c>
+      <c r="C255" s="1">
+        <v>44</v>
+      </c>
+      <c r="D255" s="4">
+        <v>1</v>
+      </c>
+      <c r="E255" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F255" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G255" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H255" s="4">
+        <v>200</v>
+      </c>
+      <c r="I255" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="256" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A256" s="1">
+        <v>255</v>
+      </c>
+      <c r="B256" s="1">
+        <v>9</v>
+      </c>
+      <c r="C256" s="4">
+        <v>45</v>
+      </c>
+      <c r="D256" s="4">
+        <v>1</v>
+      </c>
+      <c r="E256" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F256" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G256" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H256" s="4">
+        <v>200</v>
+      </c>
+      <c r="I256" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="257" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A257" s="1">
+        <v>256</v>
+      </c>
+      <c r="B257" s="1">
+        <v>9</v>
+      </c>
+      <c r="C257" s="1">
+        <v>45</v>
+      </c>
+      <c r="D257">
+        <v>1</v>
+      </c>
+      <c r="E257" t="s">
+        <v>9</v>
+      </c>
+      <c r="F257" t="s">
+        <v>10</v>
+      </c>
+      <c r="G257" t="s">
+        <v>11</v>
+      </c>
+      <c r="H257">
+        <v>300</v>
+      </c>
+      <c r="I257" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="258" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A258" s="1">
+        <v>257</v>
+      </c>
+      <c r="B258" s="1">
+        <v>9</v>
+      </c>
+      <c r="C258" s="4">
+        <v>46</v>
+      </c>
+      <c r="D258" s="4">
+        <v>1</v>
+      </c>
+      <c r="E258" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F258" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G258" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H258" s="4">
+        <v>200</v>
+      </c>
+      <c r="I258" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="259" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A259" s="1">
+        <v>258</v>
+      </c>
+      <c r="B259" s="1">
+        <v>9</v>
+      </c>
+      <c r="C259" s="1">
+        <v>46.5</v>
+      </c>
+      <c r="D259">
+        <v>2</v>
+      </c>
+      <c r="E259" t="s">
+        <v>48</v>
+      </c>
+      <c r="F259" t="s">
+        <v>13</v>
+      </c>
+      <c r="G259" t="s">
+        <v>46</v>
+      </c>
+      <c r="H259">
+        <v>1200</v>
+      </c>
+      <c r="I259" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="260" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A260" s="1">
+        <v>259</v>
+      </c>
+      <c r="B260" s="1">
+        <v>9</v>
+      </c>
+      <c r="C260" s="1">
+        <f>C210+48</f>
+        <v>49</v>
+      </c>
+      <c r="D260">
+        <f>D210</f>
+        <v>1</v>
+      </c>
+      <c r="E260" t="str">
+        <f>E210</f>
+        <v>(X=0,Y=-600,Z=103)</v>
+      </c>
+      <c r="F260" t="str">
+        <f>F210</f>
+        <v>(Pitch=0,Yaw=90,Roll=0)</v>
+      </c>
+      <c r="G260" t="str">
+        <f>G210</f>
+        <v>(X=0,Y=1,Z=0)</v>
+      </c>
+      <c r="H260">
+        <f>H210</f>
+        <v>200</v>
+      </c>
+      <c r="I260" t="str">
+        <f>I210</f>
+        <v>右中段 遅い</v>
+      </c>
+    </row>
+    <row r="261" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A261" s="1">
+        <v>260</v>
+      </c>
+      <c r="B261" s="1">
+        <v>9</v>
+      </c>
+      <c r="C261" s="1">
+        <f>C211+48</f>
+        <v>50</v>
+      </c>
+      <c r="D261">
+        <f>D211</f>
+        <v>1</v>
+      </c>
+      <c r="E261" t="str">
+        <f>E211</f>
+        <v>(X=0,Y=-600,Z=163)</v>
+      </c>
+      <c r="F261" t="str">
+        <f>F211</f>
+        <v>(Pitch=0,Yaw=90,Roll=0)</v>
+      </c>
+      <c r="G261" t="str">
+        <f>G211</f>
+        <v>(X=0,Y=1,Z=0)</v>
+      </c>
+      <c r="H261">
+        <f>H211</f>
+        <v>300</v>
+      </c>
+      <c r="I261" t="str">
+        <f>I211</f>
+        <v>右上段 普通</v>
+      </c>
+    </row>
+    <row r="262" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A262" s="1">
+        <v>261</v>
+      </c>
+      <c r="B262" s="1">
+        <v>9</v>
+      </c>
+      <c r="C262" s="1">
+        <f>C212+48</f>
+        <v>51</v>
+      </c>
+      <c r="D262">
+        <f>D212</f>
+        <v>1</v>
+      </c>
+      <c r="E262" t="str">
+        <f>E212</f>
+        <v>(X=0,Y=-600,Z=43)</v>
+      </c>
+      <c r="F262" t="str">
+        <f>F212</f>
+        <v>(Pitch=0,Yaw=90,Roll=0)</v>
+      </c>
+      <c r="G262" t="str">
+        <f>G212</f>
+        <v>(X=0,Y=1,Z=0)</v>
+      </c>
+      <c r="H262">
+        <f>H212</f>
+        <v>300</v>
+      </c>
+      <c r="I262" t="str">
+        <f>I212</f>
+        <v>右下段 普通</v>
+      </c>
+    </row>
+    <row r="263" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A263" s="1">
+        <v>262</v>
+      </c>
+      <c r="B263" s="1">
+        <v>9</v>
+      </c>
+      <c r="C263" s="1">
+        <f>C213+48</f>
+        <v>52.5</v>
+      </c>
+      <c r="D263">
+        <f>D213</f>
+        <v>2</v>
+      </c>
+      <c r="E263" t="str">
+        <f>E213</f>
+        <v>(X=0,Y=-500,Z=60)</v>
+      </c>
+      <c r="F263" t="str">
+        <f>F213</f>
+        <v>(Pitch=-45,Yaw=90,Roll=0)</v>
+      </c>
+      <c r="G263" t="str">
+        <f>G213</f>
+        <v>(X=0,Y=2,Z=1)</v>
+      </c>
+      <c r="H263">
+        <f>H213</f>
+        <v>1200</v>
+      </c>
+      <c r="I263" t="str">
+        <f>I213</f>
+        <v>右上段に真横に飛んでくる 身体に当たる</v>
+      </c>
+    </row>
+    <row r="264" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A264" s="1">
+        <v>263</v>
+      </c>
+      <c r="B264" s="1">
+        <v>9</v>
+      </c>
+      <c r="C264" s="1">
+        <f>C214+48</f>
+        <v>52</v>
+      </c>
+      <c r="D264">
+        <f>D214</f>
+        <v>1</v>
+      </c>
+      <c r="E264" t="str">
+        <f>E214</f>
+        <v>(X=0,Y=600,Z=163)</v>
+      </c>
+      <c r="F264" t="str">
+        <f>F214</f>
+        <v>(Pitch=0,Yaw=-90,Roll=0)</v>
+      </c>
+      <c r="G264" t="str">
+        <f>G214</f>
+        <v>(X=0,Y=-1,Z=0)</v>
+      </c>
+      <c r="H264">
+        <f>H214</f>
+        <v>200</v>
+      </c>
+      <c r="I264" t="str">
+        <f>I214</f>
+        <v>左上段 遅い</v>
+      </c>
+    </row>
+    <row r="265" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A265" s="1">
+        <v>264</v>
+      </c>
+      <c r="B265" s="1">
+        <v>9</v>
+      </c>
+      <c r="C265" s="1">
+        <f>C215+48</f>
+        <v>52.5</v>
+      </c>
+      <c r="D265">
+        <f>D215</f>
+        <v>1</v>
+      </c>
+      <c r="E265" t="str">
+        <f>E215</f>
+        <v>(X=0,Y=-600,Z=163)</v>
+      </c>
+      <c r="F265" t="str">
+        <f>F215</f>
+        <v>(Pitch=0,Yaw=90,Roll=0)</v>
+      </c>
+      <c r="G265" t="str">
+        <f>G215</f>
+        <v>(X=0,Y=1,Z=0)</v>
+      </c>
+      <c r="H265">
+        <f>H215</f>
+        <v>200</v>
+      </c>
+      <c r="I265" t="str">
+        <f>I215</f>
+        <v>右上段 遅い</v>
+      </c>
+    </row>
+    <row r="266" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A266" s="1">
+        <v>265</v>
+      </c>
+      <c r="B266" s="1">
+        <v>9</v>
+      </c>
+      <c r="C266" s="1">
+        <f>C216+48</f>
+        <v>53</v>
+      </c>
+      <c r="D266">
+        <f>D216</f>
+        <v>1</v>
+      </c>
+      <c r="E266" t="str">
+        <f>E216</f>
+        <v>(X=0,Y=600,Z=103)</v>
+      </c>
+      <c r="F266" t="str">
+        <f>F216</f>
+        <v>(Pitch=0,Yaw=-90,Roll=0)</v>
+      </c>
+      <c r="G266" t="str">
+        <f>G216</f>
+        <v>(X=0,Y=-1,Z=0)</v>
+      </c>
+      <c r="H266">
+        <f>H216</f>
+        <v>200</v>
+      </c>
+      <c r="I266" t="str">
+        <f>I216</f>
+        <v>左中段 遅い</v>
+      </c>
+    </row>
+    <row r="267" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A267" s="1">
+        <v>266</v>
+      </c>
+      <c r="B267" s="1">
+        <v>9</v>
+      </c>
+      <c r="C267" s="1">
+        <f>C217+48</f>
+        <v>53.5</v>
+      </c>
+      <c r="D267">
+        <f>D217</f>
+        <v>2</v>
+      </c>
+      <c r="E267" t="str">
+        <f>E217</f>
+        <v>(X=0,Y=500,Z=100)</v>
+      </c>
+      <c r="F267" t="str">
+        <f>F217</f>
+        <v>(Pitch=45,Yaw=90,Roll=0)</v>
+      </c>
+      <c r="G267" t="str">
+        <f>G217</f>
+        <v>(X=0,Y=-2,Z=1)</v>
+      </c>
+      <c r="H267">
+        <f>H217</f>
+        <v>1000</v>
+      </c>
+      <c r="I267" t="str">
+        <f>I217</f>
+        <v>左中段から手前に落ちる</v>
+      </c>
+    </row>
+    <row r="268" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A268" s="1">
+        <v>267</v>
+      </c>
+      <c r="B268" s="1">
+        <v>9</v>
+      </c>
+      <c r="C268" s="1">
+        <f>C218+48</f>
+        <v>54.5</v>
+      </c>
+      <c r="D268">
+        <f>D218</f>
+        <v>1</v>
+      </c>
+      <c r="E268" t="str">
+        <f>E218</f>
+        <v>(X=0,Y=600,Z=43)</v>
+      </c>
+      <c r="F268" t="str">
+        <f>F218</f>
+        <v>(Pitch=0,Yaw=-90,Roll=0)</v>
+      </c>
+      <c r="G268" t="str">
+        <f>G218</f>
+        <v>(X=0,Y=-1,Z=0)</v>
+      </c>
+      <c r="H268">
+        <f>H218</f>
+        <v>300</v>
+      </c>
+      <c r="I268" t="str">
+        <f>I218</f>
+        <v>左下段 普通</v>
+      </c>
+    </row>
+    <row r="269" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A269" s="1">
+        <v>268</v>
+      </c>
+      <c r="B269" s="1">
+        <v>9</v>
+      </c>
+      <c r="C269" s="1">
+        <f>C219+48</f>
+        <v>57</v>
+      </c>
+      <c r="D269">
+        <f>D219</f>
+        <v>1</v>
+      </c>
+      <c r="E269" t="str">
+        <f>E219</f>
+        <v>(X=0,Y=-600,Z=163)</v>
+      </c>
+      <c r="F269" t="str">
+        <f>F219</f>
+        <v>(Pitch=0,Yaw=90,Roll=0)</v>
+      </c>
+      <c r="G269" t="str">
+        <f>G219</f>
+        <v>(X=0,Y=1,Z=0)</v>
+      </c>
+      <c r="H269">
+        <f>H219</f>
+        <v>200</v>
+      </c>
+      <c r="I269" t="str">
+        <f>I219</f>
+        <v>右上段 遅い</v>
+      </c>
+    </row>
+    <row r="270" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A270" s="1">
+        <v>269</v>
+      </c>
+      <c r="B270" s="1">
+        <v>9</v>
+      </c>
+      <c r="C270" s="1">
+        <f>C220+48</f>
+        <v>57</v>
+      </c>
+      <c r="D270">
+        <f>D220</f>
+        <v>1</v>
+      </c>
+      <c r="E270" t="str">
+        <f>E220</f>
+        <v>(X=0,Y=600,Z=103)</v>
+      </c>
+      <c r="F270" t="str">
+        <f>F220</f>
+        <v>(Pitch=0,Yaw=-90,Roll=0)</v>
+      </c>
+      <c r="G270" t="str">
+        <f>G220</f>
+        <v>(X=0,Y=-1,Z=0)</v>
+      </c>
+      <c r="H270">
+        <f>H220</f>
+        <v>200</v>
+      </c>
+      <c r="I270" t="str">
+        <f>I220</f>
+        <v>左中段 遅い</v>
+      </c>
+    </row>
+    <row r="271" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A271" s="1">
+        <v>270</v>
+      </c>
+      <c r="B271" s="1">
+        <v>9</v>
+      </c>
+      <c r="C271" s="1">
+        <f>C221+48</f>
+        <v>58</v>
+      </c>
+      <c r="D271">
+        <f>D221</f>
+        <v>1</v>
+      </c>
+      <c r="E271" t="str">
+        <f>E221</f>
+        <v>(X=0,Y=-600,Z=103)</v>
+      </c>
+      <c r="F271" t="str">
+        <f>F221</f>
+        <v>(Pitch=0,Yaw=90,Roll=0)</v>
+      </c>
+      <c r="G271" t="str">
+        <f>G221</f>
+        <v>(X=0,Y=1,Z=0)</v>
+      </c>
+      <c r="H271">
+        <f>H221</f>
+        <v>300</v>
+      </c>
+      <c r="I271" t="str">
+        <f>I221</f>
+        <v>右中段 普通</v>
+      </c>
+    </row>
+    <row r="272" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A272" s="1">
+        <v>271</v>
+      </c>
+      <c r="B272" s="1">
+        <v>9</v>
+      </c>
+      <c r="C272" s="1">
+        <f>C222+48</f>
+        <v>58.5</v>
+      </c>
+      <c r="D272">
+        <f>D222</f>
+        <v>1</v>
+      </c>
+      <c r="E272" t="str">
+        <f>E222</f>
+        <v>(X=0,Y=600,Z=43)</v>
+      </c>
+      <c r="F272" t="str">
+        <f>F222</f>
+        <v>(Pitch=0,Yaw=-90,Roll=0)</v>
+      </c>
+      <c r="G272" t="str">
+        <f>G222</f>
+        <v>(X=0,Y=-1,Z=0)</v>
+      </c>
+      <c r="H272">
+        <f>H222</f>
+        <v>200</v>
+      </c>
+      <c r="I272" t="str">
+        <f>I222</f>
+        <v>左下段 遅い</v>
+      </c>
+    </row>
+    <row r="273" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A273" s="1">
+        <v>272</v>
+      </c>
+      <c r="B273" s="1">
+        <v>9</v>
+      </c>
+      <c r="C273" s="1">
+        <f>C223+48</f>
+        <v>59.5</v>
+      </c>
+      <c r="D273">
+        <f>D223</f>
+        <v>1</v>
+      </c>
+      <c r="E273" t="str">
+        <f>E223</f>
+        <v>(X=0,Y=600,Z=163)</v>
+      </c>
+      <c r="F273" t="str">
+        <f>F223</f>
+        <v>(Pitch=0,Yaw=-90,Roll=0)</v>
+      </c>
+      <c r="G273" t="str">
+        <f>G223</f>
+        <v>(X=0,Y=-1,Z=0)</v>
+      </c>
+      <c r="H273">
+        <f>H223</f>
+        <v>300</v>
+      </c>
+      <c r="I273" t="str">
+        <f>I223</f>
+        <v>左上段 普通</v>
+      </c>
+    </row>
+    <row r="274" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A274" s="1">
+        <v>273</v>
+      </c>
+      <c r="B274" s="1">
+        <v>9</v>
+      </c>
+      <c r="C274" s="1">
+        <f>C224+48</f>
+        <v>61</v>
+      </c>
+      <c r="D274">
+        <f>D224</f>
+        <v>2</v>
+      </c>
+      <c r="E274" t="str">
+        <f>E224</f>
+        <v>(X=0,Y=500,Z=100)</v>
+      </c>
+      <c r="F274" t="str">
+        <f>F224</f>
+        <v>(Pitch=45,Yaw=90,Roll=0)</v>
+      </c>
+      <c r="G274" t="str">
+        <f>G224</f>
+        <v>(X=0,Y=-2,Z=1)</v>
+      </c>
+      <c r="H274">
+        <f>H224</f>
+        <v>1200</v>
+      </c>
+      <c r="I274" t="str">
+        <f>I224</f>
+        <v>左上段から手前に落ちる 身体にたまに当たる</v>
+      </c>
+    </row>
+    <row r="275" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A275" s="1">
+        <v>274</v>
+      </c>
+      <c r="B275" s="1">
+        <v>9</v>
+      </c>
+      <c r="C275" s="1">
+        <f>C225+48</f>
+        <v>62</v>
+      </c>
+      <c r="D275">
+        <f>D225</f>
+        <v>1</v>
+      </c>
+      <c r="E275" t="str">
+        <f>E225</f>
+        <v>(X=0,Y=-600,Z=163)</v>
+      </c>
+      <c r="F275" t="str">
+        <f>F225</f>
+        <v>(Pitch=0,Yaw=90,Roll=0)</v>
+      </c>
+      <c r="G275" t="str">
+        <f>G225</f>
+        <v>(X=0,Y=1,Z=0)</v>
+      </c>
+      <c r="H275">
+        <f>H225</f>
+        <v>200</v>
+      </c>
+      <c r="I275" t="str">
+        <f>I225</f>
+        <v>右上段 遅い</v>
+      </c>
+    </row>
+    <row r="276" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A276" s="1">
+        <v>275</v>
+      </c>
+      <c r="B276" s="1">
+        <v>9</v>
+      </c>
+      <c r="C276" s="1">
+        <f>C226+48</f>
+        <v>63</v>
+      </c>
+      <c r="D276">
+        <f>D226</f>
+        <v>1</v>
+      </c>
+      <c r="E276" t="str">
+        <f>E226</f>
+        <v>(X=0,Y=-600,Z=103)</v>
+      </c>
+      <c r="F276" t="str">
+        <f>F226</f>
+        <v>(Pitch=0,Yaw=90,Roll=0)</v>
+      </c>
+      <c r="G276" t="str">
+        <f>G226</f>
+        <v>(X=0,Y=1,Z=0)</v>
+      </c>
+      <c r="H276">
+        <f>H226</f>
+        <v>300</v>
+      </c>
+      <c r="I276" t="str">
+        <f>I226</f>
+        <v>右中段 普通</v>
+      </c>
+    </row>
+    <row r="277" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A277" s="1">
+        <v>276</v>
+      </c>
+      <c r="B277" s="1">
+        <v>9</v>
+      </c>
+      <c r="C277" s="1">
+        <f>C227+48</f>
+        <v>64</v>
+      </c>
+      <c r="D277">
+        <f>D227</f>
+        <v>1</v>
+      </c>
+      <c r="E277" t="str">
+        <f>E227</f>
+        <v>(X=0,Y=-600,Z=43)</v>
+      </c>
+      <c r="F277" t="str">
+        <f>F227</f>
+        <v>(Pitch=0,Yaw=90,Roll=0)</v>
+      </c>
+      <c r="G277" t="str">
+        <f>G227</f>
+        <v>(X=0,Y=1,Z=0)</v>
+      </c>
+      <c r="H277">
+        <f>H227</f>
+        <v>400</v>
+      </c>
+      <c r="I277" t="str">
+        <f>I227</f>
+        <v>右下段 速い</v>
+      </c>
+    </row>
+    <row r="278" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A278" s="1">
+        <v>277</v>
+      </c>
+      <c r="B278" s="1">
+        <v>9</v>
+      </c>
+      <c r="C278" s="1">
+        <f>C228+48</f>
+        <v>65</v>
+      </c>
+      <c r="D278">
+        <f>D228</f>
+        <v>2</v>
+      </c>
+      <c r="E278" t="str">
+        <f>E228</f>
+        <v>(X=0,Y=-500,Z=120)</v>
+      </c>
+      <c r="F278" t="str">
+        <f>F228</f>
+        <v>(Pitch=-45,Yaw=90,Roll=0)</v>
+      </c>
+      <c r="G278" t="str">
+        <f>G228</f>
+        <v>(X=0,Y=2,Z=1)</v>
+      </c>
+      <c r="H278">
+        <f>H228</f>
+        <v>1100</v>
+      </c>
+      <c r="I278" t="str">
+        <f>I228</f>
+        <v>右上から落ちてきて膝に当たる</v>
       </c>
     </row>
   </sheetData>

--- a/StageData.xlsx
+++ b/StageData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Documents\Unreal Projects\petitcon21\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{277B2638-EF36-4040-8E24-77CE0DD250E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFA9E0EC-8838-4E7A-8AC5-25BFF1C9C55F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="34605" yWindow="2790" windowWidth="21600" windowHeight="11295" xr2:uid="{2A5FB008-7706-4DC0-AC1A-842182642272}"/>
+    <workbookView xWindow="31125" yWindow="2265" windowWidth="21600" windowHeight="11835" xr2:uid="{2A5FB008-7706-4DC0-AC1A-842182642272}"/>
   </bookViews>
   <sheets>
     <sheet name="作業中" sheetId="6" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1644" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1698" uniqueCount="58">
   <si>
     <t>Row Name</t>
   </si>
@@ -586,10 +586,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8CFAFC9-EAF1-40E4-8D59-0C784DC2BCCB}">
-  <dimension ref="A1:I10"/>
+  <dimension ref="A1:I28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H10" sqref="A1:H10"/>
+      <selection activeCell="H28" sqref="A1:H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -876,6 +876,474 @@
         <v>200</v>
       </c>
       <c r="I10" s="4"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1">
+        <v>1</v>
+      </c>
+      <c r="C11" s="1">
+        <v>9</v>
+      </c>
+      <c r="D11" s="4">
+        <v>1</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H11" s="4">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1">
+        <v>1</v>
+      </c>
+      <c r="C12" s="1">
+        <v>10</v>
+      </c>
+      <c r="D12" s="4">
+        <v>1</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H12" s="4">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1">
+        <v>1</v>
+      </c>
+      <c r="C13" s="1">
+        <v>11</v>
+      </c>
+      <c r="D13" s="4">
+        <v>1</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H13" s="4">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1">
+        <v>1</v>
+      </c>
+      <c r="C14" s="1">
+        <v>12</v>
+      </c>
+      <c r="D14" s="4">
+        <v>1</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H14" s="4">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1">
+        <v>1</v>
+      </c>
+      <c r="C15" s="1">
+        <v>13</v>
+      </c>
+      <c r="D15" s="4">
+        <v>1</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H15" s="4">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1">
+        <v>1</v>
+      </c>
+      <c r="C16" s="1">
+        <v>14</v>
+      </c>
+      <c r="D16" s="4">
+        <v>1</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H16" s="4">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>16</v>
+      </c>
+      <c r="B17" s="1">
+        <v>1</v>
+      </c>
+      <c r="C17" s="1">
+        <v>15</v>
+      </c>
+      <c r="D17" s="4">
+        <v>1</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H17" s="4">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>17</v>
+      </c>
+      <c r="B18" s="1">
+        <v>1</v>
+      </c>
+      <c r="C18" s="1">
+        <v>16</v>
+      </c>
+      <c r="D18" s="4">
+        <v>1</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H18" s="4">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>18</v>
+      </c>
+      <c r="B19" s="1">
+        <v>1</v>
+      </c>
+      <c r="C19" s="1">
+        <v>17</v>
+      </c>
+      <c r="D19" s="4">
+        <v>1</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H19" s="4">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>19</v>
+      </c>
+      <c r="B20" s="1">
+        <v>1</v>
+      </c>
+      <c r="C20" s="1">
+        <v>18</v>
+      </c>
+      <c r="D20" s="4">
+        <v>1</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H20" s="4">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>20</v>
+      </c>
+      <c r="B21" s="1">
+        <v>1</v>
+      </c>
+      <c r="C21" s="1">
+        <v>19</v>
+      </c>
+      <c r="D21" s="4">
+        <v>1</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H21" s="4">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>21</v>
+      </c>
+      <c r="B22" s="1">
+        <v>1</v>
+      </c>
+      <c r="C22" s="1">
+        <v>20</v>
+      </c>
+      <c r="D22" s="4">
+        <v>1</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H22" s="4">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>22</v>
+      </c>
+      <c r="B23" s="1">
+        <v>1</v>
+      </c>
+      <c r="C23" s="1">
+        <v>21</v>
+      </c>
+      <c r="D23" s="4">
+        <v>1</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H23" s="4">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>23</v>
+      </c>
+      <c r="B24" s="1">
+        <v>1</v>
+      </c>
+      <c r="C24" s="1">
+        <v>22</v>
+      </c>
+      <c r="D24" s="4">
+        <v>1</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G24" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H24" s="4">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>24</v>
+      </c>
+      <c r="B25" s="1">
+        <v>1</v>
+      </c>
+      <c r="C25" s="1">
+        <v>23</v>
+      </c>
+      <c r="D25" s="4">
+        <v>1</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G25" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H25" s="4">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>25</v>
+      </c>
+      <c r="B26" s="1">
+        <v>1</v>
+      </c>
+      <c r="C26" s="1">
+        <v>24</v>
+      </c>
+      <c r="D26" s="4">
+        <v>1</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G26" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H26" s="4">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>26</v>
+      </c>
+      <c r="B27" s="1">
+        <v>1</v>
+      </c>
+      <c r="C27" s="1">
+        <v>25</v>
+      </c>
+      <c r="D27" s="4">
+        <v>1</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G27" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H27" s="4">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>27</v>
+      </c>
+      <c r="B28" s="1">
+        <v>1</v>
+      </c>
+      <c r="C28" s="1">
+        <v>26</v>
+      </c>
+      <c r="D28" s="4">
+        <v>1</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G28" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H28" s="4">
+        <v>200</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
